--- a/Datasets/Acceso a Internet fijo por tecnología y provincia.xlsx
+++ b/Datasets/Acceso a Internet fijo por tecnología y provincia.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsdrajlin/Library/CloudStorage/GoogleDrive-dsdrajlin@gmail.com/Mi unidad/_Archive/Henry/LABS/PI DA/PI-02/Datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF55F0E9-44C2-4D44-AFB1-0DE8CC8C7FF8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14" yWindow="3831" windowWidth="23067" windowHeight="1915"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totales" sheetId="14" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <definedName name="trim">#REF!</definedName>
     <definedName name="trim2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="78">
   <si>
     <t>ADSL</t>
   </si>
@@ -255,23 +261,20 @@
     <t>Jul-Sept 2022</t>
   </si>
   <si>
-    <t>Z_Total</t>
-  </si>
-  <si>
     <t>Oct-Dic 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,9 +510,9 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
-    <cellStyle name="nico acc" xfId="4"/>
+    <cellStyle name="nico acc" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,7 +571,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,9 +604,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,6 +656,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -811,32 +848,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" customWidth="1"/>
-    <col min="15" max="15" width="11.875" customWidth="1"/>
-    <col min="16" max="18" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" customWidth="1"/>
+    <col min="16" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -865,7 +902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="36" t="s">
         <v>73</v>
       </c>
@@ -891,10 +928,10 @@
         <v>11208114</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="34" t="s">
         <v>73</v>
       </c>
@@ -923,7 +960,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="31" t="s">
         <v>73</v>
       </c>
@@ -952,7 +989,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="18" t="s">
         <v>73</v>
       </c>
@@ -981,7 +1018,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="16">
         <v>2021</v>
       </c>
@@ -1023,7 +1060,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="14">
         <v>2021</v>
       </c>
@@ -1064,7 +1101,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="12">
         <v>2021</v>
       </c>
@@ -1106,7 +1143,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="12">
         <v>2021</v>
       </c>
@@ -1148,7 +1185,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="12">
         <v>2020</v>
       </c>
@@ -1190,7 +1227,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="12">
         <v>2020</v>
       </c>
@@ -1232,7 +1269,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="11" t="s">
         <v>60</v>
       </c>
@@ -1274,7 +1311,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="11">
         <v>2020</v>
       </c>
@@ -1316,7 +1353,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="11">
         <v>2019</v>
       </c>
@@ -1358,7 +1395,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="11">
         <v>2019</v>
       </c>
@@ -1400,7 +1437,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="7">
         <v>2019</v>
       </c>
@@ -1442,7 +1479,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="7">
         <v>2019</v>
       </c>
@@ -1484,7 +1521,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="7">
         <v>2018</v>
       </c>
@@ -1526,7 +1563,7 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="7">
         <v>2018</v>
       </c>
@@ -1568,7 +1605,7 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="7">
         <v>2018</v>
       </c>
@@ -1611,7 +1648,7 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -1653,7 +1690,7 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="7">
         <v>2017</v>
       </c>
@@ -1695,7 +1732,7 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="7">
         <v>2017</v>
       </c>
@@ -1737,7 +1774,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="7">
         <v>2017</v>
       </c>
@@ -1779,7 +1816,7 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="7">
         <v>2017</v>
       </c>
@@ -1821,7 +1858,7 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="7">
         <v>2016</v>
       </c>
@@ -1863,7 +1900,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="7">
         <v>2016</v>
       </c>
@@ -1905,7 +1942,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" s="7">
         <v>2016</v>
       </c>
@@ -1947,7 +1984,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" s="7">
         <v>2016</v>
       </c>
@@ -1989,7 +2026,7 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" s="7">
         <v>2015</v>
       </c>
@@ -2031,7 +2068,7 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" s="7">
         <v>2015</v>
       </c>
@@ -2073,7 +2110,7 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" s="7">
         <v>2015</v>
       </c>
@@ -2115,7 +2152,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" s="7">
         <v>2015</v>
       </c>
@@ -2157,7 +2194,7 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" s="7">
         <v>2014</v>
       </c>
@@ -2199,7 +2236,7 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" s="7">
         <v>2014</v>
       </c>
@@ -2241,7 +2278,7 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" s="7">
         <v>2014</v>
       </c>
@@ -2283,7 +2320,7 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" s="7">
         <v>2014</v>
       </c>
@@ -2325,7 +2362,7 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="L38" s="3"/>
       <c r="M38" s="4"/>
       <c r="N38" s="8"/>
@@ -2334,7 +2371,7 @@
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
@@ -2348,7 +2385,7 @@
       <c r="R39" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I37"/>
+  <autoFilter ref="A1:I37" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:I17">
     <sortCondition descending="1" ref="A2:A17"/>
     <sortCondition descending="1" ref="B2:B17"/>
@@ -2362,25 +2399,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R867"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M867"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26:R26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="11.375" style="20"/>
-    <col min="3" max="3" width="19.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="25" customWidth="1"/>
-    <col min="11" max="16384" width="11.375" style="24"/>
+    <col min="1" max="2" width="11.33203125" style="20"/>
+    <col min="3" max="3" width="19.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="25" customWidth="1"/>
+    <col min="11" max="16384" width="11.33203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
@@ -2410,7 +2447,7 @@
       </c>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="20">
         <v>2022</v>
       </c>
@@ -2439,29 +2476,8 @@
         <v>4794665</v>
       </c>
       <c r="J2" s="23"/>
-      <c r="L2" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="24">
-        <v>325908</v>
-      </c>
-      <c r="N2" s="24">
-        <v>2767247</v>
-      </c>
-      <c r="O2" s="24">
-        <v>1499149</v>
-      </c>
-      <c r="P2" s="24">
-        <v>129910</v>
-      </c>
-      <c r="Q2" s="24">
-        <v>72451</v>
-      </c>
-      <c r="R2" s="24">
-        <v>4794665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="20">
         <v>2022</v>
       </c>
@@ -2490,29 +2506,8 @@
         <v>1551926</v>
       </c>
       <c r="J3" s="23"/>
-      <c r="L3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="24">
-        <v>138753</v>
-      </c>
-      <c r="N3" s="24">
-        <v>1238196</v>
-      </c>
-      <c r="O3" s="24">
-        <v>138548</v>
-      </c>
-      <c r="P3" s="24">
-        <v>4603</v>
-      </c>
-      <c r="Q3" s="24">
-        <v>31826</v>
-      </c>
-      <c r="R3" s="24">
-        <v>1551926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="20">
         <v>2022</v>
       </c>
@@ -2541,29 +2536,8 @@
         <v>70909</v>
       </c>
       <c r="J4" s="23"/>
-      <c r="L4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="24">
-        <v>8952</v>
-      </c>
-      <c r="N4" s="24">
-        <v>10998</v>
-      </c>
-      <c r="O4" s="24">
-        <v>47337</v>
-      </c>
-      <c r="P4" s="24">
-        <v>1379</v>
-      </c>
-      <c r="Q4" s="24">
-        <v>2243</v>
-      </c>
-      <c r="R4" s="24">
-        <v>70909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="20">
         <v>2022</v>
       </c>
@@ -2592,29 +2566,8 @@
         <v>143663</v>
       </c>
       <c r="J5" s="23"/>
-      <c r="L5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="24">
-        <v>24582</v>
-      </c>
-      <c r="N5" s="24">
-        <v>61265</v>
-      </c>
-      <c r="O5" s="24">
-        <v>47285</v>
-      </c>
-      <c r="P5" s="24">
-        <v>7957</v>
-      </c>
-      <c r="Q5" s="24">
-        <v>2574</v>
-      </c>
-      <c r="R5" s="24">
-        <v>143663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="20">
         <v>2022</v>
       </c>
@@ -2643,29 +2596,8 @@
         <v>168759</v>
       </c>
       <c r="J6" s="23"/>
-      <c r="L6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="24">
-        <v>45450</v>
-      </c>
-      <c r="N6" s="24">
-        <v>73923</v>
-      </c>
-      <c r="O6" s="24">
-        <v>9815</v>
-      </c>
-      <c r="P6" s="24">
-        <v>30721</v>
-      </c>
-      <c r="Q6" s="24">
-        <v>8850</v>
-      </c>
-      <c r="R6" s="24">
-        <v>168759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="20">
         <v>2022</v>
       </c>
@@ -2694,29 +2626,8 @@
         <v>1049660</v>
       </c>
       <c r="J7" s="23"/>
-      <c r="L7" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="24">
-        <v>152265</v>
-      </c>
-      <c r="N7" s="24">
-        <v>456947</v>
-      </c>
-      <c r="O7" s="24">
-        <v>367393</v>
-      </c>
-      <c r="P7" s="24">
-        <v>61631</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>11424</v>
-      </c>
-      <c r="R7" s="24">
-        <v>1049660</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="20">
         <v>2022</v>
       </c>
@@ -2745,29 +2656,8 @@
         <v>155453</v>
       </c>
       <c r="J8" s="23"/>
-      <c r="L8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="24">
-        <v>34038</v>
-      </c>
-      <c r="N8" s="24">
-        <v>80283</v>
-      </c>
-      <c r="O8" s="24">
-        <v>26752</v>
-      </c>
-      <c r="P8" s="24">
-        <v>9082</v>
-      </c>
-      <c r="Q8" s="24">
-        <v>5298</v>
-      </c>
-      <c r="R8" s="24">
-        <v>155453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="20">
         <v>2022</v>
       </c>
@@ -2796,29 +2686,8 @@
         <v>270974</v>
       </c>
       <c r="J9" s="23"/>
-      <c r="L9" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="24">
-        <v>55507</v>
-      </c>
-      <c r="N9" s="24">
-        <v>135746</v>
-      </c>
-      <c r="O9" s="24">
-        <v>40798</v>
-      </c>
-      <c r="P9" s="24">
-        <v>26414</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>12509</v>
-      </c>
-      <c r="R9" s="24">
-        <v>270974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="20">
         <v>2022</v>
       </c>
@@ -2847,29 +2716,8 @@
         <v>61840</v>
       </c>
       <c r="J10" s="23"/>
-      <c r="L10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="24">
-        <v>13735</v>
-      </c>
-      <c r="N10" s="24">
-        <v>17068</v>
-      </c>
-      <c r="O10" s="24">
-        <v>13118</v>
-      </c>
-      <c r="P10" s="24">
-        <v>17692</v>
-      </c>
-      <c r="Q10" s="24">
-        <v>227</v>
-      </c>
-      <c r="R10" s="24">
-        <v>61840</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="20">
         <v>2022</v>
       </c>
@@ -2898,29 +2746,8 @@
         <v>118218</v>
       </c>
       <c r="J11" s="23"/>
-      <c r="L11" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="24">
-        <v>17880</v>
-      </c>
-      <c r="N11" s="24">
-        <v>52390</v>
-      </c>
-      <c r="O11" s="24">
-        <v>42626</v>
-      </c>
-      <c r="P11" s="24">
-        <v>4067</v>
-      </c>
-      <c r="Q11" s="24">
-        <v>1255</v>
-      </c>
-      <c r="R11" s="24">
-        <v>118218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="20">
         <v>2022</v>
       </c>
@@ -2949,29 +2776,8 @@
         <v>114164</v>
       </c>
       <c r="J12" s="23"/>
-      <c r="L12" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="24">
-        <v>7785</v>
-      </c>
-      <c r="N12" s="24">
-        <v>60566</v>
-      </c>
-      <c r="O12" s="24">
-        <v>24552</v>
-      </c>
-      <c r="P12" s="24">
-        <v>19995</v>
-      </c>
-      <c r="Q12" s="24">
-        <v>1266</v>
-      </c>
-      <c r="R12" s="24">
-        <v>114164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="20">
         <v>2022</v>
       </c>
@@ -3000,29 +2806,8 @@
         <v>86262</v>
       </c>
       <c r="J13" s="23"/>
-      <c r="L13" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="24">
-        <v>6120</v>
-      </c>
-      <c r="N13" s="24">
-        <v>54387</v>
-      </c>
-      <c r="O13" s="24">
-        <v>19328</v>
-      </c>
-      <c r="P13" s="24">
-        <v>6395</v>
-      </c>
-      <c r="Q13" s="24">
-        <v>32</v>
-      </c>
-      <c r="R13" s="24">
-        <v>86262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="20">
         <v>2022</v>
       </c>
@@ -3051,29 +2836,8 @@
         <v>292104</v>
       </c>
       <c r="J14" s="23"/>
-      <c r="L14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="24">
-        <v>37655</v>
-      </c>
-      <c r="N14" s="24">
-        <v>77814</v>
-      </c>
-      <c r="O14" s="24">
-        <v>147080</v>
-      </c>
-      <c r="P14" s="24">
-        <v>27607</v>
-      </c>
-      <c r="Q14" s="24">
-        <v>1948</v>
-      </c>
-      <c r="R14" s="24">
-        <v>292104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="20">
         <v>2022</v>
       </c>
@@ -3102,29 +2866,8 @@
         <v>186269</v>
       </c>
       <c r="J15" s="23"/>
-      <c r="L15" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" s="24">
-        <v>33204</v>
-      </c>
-      <c r="N15" s="24">
-        <v>87202</v>
-      </c>
-      <c r="O15" s="24">
-        <v>46885</v>
-      </c>
-      <c r="P15" s="24">
-        <v>11075</v>
-      </c>
-      <c r="Q15" s="24">
-        <v>7903</v>
-      </c>
-      <c r="R15" s="24">
-        <v>186269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="20">
         <v>2022</v>
       </c>
@@ -3153,29 +2896,8 @@
         <v>160180</v>
       </c>
       <c r="J16" s="23"/>
-      <c r="L16" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="24">
-        <v>28609</v>
-      </c>
-      <c r="N16" s="24">
-        <v>72679</v>
-      </c>
-      <c r="O16" s="24">
-        <v>31567</v>
-      </c>
-      <c r="P16" s="24">
-        <v>23815</v>
-      </c>
-      <c r="Q16" s="24">
-        <v>3510</v>
-      </c>
-      <c r="R16" s="24">
-        <v>160180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="20">
         <v>2022</v>
       </c>
@@ -3204,29 +2926,8 @@
         <v>162092</v>
       </c>
       <c r="J17" s="23"/>
-      <c r="L17" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="24">
-        <v>34043</v>
-      </c>
-      <c r="N17" s="24">
-        <v>48401</v>
-      </c>
-      <c r="O17" s="24">
-        <v>43958</v>
-      </c>
-      <c r="P17" s="24">
-        <v>16277</v>
-      </c>
-      <c r="Q17" s="24">
-        <v>19413</v>
-      </c>
-      <c r="R17" s="24">
-        <v>162092</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="20">
         <v>2022</v>
       </c>
@@ -3255,29 +2956,8 @@
         <v>205860</v>
       </c>
       <c r="J18" s="23"/>
-      <c r="L18" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="24">
-        <v>36939</v>
-      </c>
-      <c r="N18" s="24">
-        <v>97023</v>
-      </c>
-      <c r="O18" s="24">
-        <v>53470</v>
-      </c>
-      <c r="P18" s="24">
-        <v>11884</v>
-      </c>
-      <c r="Q18" s="24">
-        <v>6544</v>
-      </c>
-      <c r="R18" s="24">
-        <v>205860</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="20">
         <v>2022</v>
       </c>
@@ -3306,29 +2986,8 @@
         <v>103826</v>
       </c>
       <c r="J19" s="23"/>
-      <c r="L19" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="24">
-        <v>38570</v>
-      </c>
-      <c r="N19" s="24">
-        <v>22913</v>
-      </c>
-      <c r="O19" s="24">
-        <v>12491</v>
-      </c>
-      <c r="P19" s="24">
-        <v>21912</v>
-      </c>
-      <c r="Q19" s="24">
-        <v>7940</v>
-      </c>
-      <c r="R19" s="24">
-        <v>103826</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="20">
         <v>2022</v>
       </c>
@@ -3357,29 +3016,8 @@
         <v>135220</v>
       </c>
       <c r="J20" s="23"/>
-      <c r="L20" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="24">
-        <v>6283</v>
-      </c>
-      <c r="N20" s="24">
-        <v>43460</v>
-      </c>
-      <c r="O20" s="24">
-        <v>3409</v>
-      </c>
-      <c r="P20" s="24">
-        <v>81557</v>
-      </c>
-      <c r="Q20" s="24">
-        <v>511</v>
-      </c>
-      <c r="R20" s="24">
-        <v>135220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="20">
         <v>2022</v>
       </c>
@@ -3408,29 +3046,8 @@
         <v>50203</v>
       </c>
       <c r="J21" s="23"/>
-      <c r="L21" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="24">
-        <v>9702</v>
-      </c>
-      <c r="N21" s="24">
-        <v>23876</v>
-      </c>
-      <c r="O21" s="24">
-        <v>12217</v>
-      </c>
-      <c r="P21" s="24">
-        <v>3746</v>
-      </c>
-      <c r="Q21" s="24">
-        <v>662</v>
-      </c>
-      <c r="R21" s="24">
-        <v>50203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="20">
         <v>2022</v>
       </c>
@@ -3459,29 +3076,8 @@
         <v>887691</v>
       </c>
       <c r="J22" s="23"/>
-      <c r="L22" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" s="24">
-        <v>163621</v>
-      </c>
-      <c r="N22" s="24">
-        <v>412157</v>
-      </c>
-      <c r="O22" s="24">
-        <v>248558</v>
-      </c>
-      <c r="P22" s="24">
-        <v>44113</v>
-      </c>
-      <c r="Q22" s="24">
-        <v>19242</v>
-      </c>
-      <c r="R22" s="24">
-        <v>887691</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="20">
         <v>2022</v>
       </c>
@@ -3510,29 +3106,8 @@
         <v>119494</v>
       </c>
       <c r="J23" s="23"/>
-      <c r="L23" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="24">
-        <v>13577</v>
-      </c>
-      <c r="N23" s="24">
-        <v>80955</v>
-      </c>
-      <c r="O23" s="24">
-        <v>15117</v>
-      </c>
-      <c r="P23" s="24">
-        <v>6911</v>
-      </c>
-      <c r="Q23" s="24">
-        <v>2934</v>
-      </c>
-      <c r="R23" s="24">
-        <v>119494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="20">
         <v>2022</v>
       </c>
@@ -3561,29 +3136,8 @@
         <v>55260</v>
       </c>
       <c r="J24" s="23"/>
-      <c r="L24" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" s="24">
-        <v>12754</v>
-      </c>
-      <c r="N24" s="24">
-        <v>41293</v>
-      </c>
-      <c r="O24" s="24">
-        <v>405</v>
-      </c>
-      <c r="P24" s="24">
-        <v>157</v>
-      </c>
-      <c r="Q24" s="24">
-        <v>651</v>
-      </c>
-      <c r="R24" s="24">
-        <v>55260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="20">
         <v>2022</v>
       </c>
@@ -3612,29 +3166,8 @@
         <v>263422</v>
       </c>
       <c r="J25" s="23"/>
-      <c r="L25" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25" s="24">
-        <v>69441</v>
-      </c>
-      <c r="N25" s="24">
-        <v>20668</v>
-      </c>
-      <c r="O25" s="24">
-        <v>168717</v>
-      </c>
-      <c r="P25" s="24">
-        <v>4069</v>
-      </c>
-      <c r="Q25" s="24">
-        <v>527</v>
-      </c>
-      <c r="R25" s="24">
-        <v>263422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="20">
         <v>2022</v>
       </c>
@@ -3663,29 +3196,8 @@
         <v>4721668</v>
       </c>
       <c r="J26" s="23"/>
-      <c r="L26" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="M26" s="24">
-        <v>1315373</v>
-      </c>
-      <c r="N26" s="24">
-        <v>6037457</v>
-      </c>
-      <c r="O26" s="24">
-        <v>3060575</v>
-      </c>
-      <c r="P26" s="24">
-        <v>572969</v>
-      </c>
-      <c r="Q26" s="24">
-        <v>221740</v>
-      </c>
-      <c r="R26" s="24">
-        <v>11208114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="20">
         <v>2022</v>
       </c>
@@ -3715,7 +3227,7 @@
       </c>
       <c r="J27" s="23"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="20">
         <v>2022</v>
       </c>
@@ -3745,7 +3257,7 @@
       </c>
       <c r="J28" s="23"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="20">
         <v>2022</v>
       </c>
@@ -3775,7 +3287,7 @@
       </c>
       <c r="J29" s="23"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="20">
         <v>2022</v>
       </c>
@@ -3805,7 +3317,7 @@
       </c>
       <c r="J30" s="23"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="20">
         <v>2022</v>
       </c>
@@ -3835,7 +3347,7 @@
       </c>
       <c r="J31" s="23"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="20">
         <v>2022</v>
       </c>
@@ -3865,7 +3377,7 @@
       </c>
       <c r="J32" s="23"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="20">
         <v>2022</v>
       </c>
@@ -3895,7 +3407,7 @@
       </c>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="20">
         <v>2022</v>
       </c>
@@ -3925,7 +3437,7 @@
       </c>
       <c r="J34" s="23"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="20">
         <v>2022</v>
       </c>
@@ -3955,7 +3467,7 @@
       </c>
       <c r="J35" s="23"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="20">
         <v>2022</v>
       </c>
@@ -3985,7 +3497,7 @@
       </c>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="20">
         <v>2022</v>
       </c>
@@ -4015,7 +3527,7 @@
       </c>
       <c r="J37" s="23"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="20">
         <v>2022</v>
       </c>
@@ -4045,7 +3557,7 @@
       </c>
       <c r="J38" s="23"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="20">
         <v>2022</v>
       </c>
@@ -4075,7 +3587,7 @@
       </c>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="20">
         <v>2022</v>
       </c>
@@ -4105,7 +3617,7 @@
       </c>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="20">
         <v>2022</v>
       </c>
@@ -4135,7 +3647,7 @@
       </c>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="20">
         <v>2022</v>
       </c>
@@ -4165,7 +3677,7 @@
       </c>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="20">
         <v>2022</v>
       </c>
@@ -4195,7 +3707,7 @@
       </c>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="20">
         <v>2022</v>
       </c>
@@ -4225,7 +3737,7 @@
       </c>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="20">
         <v>2022</v>
       </c>
@@ -4255,7 +3767,7 @@
       </c>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="20">
         <v>2022</v>
       </c>
@@ -4285,7 +3797,7 @@
       </c>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="20">
         <v>2022</v>
       </c>
@@ -4315,7 +3827,7 @@
       </c>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="20">
         <v>2022</v>
       </c>
@@ -4345,7 +3857,7 @@
       </c>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="20">
         <v>2022</v>
       </c>
@@ -4375,7 +3887,7 @@
       </c>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="20">
         <v>2022</v>
       </c>
@@ -4405,7 +3917,7 @@
         <v>4667183</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="20">
         <v>2022</v>
       </c>
@@ -4435,7 +3947,7 @@
         <v>1536771</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="20">
         <v>2022</v>
       </c>
@@ -4465,7 +3977,7 @@
         <v>67008</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="20">
         <v>2022</v>
       </c>
@@ -4495,7 +4007,7 @@
         <v>143564</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="20">
         <v>2022</v>
       </c>
@@ -4525,7 +4037,7 @@
         <v>162805</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="20">
         <v>2022</v>
       </c>
@@ -4555,7 +4067,7 @@
         <v>1026435</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="20">
         <v>2022</v>
       </c>
@@ -4585,7 +4097,7 @@
         <v>144997</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="20">
         <v>2022</v>
       </c>
@@ -4615,7 +4127,7 @@
         <v>269352</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="20">
         <v>2022</v>
       </c>
@@ -4645,7 +4157,7 @@
         <v>67881</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="20">
         <v>2022</v>
       </c>
@@ -4675,7 +4187,7 @@
         <v>115314</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="20">
         <v>2022</v>
       </c>
@@ -4705,7 +4217,7 @@
         <v>111527</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="20">
         <v>2022</v>
       </c>
@@ -4735,7 +4247,7 @@
         <v>86030</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="20">
         <v>2022</v>
       </c>
@@ -4765,7 +4277,7 @@
         <v>279562</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="20">
         <v>2022</v>
       </c>
@@ -4795,7 +4307,7 @@
         <v>178813</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="20">
         <v>2022</v>
       </c>
@@ -4825,7 +4337,7 @@
         <v>161968</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="20">
         <v>2022</v>
       </c>
@@ -4855,7 +4367,7 @@
         <v>159764</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="20">
         <v>2022</v>
       </c>
@@ -4885,7 +4397,7 @@
         <v>203177</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="20">
         <v>2022</v>
       </c>
@@ -4915,7 +4427,7 @@
         <v>100407</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="20">
         <v>2022</v>
       </c>
@@ -4945,7 +4457,7 @@
         <v>121741</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="20">
         <v>2022</v>
       </c>
@@ -4975,7 +4487,7 @@
         <v>49185</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="20">
         <v>2022</v>
       </c>
@@ -5005,7 +4517,7 @@
         <v>878859</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="20">
         <v>2022</v>
       </c>
@@ -5035,7 +4547,7 @@
         <v>118044</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="20">
         <v>2022</v>
       </c>
@@ -5065,7 +4577,7 @@
         <v>53770</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="20">
         <v>2022</v>
       </c>
@@ -5095,7 +4607,7 @@
         <v>254527</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="20">
         <v>2022</v>
       </c>
@@ -5125,7 +4637,7 @@
       </c>
       <c r="J74" s="23"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="20">
         <v>2022</v>
       </c>
@@ -5155,7 +4667,7 @@
       </c>
       <c r="J75" s="23"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="20">
         <v>2022</v>
       </c>
@@ -5185,7 +4697,7 @@
       </c>
       <c r="J76" s="23"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="20">
         <v>2022</v>
       </c>
@@ -5215,7 +4727,7 @@
       </c>
       <c r="J77" s="23"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="20">
         <v>2022</v>
       </c>
@@ -5245,7 +4757,7 @@
       </c>
       <c r="J78" s="23"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="20">
         <v>2022</v>
       </c>
@@ -5275,7 +4787,7 @@
       </c>
       <c r="J79" s="23"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="20">
         <v>2022</v>
       </c>
@@ -5305,7 +4817,7 @@
       </c>
       <c r="J80" s="23"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="20">
         <v>2022</v>
       </c>
@@ -5335,7 +4847,7 @@
       </c>
       <c r="J81" s="23"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="20">
         <v>2022</v>
       </c>
@@ -5365,7 +4877,7 @@
       </c>
       <c r="J82" s="23"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="20">
         <v>2022</v>
       </c>
@@ -5395,7 +4907,7 @@
       </c>
       <c r="J83" s="23"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="20">
         <v>2022</v>
       </c>
@@ -5425,7 +4937,7 @@
       </c>
       <c r="J84" s="23"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="20">
         <v>2022</v>
       </c>
@@ -5455,7 +4967,7 @@
       </c>
       <c r="J85" s="23"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="20">
         <v>2022</v>
       </c>
@@ -5485,7 +4997,7 @@
       </c>
       <c r="J86" s="23"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" s="20">
         <v>2022</v>
       </c>
@@ -5515,7 +5027,7 @@
       </c>
       <c r="J87" s="23"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" s="20">
         <v>2022</v>
       </c>
@@ -5545,7 +5057,7 @@
       </c>
       <c r="J88" s="23"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" s="20">
         <v>2022</v>
       </c>
@@ -5575,7 +5087,7 @@
       </c>
       <c r="J89" s="23"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="20">
         <v>2022</v>
       </c>
@@ -5605,7 +5117,7 @@
       </c>
       <c r="J90" s="23"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91" s="20">
         <v>2022</v>
       </c>
@@ -5635,7 +5147,7 @@
       </c>
       <c r="J91" s="23"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" s="20">
         <v>2022</v>
       </c>
@@ -5665,7 +5177,7 @@
       </c>
       <c r="J92" s="23"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="20">
         <v>2022</v>
       </c>
@@ -5695,7 +5207,7 @@
       </c>
       <c r="J93" s="23"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" s="20">
         <v>2022</v>
       </c>
@@ -5725,7 +5237,7 @@
       </c>
       <c r="J94" s="23"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" s="20">
         <v>2022</v>
       </c>
@@ -5755,7 +5267,7 @@
       </c>
       <c r="J95" s="23"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="20">
         <v>2022</v>
       </c>
@@ -5785,7 +5297,7 @@
       </c>
       <c r="J96" s="23"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="20">
         <v>2022</v>
       </c>
@@ -5815,7 +5327,7 @@
       </c>
       <c r="J97" s="23"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" s="20">
         <v>2021</v>
       </c>
@@ -5845,7 +5357,7 @@
       </c>
       <c r="J98" s="23"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="20">
         <v>2021</v>
       </c>
@@ -5875,7 +5387,7 @@
       </c>
       <c r="J99" s="23"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" s="20">
         <v>2021</v>
       </c>
@@ -5905,7 +5417,7 @@
       </c>
       <c r="J100" s="23"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="20">
         <v>2021</v>
       </c>
@@ -5935,7 +5447,7 @@
       </c>
       <c r="J101" s="23"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" s="20">
         <v>2021</v>
       </c>
@@ -5965,7 +5477,7 @@
       </c>
       <c r="J102" s="23"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103" s="20">
         <v>2021</v>
       </c>
@@ -5995,7 +5507,7 @@
       </c>
       <c r="J103" s="23"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" s="20">
         <v>2021</v>
       </c>
@@ -6025,7 +5537,7 @@
       </c>
       <c r="J104" s="23"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="20">
         <v>2021</v>
       </c>
@@ -6055,7 +5567,7 @@
       </c>
       <c r="J105" s="23"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" s="20">
         <v>2021</v>
       </c>
@@ -6085,7 +5597,7 @@
       </c>
       <c r="J106" s="23"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" s="20">
         <v>2021</v>
       </c>
@@ -6115,7 +5627,7 @@
       </c>
       <c r="J107" s="23"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" s="20">
         <v>2021</v>
       </c>
@@ -6145,7 +5657,7 @@
       </c>
       <c r="J108" s="23"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="20">
         <v>2021</v>
       </c>
@@ -6175,7 +5687,7 @@
       </c>
       <c r="J109" s="23"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="20">
         <v>2021</v>
       </c>
@@ -6205,7 +5717,7 @@
       </c>
       <c r="J110" s="23"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" s="20">
         <v>2021</v>
       </c>
@@ -6235,7 +5747,7 @@
       </c>
       <c r="J111" s="23"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" s="20">
         <v>2021</v>
       </c>
@@ -6265,7 +5777,7 @@
       </c>
       <c r="J112" s="23"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" s="20">
         <v>2021</v>
       </c>
@@ -6295,7 +5807,7 @@
       </c>
       <c r="J113" s="23"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114" s="20">
         <v>2021</v>
       </c>
@@ -6325,7 +5837,7 @@
       </c>
       <c r="J114" s="23"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115" s="20">
         <v>2021</v>
       </c>
@@ -6355,7 +5867,7 @@
       </c>
       <c r="J115" s="23"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116" s="20">
         <v>2021</v>
       </c>
@@ -6385,7 +5897,7 @@
       </c>
       <c r="J116" s="23"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117" s="20">
         <v>2021</v>
       </c>
@@ -6415,7 +5927,7 @@
       </c>
       <c r="J117" s="23"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" s="20">
         <v>2021</v>
       </c>
@@ -6445,7 +5957,7 @@
       </c>
       <c r="J118" s="23"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119" s="20">
         <v>2021</v>
       </c>
@@ -6475,7 +5987,7 @@
       </c>
       <c r="J119" s="23"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120" s="20">
         <v>2021</v>
       </c>
@@ -6505,7 +6017,7 @@
       </c>
       <c r="J120" s="23"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121" s="20">
         <v>2021</v>
       </c>
@@ -6535,7 +6047,7 @@
       </c>
       <c r="J121" s="23"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122" s="20">
         <v>2021</v>
       </c>
@@ -6564,7 +6076,7 @@
         <v>4251609</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123" s="20">
         <v>2021</v>
       </c>
@@ -6593,7 +6105,7 @@
         <v>1413405</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124" s="20">
         <v>2021</v>
       </c>
@@ -6622,7 +6134,7 @@
         <v>56254</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125" s="20">
         <v>2021</v>
       </c>
@@ -6651,7 +6163,7 @@
         <v>139871</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126" s="20">
         <v>2021</v>
       </c>
@@ -6680,7 +6192,7 @@
         <v>156066</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" s="20">
         <v>2021</v>
       </c>
@@ -6709,7 +6221,7 @@
         <v>946788</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128" s="20">
         <v>2021</v>
       </c>
@@ -6738,7 +6250,7 @@
         <v>133819</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="20">
         <v>2021</v>
       </c>
@@ -6767,7 +6279,7 @@
         <v>260375</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="20">
         <v>2021</v>
       </c>
@@ -6796,7 +6308,7 @@
         <v>52795</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="20">
         <v>2021</v>
       </c>
@@ -6825,7 +6337,7 @@
         <v>111158</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="20">
         <v>2021</v>
       </c>
@@ -6854,7 +6366,7 @@
         <v>100487</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="20">
         <v>2021</v>
       </c>
@@ -6883,7 +6395,7 @@
         <v>82160</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="20">
         <v>2021</v>
       </c>
@@ -6912,7 +6424,7 @@
         <v>255939</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="20">
         <v>2021</v>
       </c>
@@ -6941,7 +6453,7 @@
         <v>158528</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="20">
         <v>2021</v>
       </c>
@@ -6970,7 +6482,7 @@
         <v>139809</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="20">
         <v>2021</v>
       </c>
@@ -6999,7 +6511,7 @@
         <v>144585</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="20">
         <v>2021</v>
       </c>
@@ -7028,7 +6540,7 @@
         <v>195833</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="20">
         <v>2021</v>
       </c>
@@ -7057,7 +6569,7 @@
         <v>79483</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="20">
         <v>2021</v>
       </c>
@@ -7086,7 +6598,7 @@
         <v>117864</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="20">
         <v>2021</v>
       </c>
@@ -7115,7 +6627,7 @@
         <v>48976</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="20">
         <v>2021</v>
       </c>
@@ -7144,7 +6656,7 @@
         <v>841584</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="20">
         <v>2021</v>
       </c>
@@ -7173,7 +6685,7 @@
         <v>115458</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="20">
         <v>2021</v>
       </c>
@@ -7202,7 +6714,7 @@
         <v>50223</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10">
       <c r="A145" s="20">
         <v>2021</v>
       </c>
@@ -7231,7 +6743,7 @@
         <v>232472</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10">
       <c r="A146" s="20">
         <v>2021</v>
       </c>
@@ -7261,7 +6773,7 @@
       </c>
       <c r="J146" s="23"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10">
       <c r="A147" s="20">
         <v>2021</v>
       </c>
@@ -7291,7 +6803,7 @@
       </c>
       <c r="J147" s="23"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10">
       <c r="A148" s="20">
         <v>2021</v>
       </c>
@@ -7321,7 +6833,7 @@
       </c>
       <c r="J148" s="23"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10">
       <c r="A149" s="20">
         <v>2021</v>
       </c>
@@ -7351,7 +6863,7 @@
       </c>
       <c r="J149" s="23"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10">
       <c r="A150" s="20">
         <v>2021</v>
       </c>
@@ -7381,7 +6893,7 @@
       </c>
       <c r="J150" s="23"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10">
       <c r="A151" s="20">
         <v>2021</v>
       </c>
@@ -7411,7 +6923,7 @@
       </c>
       <c r="J151" s="23"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10">
       <c r="A152" s="20">
         <v>2021</v>
       </c>
@@ -7441,7 +6953,7 @@
       </c>
       <c r="J152" s="23"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10">
       <c r="A153" s="20">
         <v>2021</v>
       </c>
@@ -7471,7 +6983,7 @@
       </c>
       <c r="J153" s="23"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10">
       <c r="A154" s="20">
         <v>2021</v>
       </c>
@@ -7501,7 +7013,7 @@
       </c>
       <c r="J154" s="23"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10">
       <c r="A155" s="20">
         <v>2021</v>
       </c>
@@ -7531,7 +7043,7 @@
       </c>
       <c r="J155" s="23"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10">
       <c r="A156" s="20">
         <v>2021</v>
       </c>
@@ -7561,7 +7073,7 @@
       </c>
       <c r="J156" s="23"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10">
       <c r="A157" s="20">
         <v>2021</v>
       </c>
@@ -7591,7 +7103,7 @@
       </c>
       <c r="J157" s="23"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10">
       <c r="A158" s="20">
         <v>2021</v>
       </c>
@@ -7621,7 +7133,7 @@
       </c>
       <c r="J158" s="23"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10">
       <c r="A159" s="20">
         <v>2021</v>
       </c>
@@ -7651,7 +7163,7 @@
       </c>
       <c r="J159" s="23"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10">
       <c r="A160" s="20">
         <v>2021</v>
       </c>
@@ -7681,7 +7193,7 @@
       </c>
       <c r="J160" s="23"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10">
       <c r="A161" s="20">
         <v>2021</v>
       </c>
@@ -7711,7 +7223,7 @@
       </c>
       <c r="J161" s="23"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10">
       <c r="A162" s="20">
         <v>2021</v>
       </c>
@@ -7741,7 +7253,7 @@
       </c>
       <c r="J162" s="23"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10">
       <c r="A163" s="20">
         <v>2021</v>
       </c>
@@ -7771,7 +7283,7 @@
       </c>
       <c r="J163" s="23"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10">
       <c r="A164" s="20">
         <v>2021</v>
       </c>
@@ -7801,7 +7313,7 @@
       </c>
       <c r="J164" s="23"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10">
       <c r="A165" s="20">
         <v>2021</v>
       </c>
@@ -7831,7 +7343,7 @@
       </c>
       <c r="J165" s="23"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10">
       <c r="A166" s="20">
         <v>2021</v>
       </c>
@@ -7861,7 +7373,7 @@
       </c>
       <c r="J166" s="23"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10">
       <c r="A167" s="20">
         <v>2021</v>
       </c>
@@ -7891,7 +7403,7 @@
       </c>
       <c r="J167" s="23"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10">
       <c r="A168" s="20">
         <v>2021</v>
       </c>
@@ -7921,7 +7433,7 @@
       </c>
       <c r="J168" s="23"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10">
       <c r="A169" s="20">
         <v>2021</v>
       </c>
@@ -7951,7 +7463,7 @@
       </c>
       <c r="J169" s="23"/>
     </row>
-    <row r="170" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="14" customHeight="1">
       <c r="A170" s="20">
         <v>2021</v>
       </c>
@@ -7980,7 +7492,7 @@
         <v>4060002</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10">
       <c r="A171" s="20">
         <v>2021</v>
       </c>
@@ -8009,7 +7521,7 @@
         <v>1379673</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10">
       <c r="A172" s="20">
         <v>2021</v>
       </c>
@@ -8038,7 +7550,7 @@
         <v>51968</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10">
       <c r="A173" s="20">
         <v>2021</v>
       </c>
@@ -8067,7 +7579,7 @@
         <v>139770</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10">
       <c r="A174" s="20">
         <v>2021</v>
       </c>
@@ -8096,7 +7608,7 @@
         <v>132340</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10">
       <c r="A175" s="20">
         <v>2021</v>
       </c>
@@ -8125,7 +7637,7 @@
         <v>910881</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10">
       <c r="A176" s="20">
         <v>2021</v>
       </c>
@@ -8154,7 +7666,7 @@
         <v>126625</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="20">
         <v>2021</v>
       </c>
@@ -8183,7 +7695,7 @@
         <v>251963</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="20">
         <v>2021</v>
       </c>
@@ -8212,7 +7724,7 @@
         <v>50686</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="20">
         <v>2021</v>
       </c>
@@ -8241,7 +7753,7 @@
         <v>110456</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="20">
         <v>2021</v>
       </c>
@@ -8270,7 +7782,7 @@
         <v>97105</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="20">
         <v>2021</v>
       </c>
@@ -8299,7 +7811,7 @@
         <v>52628</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="20">
         <v>2021</v>
       </c>
@@ -8328,7 +7840,7 @@
         <v>218923</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="20">
         <v>2021</v>
       </c>
@@ -8357,7 +7869,7 @@
         <v>149387</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="20">
         <v>2021</v>
       </c>
@@ -8386,7 +7898,7 @@
         <v>133235</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="20">
         <v>2021</v>
       </c>
@@ -8415,7 +7927,7 @@
         <v>141168</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="20">
         <v>2021</v>
       </c>
@@ -8444,7 +7956,7 @@
         <v>187574</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="20">
         <v>2021</v>
       </c>
@@ -8473,7 +7985,7 @@
         <v>78267</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="20">
         <v>2021</v>
       </c>
@@ -8502,7 +8014,7 @@
         <v>119154</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="20">
         <v>2021</v>
       </c>
@@ -8531,7 +8043,7 @@
         <v>46065</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="20">
         <v>2021</v>
       </c>
@@ -8560,7 +8072,7 @@
         <v>826127</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="20">
         <v>2021</v>
       </c>
@@ -8589,7 +8101,7 @@
         <v>111641</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="20">
         <v>2021</v>
       </c>
@@ -8618,7 +8130,7 @@
         <v>40422</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10">
       <c r="A193" s="20">
         <v>2021</v>
       </c>
@@ -8647,7 +8159,7 @@
         <v>231912</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10">
       <c r="A194" s="20">
         <v>2020</v>
       </c>
@@ -8676,7 +8188,7 @@
         <v>4033261</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10">
       <c r="A195" s="20">
         <v>2020</v>
       </c>
@@ -8706,7 +8218,7 @@
       </c>
       <c r="J195" s="23"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10">
       <c r="A196" s="20">
         <v>2020</v>
       </c>
@@ -8736,7 +8248,7 @@
       </c>
       <c r="J196" s="23"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10">
       <c r="A197" s="20">
         <v>2020</v>
       </c>
@@ -8766,7 +8278,7 @@
       </c>
       <c r="J197" s="23"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10">
       <c r="A198" s="20">
         <v>2020</v>
       </c>
@@ -8796,7 +8308,7 @@
       </c>
       <c r="J198" s="23"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10">
       <c r="A199" s="20">
         <v>2020</v>
       </c>
@@ -8826,7 +8338,7 @@
       </c>
       <c r="J199" s="23"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10">
       <c r="A200" s="20">
         <v>2020</v>
       </c>
@@ -8856,7 +8368,7 @@
       </c>
       <c r="J200" s="23"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10">
       <c r="A201" s="20">
         <v>2020</v>
       </c>
@@ -8886,7 +8398,7 @@
       </c>
       <c r="J201" s="23"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10">
       <c r="A202" s="20">
         <v>2020</v>
       </c>
@@ -8916,7 +8428,7 @@
       </c>
       <c r="J202" s="23"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10">
       <c r="A203" s="20">
         <v>2020</v>
       </c>
@@ -8946,7 +8458,7 @@
       </c>
       <c r="J203" s="23"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10">
       <c r="A204" s="20">
         <v>2020</v>
       </c>
@@ -8976,7 +8488,7 @@
       </c>
       <c r="J204" s="23"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10">
       <c r="A205" s="20">
         <v>2020</v>
       </c>
@@ -9006,7 +8518,7 @@
       </c>
       <c r="J205" s="23"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10">
       <c r="A206" s="20">
         <v>2020</v>
       </c>
@@ -9036,7 +8548,7 @@
       </c>
       <c r="J206" s="23"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10">
       <c r="A207" s="20">
         <v>2020</v>
       </c>
@@ -9066,7 +8578,7 @@
       </c>
       <c r="J207" s="23"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10">
       <c r="A208" s="20">
         <v>2020</v>
       </c>
@@ -9096,7 +8608,7 @@
       </c>
       <c r="J208" s="23"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10">
       <c r="A209" s="20">
         <v>2020</v>
       </c>
@@ -9126,7 +8638,7 @@
       </c>
       <c r="J209" s="23"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10">
       <c r="A210" s="20">
         <v>2020</v>
       </c>
@@ -9156,7 +8668,7 @@
       </c>
       <c r="J210" s="23"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10">
       <c r="A211" s="20">
         <v>2020</v>
       </c>
@@ -9186,7 +8698,7 @@
       </c>
       <c r="J211" s="23"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10">
       <c r="A212" s="20">
         <v>2020</v>
       </c>
@@ -9216,7 +8728,7 @@
       </c>
       <c r="J212" s="23"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10">
       <c r="A213" s="20">
         <v>2020</v>
       </c>
@@ -9246,7 +8758,7 @@
       </c>
       <c r="J213" s="23"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10">
       <c r="A214" s="20">
         <v>2020</v>
       </c>
@@ -9276,7 +8788,7 @@
       </c>
       <c r="J214" s="23"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10">
       <c r="A215" s="20">
         <v>2020</v>
       </c>
@@ -9306,7 +8818,7 @@
       </c>
       <c r="J215" s="23"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10">
       <c r="A216" s="20">
         <v>2020</v>
       </c>
@@ -9336,7 +8848,7 @@
       </c>
       <c r="J216" s="23"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10">
       <c r="A217" s="20">
         <v>2020</v>
       </c>
@@ -9366,7 +8878,7 @@
       </c>
       <c r="J217" s="26"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10">
       <c r="A218" s="20">
         <v>2020</v>
       </c>
@@ -9395,7 +8907,7 @@
         <v>3937277</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10">
       <c r="A219" s="20">
         <v>2020</v>
       </c>
@@ -9425,7 +8937,7 @@
       </c>
       <c r="J219" s="26"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10">
       <c r="A220" s="20">
         <v>2020</v>
       </c>
@@ -9455,7 +8967,7 @@
       </c>
       <c r="J220" s="26"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10">
       <c r="A221" s="20">
         <v>2020</v>
       </c>
@@ -9485,7 +8997,7 @@
       </c>
       <c r="J221" s="26"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10">
       <c r="A222" s="20">
         <v>2020</v>
       </c>
@@ -9515,7 +9027,7 @@
       </c>
       <c r="J222" s="26"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10">
       <c r="A223" s="20">
         <v>2020</v>
       </c>
@@ -9545,7 +9057,7 @@
       </c>
       <c r="J223" s="26"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10">
       <c r="A224" s="20">
         <v>2020</v>
       </c>
@@ -9575,7 +9087,7 @@
       </c>
       <c r="J224" s="26"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10">
       <c r="A225" s="20">
         <v>2020</v>
       </c>
@@ -9605,7 +9117,7 @@
       </c>
       <c r="J225" s="26"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10">
       <c r="A226" s="20">
         <v>2020</v>
       </c>
@@ -9635,7 +9147,7 @@
       </c>
       <c r="J226" s="26"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10">
       <c r="A227" s="20">
         <v>2020</v>
       </c>
@@ -9665,7 +9177,7 @@
       </c>
       <c r="J227" s="26"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10">
       <c r="A228" s="20">
         <v>2020</v>
       </c>
@@ -9695,7 +9207,7 @@
       </c>
       <c r="J228" s="26"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10">
       <c r="A229" s="20">
         <v>2020</v>
       </c>
@@ -9725,7 +9237,7 @@
       </c>
       <c r="J229" s="26"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10">
       <c r="A230" s="20">
         <v>2020</v>
       </c>
@@ -9755,7 +9267,7 @@
       </c>
       <c r="J230" s="26"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10">
       <c r="A231" s="20">
         <v>2020</v>
       </c>
@@ -9785,7 +9297,7 @@
       </c>
       <c r="J231" s="26"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10">
       <c r="A232" s="20">
         <v>2020</v>
       </c>
@@ -9815,7 +9327,7 @@
       </c>
       <c r="J232" s="26"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10">
       <c r="A233" s="20">
         <v>2020</v>
       </c>
@@ -9845,7 +9357,7 @@
       </c>
       <c r="J233" s="26"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10">
       <c r="A234" s="20">
         <v>2020</v>
       </c>
@@ -9875,7 +9387,7 @@
       </c>
       <c r="J234" s="26"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10">
       <c r="A235" s="20">
         <v>2020</v>
       </c>
@@ -9905,7 +9417,7 @@
       </c>
       <c r="J235" s="26"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10">
       <c r="A236" s="20">
         <v>2020</v>
       </c>
@@ -9935,7 +9447,7 @@
       </c>
       <c r="J236" s="26"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10">
       <c r="A237" s="20">
         <v>2020</v>
       </c>
@@ -9965,7 +9477,7 @@
       </c>
       <c r="J237" s="26"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10">
       <c r="A238" s="20">
         <v>2020</v>
       </c>
@@ -9995,7 +9507,7 @@
       </c>
       <c r="J238" s="26"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10">
       <c r="A239" s="20">
         <v>2020</v>
       </c>
@@ -10025,7 +9537,7 @@
       </c>
       <c r="J239" s="26"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10">
       <c r="A240" s="20">
         <v>2020</v>
       </c>
@@ -10055,7 +9567,7 @@
       </c>
       <c r="J240" s="26"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13">
       <c r="A241" s="20">
         <v>2020</v>
       </c>
@@ -10085,7 +9597,7 @@
       </c>
       <c r="J241" s="26"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13">
       <c r="A242" s="20">
         <v>2020</v>
       </c>
@@ -10114,7 +9626,7 @@
         <v>3777546</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13">
       <c r="A243" s="20">
         <v>2020</v>
       </c>
@@ -10144,7 +9656,7 @@
       </c>
       <c r="J243" s="26"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13">
       <c r="A244" s="20">
         <v>2020</v>
       </c>
@@ -10174,7 +9686,7 @@
       </c>
       <c r="J244" s="26"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13">
       <c r="A245" s="20">
         <v>2020</v>
       </c>
@@ -10204,7 +9716,7 @@
       </c>
       <c r="J245" s="26"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13">
       <c r="A246" s="20">
         <v>2020</v>
       </c>
@@ -10234,7 +9746,7 @@
       </c>
       <c r="J246" s="26"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13">
       <c r="A247" s="20">
         <v>2020</v>
       </c>
@@ -10267,7 +9779,7 @@
       <c r="L247" s="27"/>
       <c r="M247" s="27"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13">
       <c r="A248" s="20">
         <v>2020</v>
       </c>
@@ -10298,7 +9810,7 @@
       <c r="J248" s="26"/>
       <c r="L248" s="28"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13">
       <c r="A249" s="20">
         <v>2020</v>
       </c>
@@ -10328,7 +9840,7 @@
       </c>
       <c r="J249" s="26"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13">
       <c r="A250" s="20">
         <v>2020</v>
       </c>
@@ -10358,7 +9870,7 @@
       </c>
       <c r="J250" s="26"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13">
       <c r="A251" s="20">
         <v>2020</v>
       </c>
@@ -10388,7 +9900,7 @@
       </c>
       <c r="J251" s="26"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13">
       <c r="A252" s="20">
         <v>2020</v>
       </c>
@@ -10418,7 +9930,7 @@
       </c>
       <c r="J252" s="26"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13">
       <c r="A253" s="20">
         <v>2020</v>
       </c>
@@ -10448,7 +9960,7 @@
       </c>
       <c r="J253" s="26"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13">
       <c r="A254" s="20">
         <v>2020</v>
       </c>
@@ -10478,7 +9990,7 @@
       </c>
       <c r="J254" s="26"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13">
       <c r="A255" s="20">
         <v>2020</v>
       </c>
@@ -10508,7 +10020,7 @@
       </c>
       <c r="J255" s="26"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13">
       <c r="A256" s="20">
         <v>2020</v>
       </c>
@@ -10538,7 +10050,7 @@
       </c>
       <c r="J256" s="26"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10">
       <c r="A257" s="20">
         <v>2020</v>
       </c>
@@ -10568,7 +10080,7 @@
       </c>
       <c r="J257" s="26"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10">
       <c r="A258" s="20">
         <v>2020</v>
       </c>
@@ -10598,7 +10110,7 @@
       </c>
       <c r="J258" s="26"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10">
       <c r="A259" s="20">
         <v>2020</v>
       </c>
@@ -10628,7 +10140,7 @@
       </c>
       <c r="J259" s="26"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10">
       <c r="A260" s="20">
         <v>2020</v>
       </c>
@@ -10658,7 +10170,7 @@
       </c>
       <c r="J260" s="26"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10">
       <c r="A261" s="20">
         <v>2020</v>
       </c>
@@ -10688,7 +10200,7 @@
       </c>
       <c r="J261" s="26"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10">
       <c r="A262" s="20">
         <v>2020</v>
       </c>
@@ -10718,7 +10230,7 @@
       </c>
       <c r="J262" s="26"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10">
       <c r="A263" s="20">
         <v>2020</v>
       </c>
@@ -10748,7 +10260,7 @@
       </c>
       <c r="J263" s="26"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10">
       <c r="A264" s="20">
         <v>2020</v>
       </c>
@@ -10778,7 +10290,7 @@
       </c>
       <c r="J264" s="26"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10">
       <c r="A265" s="20">
         <v>2020</v>
       </c>
@@ -10808,7 +10320,7 @@
       </c>
       <c r="J265" s="26"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10">
       <c r="A266" s="20">
         <v>2020</v>
       </c>
@@ -10837,7 +10349,7 @@
         <v>3708051</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10">
       <c r="A267" s="20">
         <v>2020</v>
       </c>
@@ -10866,7 +10378,7 @@
         <v>1353494</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10">
       <c r="A268" s="20">
         <v>2020</v>
       </c>
@@ -10895,7 +10407,7 @@
         <v>39635</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10">
       <c r="A269" s="20">
         <v>2020</v>
       </c>
@@ -10924,7 +10436,7 @@
         <v>120277</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10">
       <c r="A270" s="20">
         <v>2020</v>
       </c>
@@ -10953,7 +10465,7 @@
         <v>96738</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10">
       <c r="A271" s="20">
         <v>2020</v>
       </c>
@@ -10982,7 +10494,7 @@
         <v>811099</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10">
       <c r="A272" s="20">
         <v>2020</v>
       </c>
@@ -11011,7 +10523,7 @@
         <v>113970</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9">
       <c r="A273" s="20">
         <v>2020</v>
       </c>
@@ -11040,7 +10552,7 @@
         <v>231846</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9">
       <c r="A274" s="20">
         <v>2020</v>
       </c>
@@ -11069,7 +10581,7 @@
         <v>46434</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9">
       <c r="A275" s="20">
         <v>2020</v>
       </c>
@@ -11098,7 +10610,7 @@
         <v>91665</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9">
       <c r="A276" s="20">
         <v>2020</v>
       </c>
@@ -11127,7 +10639,7 @@
         <v>89226</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9">
       <c r="A277" s="20">
         <v>2020</v>
       </c>
@@ -11156,7 +10668,7 @@
         <v>48340</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9">
       <c r="A278" s="20">
         <v>2020</v>
       </c>
@@ -11185,7 +10697,7 @@
         <v>183452</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9">
       <c r="A279" s="20">
         <v>2020</v>
       </c>
@@ -11214,7 +10726,7 @@
         <v>133552</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9">
       <c r="A280" s="20">
         <v>2020</v>
       </c>
@@ -11243,7 +10755,7 @@
         <v>121727</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9">
       <c r="A281" s="20">
         <v>2020</v>
       </c>
@@ -11272,7 +10784,7 @@
         <v>126200</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9">
       <c r="A282" s="20">
         <v>2020</v>
       </c>
@@ -11301,7 +10813,7 @@
         <v>170381</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9">
       <c r="A283" s="20">
         <v>2020</v>
       </c>
@@ -11330,7 +10842,7 @@
         <v>64231</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9">
       <c r="A284" s="20">
         <v>2020</v>
       </c>
@@ -11359,7 +10871,7 @@
         <v>110552</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9">
       <c r="A285" s="20">
         <v>2020</v>
       </c>
@@ -11388,7 +10900,7 @@
         <v>38822</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9">
       <c r="A286" s="20">
         <v>2020</v>
       </c>
@@ -11417,7 +10929,7 @@
         <v>771118</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9">
       <c r="A287" s="20">
         <v>2020</v>
       </c>
@@ -11446,7 +10958,7 @@
         <v>102755</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9">
       <c r="A288" s="20">
         <v>2020</v>
       </c>
@@ -11475,7 +10987,7 @@
         <v>38794</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10">
       <c r="A289" s="20">
         <v>2020</v>
       </c>
@@ -11504,7 +11016,7 @@
         <v>200067</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10">
       <c r="A290" s="20">
         <v>2019</v>
       </c>
@@ -11534,7 +11046,7 @@
       </c>
       <c r="J290" s="26"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10">
       <c r="A291" s="20">
         <v>2019</v>
       </c>
@@ -11564,7 +11076,7 @@
       </c>
       <c r="J291" s="26"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10">
       <c r="A292" s="20">
         <v>2019</v>
       </c>
@@ -11594,7 +11106,7 @@
       </c>
       <c r="J292" s="26"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10">
       <c r="A293" s="20">
         <v>2019</v>
       </c>
@@ -11624,7 +11136,7 @@
       </c>
       <c r="J293" s="26"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10">
       <c r="A294" s="20">
         <v>2019</v>
       </c>
@@ -11654,7 +11166,7 @@
       </c>
       <c r="J294" s="26"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10">
       <c r="A295" s="20">
         <v>2019</v>
       </c>
@@ -11684,7 +11196,7 @@
       </c>
       <c r="J295" s="26"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10">
       <c r="A296" s="20">
         <v>2019</v>
       </c>
@@ -11714,7 +11226,7 @@
       </c>
       <c r="J296" s="26"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10">
       <c r="A297" s="20">
         <v>2019</v>
       </c>
@@ -11744,7 +11256,7 @@
       </c>
       <c r="J297" s="26"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10">
       <c r="A298" s="20">
         <v>2019</v>
       </c>
@@ -11774,7 +11286,7 @@
       </c>
       <c r="J298" s="26"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10">
       <c r="A299" s="20">
         <v>2019</v>
       </c>
@@ -11804,7 +11316,7 @@
       </c>
       <c r="J299" s="26"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10">
       <c r="A300" s="20">
         <v>2019</v>
       </c>
@@ -11834,7 +11346,7 @@
       </c>
       <c r="J300" s="26"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10">
       <c r="A301" s="20">
         <v>2019</v>
       </c>
@@ -11864,7 +11376,7 @@
       </c>
       <c r="J301" s="26"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10">
       <c r="A302" s="20">
         <v>2019</v>
       </c>
@@ -11894,7 +11406,7 @@
       </c>
       <c r="J302" s="26"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10">
       <c r="A303" s="20">
         <v>2019</v>
       </c>
@@ -11924,7 +11436,7 @@
       </c>
       <c r="J303" s="26"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10">
       <c r="A304" s="20">
         <v>2019</v>
       </c>
@@ -11954,7 +11466,7 @@
       </c>
       <c r="J304" s="26"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10">
       <c r="A305" s="20">
         <v>2019</v>
       </c>
@@ -11984,7 +11496,7 @@
       </c>
       <c r="J305" s="26"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10">
       <c r="A306" s="20">
         <v>2019</v>
       </c>
@@ -12014,7 +11526,7 @@
       </c>
       <c r="J306" s="26"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10">
       <c r="A307" s="20">
         <v>2019</v>
       </c>
@@ -12044,7 +11556,7 @@
       </c>
       <c r="J307" s="26"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10">
       <c r="A308" s="20">
         <v>2019</v>
       </c>
@@ -12074,7 +11586,7 @@
       </c>
       <c r="J308" s="26"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10">
       <c r="A309" s="20">
         <v>2019</v>
       </c>
@@ -12104,7 +11616,7 @@
       </c>
       <c r="J309" s="26"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10">
       <c r="A310" s="20">
         <v>2019</v>
       </c>
@@ -12134,7 +11646,7 @@
       </c>
       <c r="J310" s="26"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10">
       <c r="A311" s="20">
         <v>2019</v>
       </c>
@@ -12164,7 +11676,7 @@
       </c>
       <c r="J311" s="26"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10">
       <c r="A312" s="20">
         <v>2019</v>
       </c>
@@ -12194,7 +11706,7 @@
       </c>
       <c r="J312" s="26"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10">
       <c r="A313" s="20">
         <v>2019</v>
       </c>
@@ -12223,7 +11735,7 @@
         <v>198644</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10">
       <c r="A314" s="29" t="s">
         <v>66</v>
       </c>
@@ -12252,7 +11764,7 @@
         <v>3960233</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10">
       <c r="A315" s="29" t="s">
         <v>66</v>
       </c>
@@ -12281,7 +11793,7 @@
         <v>1441211</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10">
       <c r="A316" s="29" t="s">
         <v>66</v>
       </c>
@@ -12310,7 +11822,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10">
       <c r="A317" s="29" t="s">
         <v>66</v>
       </c>
@@ -12339,7 +11851,7 @@
         <v>114451</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10">
       <c r="A318" s="29" t="s">
         <v>66</v>
       </c>
@@ -12368,7 +11880,7 @@
         <v>89005</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10">
       <c r="A319" s="29" t="s">
         <v>66</v>
       </c>
@@ -12397,7 +11909,7 @@
         <v>783053</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10">
       <c r="A320" s="29" t="s">
         <v>66</v>
       </c>
@@ -12426,7 +11938,7 @@
         <v>112759</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9">
       <c r="A321" s="29" t="s">
         <v>66</v>
       </c>
@@ -12455,7 +11967,7 @@
         <v>238102</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9">
       <c r="A322" s="29" t="s">
         <v>66</v>
       </c>
@@ -12484,7 +11996,7 @@
         <v>46066</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9">
       <c r="A323" s="29" t="s">
         <v>66</v>
       </c>
@@ -12513,7 +12025,7 @@
         <v>86576</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9">
       <c r="A324" s="29" t="s">
         <v>66</v>
       </c>
@@ -12542,7 +12054,7 @@
         <v>90828</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9">
       <c r="A325" s="29" t="s">
         <v>66</v>
       </c>
@@ -12571,7 +12083,7 @@
         <v>49677</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9">
       <c r="A326" s="29" t="s">
         <v>66</v>
       </c>
@@ -12600,7 +12112,7 @@
         <v>224337</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9">
       <c r="A327" s="29" t="s">
         <v>66</v>
       </c>
@@ -12629,7 +12141,7 @@
         <v>133883</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9">
       <c r="A328" s="29" t="s">
         <v>66</v>
       </c>
@@ -12658,7 +12170,7 @@
         <v>125421</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9">
       <c r="A329" s="29" t="s">
         <v>66</v>
       </c>
@@ -12687,7 +12199,7 @@
         <v>144295</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9">
       <c r="A330" s="29" t="s">
         <v>66</v>
       </c>
@@ -12716,7 +12228,7 @@
         <v>151835</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9">
       <c r="A331" s="29" t="s">
         <v>66</v>
       </c>
@@ -12745,7 +12257,7 @@
         <v>73098</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9">
       <c r="A332" s="29" t="s">
         <v>66</v>
       </c>
@@ -12774,7 +12286,7 @@
         <v>122700</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9">
       <c r="A333" s="29" t="s">
         <v>66</v>
       </c>
@@ -12803,7 +12315,7 @@
         <v>37970</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9">
       <c r="A334" s="29" t="s">
         <v>66</v>
       </c>
@@ -12832,7 +12344,7 @@
         <v>760934</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9">
       <c r="A335" s="29" t="s">
         <v>66</v>
       </c>
@@ -12861,7 +12373,7 @@
         <v>133132</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9">
       <c r="A336" s="29" t="s">
         <v>66</v>
       </c>
@@ -12890,7 +12402,7 @@
         <v>48587</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10">
       <c r="A337" s="29" t="s">
         <v>66</v>
       </c>
@@ -12919,7 +12431,7 @@
         <v>164131</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10">
       <c r="A338" s="20" t="s">
         <v>66</v>
       </c>
@@ -12949,7 +12461,7 @@
       </c>
       <c r="J338" s="26"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10">
       <c r="A339" s="20" t="s">
         <v>66</v>
       </c>
@@ -12979,7 +12491,7 @@
       </c>
       <c r="J339" s="26"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10">
       <c r="A340" s="20" t="s">
         <v>66</v>
       </c>
@@ -13009,7 +12521,7 @@
       </c>
       <c r="J340" s="26"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10">
       <c r="A341" s="20" t="s">
         <v>66</v>
       </c>
@@ -13039,7 +12551,7 @@
       </c>
       <c r="J341" s="26"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10">
       <c r="A342" s="20" t="s">
         <v>66</v>
       </c>
@@ -13069,7 +12581,7 @@
       </c>
       <c r="J342" s="26"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10">
       <c r="A343" s="20" t="s">
         <v>66</v>
       </c>
@@ -13099,7 +12611,7 @@
       </c>
       <c r="J343" s="26"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10">
       <c r="A344" s="20" t="s">
         <v>66</v>
       </c>
@@ -13129,7 +12641,7 @@
       </c>
       <c r="J344" s="26"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10">
       <c r="A345" s="20" t="s">
         <v>66</v>
       </c>
@@ -13159,7 +12671,7 @@
       </c>
       <c r="J345" s="26"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10">
       <c r="A346" s="20" t="s">
         <v>66</v>
       </c>
@@ -13189,7 +12701,7 @@
       </c>
       <c r="J346" s="26"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10">
       <c r="A347" s="20" t="s">
         <v>66</v>
       </c>
@@ -13219,7 +12731,7 @@
       </c>
       <c r="J347" s="26"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10">
       <c r="A348" s="20" t="s">
         <v>66</v>
       </c>
@@ -13249,7 +12761,7 @@
       </c>
       <c r="J348" s="26"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10">
       <c r="A349" s="20" t="s">
         <v>66</v>
       </c>
@@ -13279,7 +12791,7 @@
       </c>
       <c r="J349" s="26"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10">
       <c r="A350" s="20" t="s">
         <v>66</v>
       </c>
@@ -13309,7 +12821,7 @@
       </c>
       <c r="J350" s="26"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10">
       <c r="A351" s="20" t="s">
         <v>66</v>
       </c>
@@ -13339,7 +12851,7 @@
       </c>
       <c r="J351" s="26"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10">
       <c r="A352" s="20" t="s">
         <v>66</v>
       </c>
@@ -13369,7 +12881,7 @@
       </c>
       <c r="J352" s="26"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10">
       <c r="A353" s="20" t="s">
         <v>66</v>
       </c>
@@ -13399,7 +12911,7 @@
       </c>
       <c r="J353" s="26"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10">
       <c r="A354" s="20" t="s">
         <v>66</v>
       </c>
@@ -13429,7 +12941,7 @@
       </c>
       <c r="J354" s="26"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10">
       <c r="A355" s="20" t="s">
         <v>66</v>
       </c>
@@ -13459,7 +12971,7 @@
       </c>
       <c r="J355" s="26"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10">
       <c r="A356" s="20" t="s">
         <v>66</v>
       </c>
@@ -13489,7 +13001,7 @@
       </c>
       <c r="J356" s="26"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10">
       <c r="A357" s="20" t="s">
         <v>66</v>
       </c>
@@ -13519,7 +13031,7 @@
       </c>
       <c r="J357" s="26"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10">
       <c r="A358" s="20" t="s">
         <v>66</v>
       </c>
@@ -13549,7 +13061,7 @@
       </c>
       <c r="J358" s="26"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10">
       <c r="A359" s="20" t="s">
         <v>66</v>
       </c>
@@ -13579,7 +13091,7 @@
       </c>
       <c r="J359" s="26"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10">
       <c r="A360" s="20" t="s">
         <v>66</v>
       </c>
@@ -13609,7 +13121,7 @@
       </c>
       <c r="J360" s="26"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10">
       <c r="A361" s="20" t="s">
         <v>66</v>
       </c>
@@ -13639,7 +13151,7 @@
       </c>
       <c r="J361" s="26"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10">
       <c r="A362" s="20" t="s">
         <v>66</v>
       </c>
@@ -13669,7 +13181,7 @@
       </c>
       <c r="J362" s="26"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10">
       <c r="A363" s="20" t="s">
         <v>66</v>
       </c>
@@ -13699,7 +13211,7 @@
       </c>
       <c r="J363" s="26"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10">
       <c r="A364" s="20" t="s">
         <v>66</v>
       </c>
@@ -13729,7 +13241,7 @@
       </c>
       <c r="J364" s="26"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10">
       <c r="A365" s="20" t="s">
         <v>66</v>
       </c>
@@ -13759,7 +13271,7 @@
       </c>
       <c r="J365" s="26"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10">
       <c r="A366" s="20" t="s">
         <v>66</v>
       </c>
@@ -13789,7 +13301,7 @@
       </c>
       <c r="J366" s="26"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10">
       <c r="A367" s="20" t="s">
         <v>66</v>
       </c>
@@ -13819,7 +13331,7 @@
       </c>
       <c r="J367" s="26"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10">
       <c r="A368" s="20" t="s">
         <v>66</v>
       </c>
@@ -13849,7 +13361,7 @@
       </c>
       <c r="J368" s="26"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10">
       <c r="A369" s="20" t="s">
         <v>66</v>
       </c>
@@ -13879,7 +13391,7 @@
       </c>
       <c r="J369" s="26"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10">
       <c r="A370" s="20" t="s">
         <v>66</v>
       </c>
@@ -13909,7 +13421,7 @@
       </c>
       <c r="J370" s="26"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10">
       <c r="A371" s="20" t="s">
         <v>66</v>
       </c>
@@ -13939,7 +13451,7 @@
       </c>
       <c r="J371" s="26"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10">
       <c r="A372" s="20" t="s">
         <v>66</v>
       </c>
@@ -13969,7 +13481,7 @@
       </c>
       <c r="J372" s="26"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10">
       <c r="A373" s="20" t="s">
         <v>66</v>
       </c>
@@ -13999,7 +13511,7 @@
       </c>
       <c r="J373" s="26"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10">
       <c r="A374" s="20" t="s">
         <v>66</v>
       </c>
@@ -14029,7 +13541,7 @@
       </c>
       <c r="J374" s="26"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10">
       <c r="A375" s="20" t="s">
         <v>66</v>
       </c>
@@ -14059,7 +13571,7 @@
       </c>
       <c r="J375" s="26"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10">
       <c r="A376" s="20" t="s">
         <v>66</v>
       </c>
@@ -14089,7 +13601,7 @@
       </c>
       <c r="J376" s="26"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10">
       <c r="A377" s="20" t="s">
         <v>66</v>
       </c>
@@ -14119,7 +13631,7 @@
       </c>
       <c r="J377" s="26"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10">
       <c r="A378" s="20" t="s">
         <v>66</v>
       </c>
@@ -14149,7 +13661,7 @@
       </c>
       <c r="J378" s="26"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10">
       <c r="A379" s="20" t="s">
         <v>66</v>
       </c>
@@ -14179,7 +13691,7 @@
       </c>
       <c r="J379" s="26"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10">
       <c r="A380" s="20" t="s">
         <v>66</v>
       </c>
@@ -14209,7 +13721,7 @@
       </c>
       <c r="J380" s="26"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10">
       <c r="A381" s="20" t="s">
         <v>66</v>
       </c>
@@ -14239,7 +13751,7 @@
       </c>
       <c r="J381" s="26"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10">
       <c r="A382" s="20" t="s">
         <v>66</v>
       </c>
@@ -14269,7 +13781,7 @@
       </c>
       <c r="J382" s="26"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10">
       <c r="A383" s="20" t="s">
         <v>66</v>
       </c>
@@ -14299,7 +13811,7 @@
       </c>
       <c r="J383" s="26"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10">
       <c r="A384" s="20" t="s">
         <v>66</v>
       </c>
@@ -14329,7 +13841,7 @@
       </c>
       <c r="J384" s="26"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10">
       <c r="A385" s="20" t="s">
         <v>66</v>
       </c>
@@ -14359,7 +13871,7 @@
       </c>
       <c r="J385" s="26"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10">
       <c r="A386" s="20">
         <v>2018</v>
       </c>
@@ -14389,7 +13901,7 @@
       </c>
       <c r="J386" s="26"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10">
       <c r="A387" s="20">
         <v>2018</v>
       </c>
@@ -14419,7 +13931,7 @@
       </c>
       <c r="J387" s="26"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10">
       <c r="A388" s="20">
         <v>2018</v>
       </c>
@@ -14449,7 +13961,7 @@
       </c>
       <c r="J388" s="26"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10">
       <c r="A389" s="20">
         <v>2018</v>
       </c>
@@ -14479,7 +13991,7 @@
       </c>
       <c r="J389" s="26"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10">
       <c r="A390" s="20">
         <v>2018</v>
       </c>
@@ -14509,7 +14021,7 @@
       </c>
       <c r="J390" s="26"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10">
       <c r="A391" s="20">
         <v>2018</v>
       </c>
@@ -14539,7 +14051,7 @@
       </c>
       <c r="J391" s="26"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10">
       <c r="A392" s="20">
         <v>2018</v>
       </c>
@@ -14569,7 +14081,7 @@
       </c>
       <c r="J392" s="26"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10">
       <c r="A393" s="20">
         <v>2018</v>
       </c>
@@ -14599,7 +14111,7 @@
       </c>
       <c r="J393" s="26"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10">
       <c r="A394" s="20">
         <v>2018</v>
       </c>
@@ -14629,7 +14141,7 @@
       </c>
       <c r="J394" s="26"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10">
       <c r="A395" s="20">
         <v>2018</v>
       </c>
@@ -14659,7 +14171,7 @@
       </c>
       <c r="J395" s="26"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10">
       <c r="A396" s="20">
         <v>2018</v>
       </c>
@@ -14689,7 +14201,7 @@
       </c>
       <c r="J396" s="26"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10">
       <c r="A397" s="20">
         <v>2018</v>
       </c>
@@ -14719,7 +14231,7 @@
       </c>
       <c r="J397" s="26"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10">
       <c r="A398" s="20">
         <v>2018</v>
       </c>
@@ -14749,7 +14261,7 @@
       </c>
       <c r="J398" s="26"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10">
       <c r="A399" s="20">
         <v>2018</v>
       </c>
@@ -14779,7 +14291,7 @@
       </c>
       <c r="J399" s="26"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10">
       <c r="A400" s="20">
         <v>2018</v>
       </c>
@@ -14809,7 +14321,7 @@
       </c>
       <c r="J400" s="26"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10">
       <c r="A401" s="20">
         <v>2018</v>
       </c>
@@ -14839,7 +14351,7 @@
       </c>
       <c r="J401" s="26"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10">
       <c r="A402" s="20">
         <v>2018</v>
       </c>
@@ -14869,7 +14381,7 @@
       </c>
       <c r="J402" s="26"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10">
       <c r="A403" s="20">
         <v>2018</v>
       </c>
@@ -14899,7 +14411,7 @@
       </c>
       <c r="J403" s="26"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10">
       <c r="A404" s="20">
         <v>2018</v>
       </c>
@@ -14929,7 +14441,7 @@
       </c>
       <c r="J404" s="26"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10">
       <c r="A405" s="20">
         <v>2018</v>
       </c>
@@ -14959,7 +14471,7 @@
       </c>
       <c r="J405" s="26"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10">
       <c r="A406" s="20">
         <v>2018</v>
       </c>
@@ -14989,7 +14501,7 @@
       </c>
       <c r="J406" s="26"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10">
       <c r="A407" s="20">
         <v>2018</v>
       </c>
@@ -15019,7 +14531,7 @@
       </c>
       <c r="J407" s="26"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10">
       <c r="A408" s="20">
         <v>2018</v>
       </c>
@@ -15049,7 +14561,7 @@
       </c>
       <c r="J408" s="26"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10">
       <c r="A409" s="20">
         <v>2018</v>
       </c>
@@ -15079,7 +14591,7 @@
       </c>
       <c r="J409" s="26"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10">
       <c r="A410" s="20">
         <v>2018</v>
       </c>
@@ -15109,7 +14621,7 @@
       </c>
       <c r="J410" s="26"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10">
       <c r="A411" s="20">
         <v>2018</v>
       </c>
@@ -15139,7 +14651,7 @@
       </c>
       <c r="J411" s="26"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10">
       <c r="A412" s="20">
         <v>2018</v>
       </c>
@@ -15169,7 +14681,7 @@
       </c>
       <c r="J412" s="26"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10">
       <c r="A413" s="20">
         <v>2018</v>
       </c>
@@ -15199,7 +14711,7 @@
       </c>
       <c r="J413" s="26"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10">
       <c r="A414" s="20">
         <v>2018</v>
       </c>
@@ -15229,7 +14741,7 @@
       </c>
       <c r="J414" s="26"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10">
       <c r="A415" s="20">
         <v>2018</v>
       </c>
@@ -15259,7 +14771,7 @@
       </c>
       <c r="J415" s="26"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10">
       <c r="A416" s="20">
         <v>2018</v>
       </c>
@@ -15289,7 +14801,7 @@
       </c>
       <c r="J416" s="26"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10">
       <c r="A417" s="20">
         <v>2018</v>
       </c>
@@ -15319,7 +14831,7 @@
       </c>
       <c r="J417" s="26"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10">
       <c r="A418" s="20">
         <v>2018</v>
       </c>
@@ -15349,7 +14861,7 @@
       </c>
       <c r="J418" s="26"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10">
       <c r="A419" s="20">
         <v>2018</v>
       </c>
@@ -15379,7 +14891,7 @@
       </c>
       <c r="J419" s="26"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10">
       <c r="A420" s="20">
         <v>2018</v>
       </c>
@@ -15409,7 +14921,7 @@
       </c>
       <c r="J420" s="26"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10">
       <c r="A421" s="20">
         <v>2018</v>
       </c>
@@ -15439,7 +14951,7 @@
       </c>
       <c r="J421" s="26"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10">
       <c r="A422" s="20">
         <v>2018</v>
       </c>
@@ -15469,7 +14981,7 @@
       </c>
       <c r="J422" s="26"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10">
       <c r="A423" s="20">
         <v>2018</v>
       </c>
@@ -15499,7 +15011,7 @@
       </c>
       <c r="J423" s="26"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10">
       <c r="A424" s="20">
         <v>2018</v>
       </c>
@@ -15529,7 +15041,7 @@
       </c>
       <c r="J424" s="26"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10">
       <c r="A425" s="20">
         <v>2018</v>
       </c>
@@ -15559,7 +15071,7 @@
       </c>
       <c r="J425" s="26"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10">
       <c r="A426" s="20">
         <v>2018</v>
       </c>
@@ -15589,7 +15101,7 @@
       </c>
       <c r="J426" s="26"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10">
       <c r="A427" s="20">
         <v>2018</v>
       </c>
@@ -15619,7 +15131,7 @@
       </c>
       <c r="J427" s="26"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10">
       <c r="A428" s="20">
         <v>2018</v>
       </c>
@@ -15649,7 +15161,7 @@
       </c>
       <c r="J428" s="26"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10">
       <c r="A429" s="20">
         <v>2018</v>
       </c>
@@ -15679,7 +15191,7 @@
       </c>
       <c r="J429" s="26"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10">
       <c r="A430" s="20">
         <v>2018</v>
       </c>
@@ -15709,7 +15221,7 @@
       </c>
       <c r="J430" s="26"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10">
       <c r="A431" s="20">
         <v>2018</v>
       </c>
@@ -15739,7 +15251,7 @@
       </c>
       <c r="J431" s="26"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10">
       <c r="A432" s="20">
         <v>2018</v>
       </c>
@@ -15769,7 +15281,7 @@
       </c>
       <c r="J432" s="26"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10">
       <c r="A433" s="20">
         <v>2018</v>
       </c>
@@ -15799,7 +15311,7 @@
       </c>
       <c r="J433" s="26"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10">
       <c r="A434" s="20">
         <v>2018</v>
       </c>
@@ -15829,7 +15341,7 @@
       </c>
       <c r="J434" s="26"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10">
       <c r="A435" s="20">
         <v>2018</v>
       </c>
@@ -15859,7 +15371,7 @@
       </c>
       <c r="J435" s="26"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10">
       <c r="A436" s="20">
         <v>2018</v>
       </c>
@@ -15889,7 +15401,7 @@
       </c>
       <c r="J436" s="26"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10">
       <c r="A437" s="20">
         <v>2018</v>
       </c>
@@ -15919,7 +15431,7 @@
       </c>
       <c r="J437" s="26"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10">
       <c r="A438" s="20">
         <v>2018</v>
       </c>
@@ -15949,7 +15461,7 @@
       </c>
       <c r="J438" s="26"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10">
       <c r="A439" s="20">
         <v>2018</v>
       </c>
@@ -15979,7 +15491,7 @@
       </c>
       <c r="J439" s="26"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10">
       <c r="A440" s="20">
         <v>2018</v>
       </c>
@@ -16009,7 +15521,7 @@
       </c>
       <c r="J440" s="26"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10">
       <c r="A441" s="20">
         <v>2018</v>
       </c>
@@ -16039,7 +15551,7 @@
       </c>
       <c r="J441" s="26"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10">
       <c r="A442" s="20">
         <v>2018</v>
       </c>
@@ -16069,7 +15581,7 @@
       </c>
       <c r="J442" s="26"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10">
       <c r="A443" s="20">
         <v>2018</v>
       </c>
@@ -16099,7 +15611,7 @@
       </c>
       <c r="J443" s="26"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10">
       <c r="A444" s="20">
         <v>2018</v>
       </c>
@@ -16129,7 +15641,7 @@
       </c>
       <c r="J444" s="26"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10">
       <c r="A445" s="20">
         <v>2018</v>
       </c>
@@ -16159,7 +15671,7 @@
       </c>
       <c r="J445" s="26"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10">
       <c r="A446" s="20">
         <v>2018</v>
       </c>
@@ -16189,7 +15701,7 @@
       </c>
       <c r="J446" s="26"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10">
       <c r="A447" s="20">
         <v>2018</v>
       </c>
@@ -16219,7 +15731,7 @@
       </c>
       <c r="J447" s="26"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10">
       <c r="A448" s="20">
         <v>2018</v>
       </c>
@@ -16249,7 +15761,7 @@
       </c>
       <c r="J448" s="26"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10">
       <c r="A449" s="20">
         <v>2018</v>
       </c>
@@ -16279,7 +15791,7 @@
       </c>
       <c r="J449" s="26"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10">
       <c r="A450" s="20">
         <v>2018</v>
       </c>
@@ -16309,7 +15821,7 @@
       </c>
       <c r="J450" s="26"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10">
       <c r="A451" s="20">
         <v>2018</v>
       </c>
@@ -16339,7 +15851,7 @@
       </c>
       <c r="J451" s="26"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10">
       <c r="A452" s="20">
         <v>2018</v>
       </c>
@@ -16369,7 +15881,7 @@
       </c>
       <c r="J452" s="26"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10">
       <c r="A453" s="20">
         <v>2018</v>
       </c>
@@ -16399,7 +15911,7 @@
       </c>
       <c r="J453" s="26"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10">
       <c r="A454" s="20">
         <v>2018</v>
       </c>
@@ -16429,7 +15941,7 @@
       </c>
       <c r="J454" s="26"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10">
       <c r="A455" s="20">
         <v>2018</v>
       </c>
@@ -16459,7 +15971,7 @@
       </c>
       <c r="J455" s="26"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10">
       <c r="A456" s="20">
         <v>2018</v>
       </c>
@@ -16489,7 +16001,7 @@
       </c>
       <c r="J456" s="26"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10">
       <c r="A457" s="20">
         <v>2018</v>
       </c>
@@ -16519,7 +16031,7 @@
       </c>
       <c r="J457" s="26"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10">
       <c r="A458" s="20">
         <v>2018</v>
       </c>
@@ -16549,7 +16061,7 @@
       </c>
       <c r="J458" s="26"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10">
       <c r="A459" s="20">
         <v>2018</v>
       </c>
@@ -16579,7 +16091,7 @@
       </c>
       <c r="J459" s="26"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10">
       <c r="A460" s="20">
         <v>2018</v>
       </c>
@@ -16609,7 +16121,7 @@
       </c>
       <c r="J460" s="26"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10">
       <c r="A461" s="20">
         <v>2018</v>
       </c>
@@ -16639,7 +16151,7 @@
       </c>
       <c r="J461" s="26"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10">
       <c r="A462" s="20">
         <v>2018</v>
       </c>
@@ -16669,7 +16181,7 @@
       </c>
       <c r="J462" s="26"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10">
       <c r="A463" s="20">
         <v>2018</v>
       </c>
@@ -16699,7 +16211,7 @@
       </c>
       <c r="J463" s="26"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10">
       <c r="A464" s="20">
         <v>2018</v>
       </c>
@@ -16729,7 +16241,7 @@
       </c>
       <c r="J464" s="26"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10">
       <c r="A465" s="20">
         <v>2018</v>
       </c>
@@ -16759,7 +16271,7 @@
       </c>
       <c r="J465" s="26"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10">
       <c r="A466" s="20">
         <v>2018</v>
       </c>
@@ -16789,7 +16301,7 @@
       </c>
       <c r="J466" s="26"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10">
       <c r="A467" s="20">
         <v>2018</v>
       </c>
@@ -16819,7 +16331,7 @@
       </c>
       <c r="J467" s="26"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10">
       <c r="A468" s="20">
         <v>2018</v>
       </c>
@@ -16849,7 +16361,7 @@
       </c>
       <c r="J468" s="26"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10">
       <c r="A469" s="20">
         <v>2018</v>
       </c>
@@ -16879,7 +16391,7 @@
       </c>
       <c r="J469" s="26"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10">
       <c r="A470" s="20">
         <v>2018</v>
       </c>
@@ -16909,7 +16421,7 @@
       </c>
       <c r="J470" s="26"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10">
       <c r="A471" s="20">
         <v>2018</v>
       </c>
@@ -16939,7 +16451,7 @@
       </c>
       <c r="J471" s="26"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10">
       <c r="A472" s="20">
         <v>2018</v>
       </c>
@@ -16969,7 +16481,7 @@
       </c>
       <c r="J472" s="26"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10">
       <c r="A473" s="20">
         <v>2018</v>
       </c>
@@ -16999,7 +16511,7 @@
       </c>
       <c r="J473" s="26"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10">
       <c r="A474" s="20">
         <v>2018</v>
       </c>
@@ -17029,7 +16541,7 @@
       </c>
       <c r="J474" s="26"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10">
       <c r="A475" s="20">
         <v>2018</v>
       </c>
@@ -17059,7 +16571,7 @@
       </c>
       <c r="J475" s="26"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10">
       <c r="A476" s="20">
         <v>2018</v>
       </c>
@@ -17089,7 +16601,7 @@
       </c>
       <c r="J476" s="26"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10">
       <c r="A477" s="20">
         <v>2018</v>
       </c>
@@ -17119,7 +16631,7 @@
       </c>
       <c r="J477" s="26"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10">
       <c r="A478" s="20">
         <v>2018</v>
       </c>
@@ -17149,7 +16661,7 @@
       </c>
       <c r="J478" s="26"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10">
       <c r="A479" s="20">
         <v>2018</v>
       </c>
@@ -17179,7 +16691,7 @@
       </c>
       <c r="J479" s="26"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10">
       <c r="A480" s="20">
         <v>2018</v>
       </c>
@@ -17209,7 +16721,7 @@
       </c>
       <c r="J480" s="26"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10">
       <c r="A481" s="20">
         <v>2018</v>
       </c>
@@ -17239,7 +16751,7 @@
       </c>
       <c r="J481" s="26"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10">
       <c r="A482" s="20">
         <v>2017</v>
       </c>
@@ -17269,7 +16781,7 @@
       </c>
       <c r="J482" s="26"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10">
       <c r="A483" s="20">
         <v>2017</v>
       </c>
@@ -17299,7 +16811,7 @@
       </c>
       <c r="J483" s="26"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10">
       <c r="A484" s="20">
         <v>2017</v>
       </c>
@@ -17329,7 +16841,7 @@
       </c>
       <c r="J484" s="26"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10">
       <c r="A485" s="20">
         <v>2017</v>
       </c>
@@ -17359,7 +16871,7 @@
       </c>
       <c r="J485" s="26"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10">
       <c r="A486" s="20">
         <v>2017</v>
       </c>
@@ -17389,7 +16901,7 @@
       </c>
       <c r="J486" s="26"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10">
       <c r="A487" s="20">
         <v>2017</v>
       </c>
@@ -17419,7 +16931,7 @@
       </c>
       <c r="J487" s="26"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10">
       <c r="A488" s="20">
         <v>2017</v>
       </c>
@@ -17449,7 +16961,7 @@
       </c>
       <c r="J488" s="26"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10">
       <c r="A489" s="20">
         <v>2017</v>
       </c>
@@ -17479,7 +16991,7 @@
       </c>
       <c r="J489" s="26"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10">
       <c r="A490" s="20">
         <v>2017</v>
       </c>
@@ -17509,7 +17021,7 @@
       </c>
       <c r="J490" s="26"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10">
       <c r="A491" s="20">
         <v>2017</v>
       </c>
@@ -17539,7 +17051,7 @@
       </c>
       <c r="J491" s="26"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10">
       <c r="A492" s="20">
         <v>2017</v>
       </c>
@@ -17569,7 +17081,7 @@
       </c>
       <c r="J492" s="26"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10">
       <c r="A493" s="20">
         <v>2017</v>
       </c>
@@ -17599,7 +17111,7 @@
       </c>
       <c r="J493" s="26"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10">
       <c r="A494" s="20">
         <v>2017</v>
       </c>
@@ -17629,7 +17141,7 @@
       </c>
       <c r="J494" s="26"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10">
       <c r="A495" s="20">
         <v>2017</v>
       </c>
@@ -17659,7 +17171,7 @@
       </c>
       <c r="J495" s="26"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10">
       <c r="A496" s="20">
         <v>2017</v>
       </c>
@@ -17689,7 +17201,7 @@
       </c>
       <c r="J496" s="26"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10">
       <c r="A497" s="20">
         <v>2017</v>
       </c>
@@ -17719,7 +17231,7 @@
       </c>
       <c r="J497" s="26"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10">
       <c r="A498" s="20">
         <v>2017</v>
       </c>
@@ -17749,7 +17261,7 @@
       </c>
       <c r="J498" s="26"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10">
       <c r="A499" s="20">
         <v>2017</v>
       </c>
@@ -17779,7 +17291,7 @@
       </c>
       <c r="J499" s="26"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10">
       <c r="A500" s="20">
         <v>2017</v>
       </c>
@@ -17809,7 +17321,7 @@
       </c>
       <c r="J500" s="26"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10">
       <c r="A501" s="20">
         <v>2017</v>
       </c>
@@ -17839,7 +17351,7 @@
       </c>
       <c r="J501" s="26"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10">
       <c r="A502" s="20">
         <v>2017</v>
       </c>
@@ -17869,7 +17381,7 @@
       </c>
       <c r="J502" s="26"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10">
       <c r="A503" s="20">
         <v>2017</v>
       </c>
@@ -17899,7 +17411,7 @@
       </c>
       <c r="J503" s="26"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10">
       <c r="A504" s="20">
         <v>2017</v>
       </c>
@@ -17929,7 +17441,7 @@
       </c>
       <c r="J504" s="26"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10">
       <c r="A505" s="20">
         <v>2017</v>
       </c>
@@ -17959,7 +17471,7 @@
       </c>
       <c r="J505" s="26"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10">
       <c r="A506" s="20">
         <v>2017</v>
       </c>
@@ -17989,7 +17501,7 @@
       </c>
       <c r="J506" s="26"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10">
       <c r="A507" s="20">
         <v>2017</v>
       </c>
@@ -18019,7 +17531,7 @@
       </c>
       <c r="J507" s="26"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10">
       <c r="A508" s="20">
         <v>2017</v>
       </c>
@@ -18049,7 +17561,7 @@
       </c>
       <c r="J508" s="26"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10">
       <c r="A509" s="20">
         <v>2017</v>
       </c>
@@ -18079,7 +17591,7 @@
       </c>
       <c r="J509" s="26"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10">
       <c r="A510" s="20">
         <v>2017</v>
       </c>
@@ -18109,7 +17621,7 @@
       </c>
       <c r="J510" s="26"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10">
       <c r="A511" s="20">
         <v>2017</v>
       </c>
@@ -18139,7 +17651,7 @@
       </c>
       <c r="J511" s="26"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10">
       <c r="A512" s="20">
         <v>2017</v>
       </c>
@@ -18169,7 +17681,7 @@
       </c>
       <c r="J512" s="26"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10">
       <c r="A513" s="20">
         <v>2017</v>
       </c>
@@ -18199,7 +17711,7 @@
       </c>
       <c r="J513" s="26"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10">
       <c r="A514" s="20">
         <v>2017</v>
       </c>
@@ -18229,7 +17741,7 @@
       </c>
       <c r="J514" s="26"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10">
       <c r="A515" s="20">
         <v>2017</v>
       </c>
@@ -18259,7 +17771,7 @@
       </c>
       <c r="J515" s="26"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10">
       <c r="A516" s="20">
         <v>2017</v>
       </c>
@@ -18289,7 +17801,7 @@
       </c>
       <c r="J516" s="26"/>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10">
       <c r="A517" s="20">
         <v>2017</v>
       </c>
@@ -18319,7 +17831,7 @@
       </c>
       <c r="J517" s="26"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10">
       <c r="A518" s="20">
         <v>2017</v>
       </c>
@@ -18349,7 +17861,7 @@
       </c>
       <c r="J518" s="26"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10">
       <c r="A519" s="20">
         <v>2017</v>
       </c>
@@ -18379,7 +17891,7 @@
       </c>
       <c r="J519" s="26"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10">
       <c r="A520" s="20">
         <v>2017</v>
       </c>
@@ -18409,7 +17921,7 @@
       </c>
       <c r="J520" s="26"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10">
       <c r="A521" s="20">
         <v>2017</v>
       </c>
@@ -18439,7 +17951,7 @@
       </c>
       <c r="J521" s="26"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10">
       <c r="A522" s="20">
         <v>2017</v>
       </c>
@@ -18469,7 +17981,7 @@
       </c>
       <c r="J522" s="26"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10">
       <c r="A523" s="20">
         <v>2017</v>
       </c>
@@ -18499,7 +18011,7 @@
       </c>
       <c r="J523" s="26"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10">
       <c r="A524" s="20">
         <v>2017</v>
       </c>
@@ -18529,7 +18041,7 @@
       </c>
       <c r="J524" s="26"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10">
       <c r="A525" s="20">
         <v>2017</v>
       </c>
@@ -18559,7 +18071,7 @@
       </c>
       <c r="J525" s="26"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10">
       <c r="A526" s="20">
         <v>2017</v>
       </c>
@@ -18589,7 +18101,7 @@
       </c>
       <c r="J526" s="26"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10">
       <c r="A527" s="20">
         <v>2017</v>
       </c>
@@ -18619,7 +18131,7 @@
       </c>
       <c r="J527" s="26"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10">
       <c r="A528" s="20">
         <v>2017</v>
       </c>
@@ -18649,7 +18161,7 @@
       </c>
       <c r="J528" s="26"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10">
       <c r="A529" s="20">
         <v>2017</v>
       </c>
@@ -18679,7 +18191,7 @@
       </c>
       <c r="J529" s="26"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10">
       <c r="A530" s="20">
         <v>2017</v>
       </c>
@@ -18709,7 +18221,7 @@
       </c>
       <c r="J530" s="26"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10">
       <c r="A531" s="20">
         <v>2017</v>
       </c>
@@ -18739,7 +18251,7 @@
       </c>
       <c r="J531" s="26"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10">
       <c r="A532" s="20">
         <v>2017</v>
       </c>
@@ -18769,7 +18281,7 @@
       </c>
       <c r="J532" s="26"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10">
       <c r="A533" s="20">
         <v>2017</v>
       </c>
@@ -18799,7 +18311,7 @@
       </c>
       <c r="J533" s="26"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10">
       <c r="A534" s="20">
         <v>2017</v>
       </c>
@@ -18829,7 +18341,7 @@
       </c>
       <c r="J534" s="26"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10">
       <c r="A535" s="20">
         <v>2017</v>
       </c>
@@ -18859,7 +18371,7 @@
       </c>
       <c r="J535" s="26"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10">
       <c r="A536" s="20">
         <v>2017</v>
       </c>
@@ -18889,7 +18401,7 @@
       </c>
       <c r="J536" s="26"/>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10">
       <c r="A537" s="20">
         <v>2017</v>
       </c>
@@ -18919,7 +18431,7 @@
       </c>
       <c r="J537" s="26"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10">
       <c r="A538" s="20">
         <v>2017</v>
       </c>
@@ -18949,7 +18461,7 @@
       </c>
       <c r="J538" s="26"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10">
       <c r="A539" s="20">
         <v>2017</v>
       </c>
@@ -18979,7 +18491,7 @@
       </c>
       <c r="J539" s="26"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10">
       <c r="A540" s="20">
         <v>2017</v>
       </c>
@@ -19009,7 +18521,7 @@
       </c>
       <c r="J540" s="26"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10">
       <c r="A541" s="20">
         <v>2017</v>
       </c>
@@ -19039,7 +18551,7 @@
       </c>
       <c r="J541" s="26"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10">
       <c r="A542" s="20">
         <v>2017</v>
       </c>
@@ -19069,7 +18581,7 @@
       </c>
       <c r="J542" s="26"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10">
       <c r="A543" s="20">
         <v>2017</v>
       </c>
@@ -19099,7 +18611,7 @@
       </c>
       <c r="J543" s="26"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10">
       <c r="A544" s="20">
         <v>2017</v>
       </c>
@@ -19129,7 +18641,7 @@
       </c>
       <c r="J544" s="26"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10">
       <c r="A545" s="20">
         <v>2017</v>
       </c>
@@ -19159,7 +18671,7 @@
       </c>
       <c r="J545" s="26"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10">
       <c r="A546" s="20">
         <v>2017</v>
       </c>
@@ -19189,7 +18701,7 @@
       </c>
       <c r="J546" s="26"/>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10">
       <c r="A547" s="20">
         <v>2017</v>
       </c>
@@ -19219,7 +18731,7 @@
       </c>
       <c r="J547" s="26"/>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10">
       <c r="A548" s="20">
         <v>2017</v>
       </c>
@@ -19249,7 +18761,7 @@
       </c>
       <c r="J548" s="26"/>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10">
       <c r="A549" s="20">
         <v>2017</v>
       </c>
@@ -19279,7 +18791,7 @@
       </c>
       <c r="J549" s="26"/>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10">
       <c r="A550" s="20">
         <v>2017</v>
       </c>
@@ -19309,7 +18821,7 @@
       </c>
       <c r="J550" s="26"/>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10">
       <c r="A551" s="20">
         <v>2017</v>
       </c>
@@ -19339,7 +18851,7 @@
       </c>
       <c r="J551" s="26"/>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10">
       <c r="A552" s="20">
         <v>2017</v>
       </c>
@@ -19369,7 +18881,7 @@
       </c>
       <c r="J552" s="26"/>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10">
       <c r="A553" s="20">
         <v>2017</v>
       </c>
@@ -19399,7 +18911,7 @@
       </c>
       <c r="J553" s="26"/>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10">
       <c r="A554" s="20">
         <v>2017</v>
       </c>
@@ -19429,7 +18941,7 @@
       </c>
       <c r="J554" s="26"/>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10">
       <c r="A555" s="20">
         <v>2017</v>
       </c>
@@ -19459,7 +18971,7 @@
       </c>
       <c r="J555" s="26"/>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10">
       <c r="A556" s="20">
         <v>2017</v>
       </c>
@@ -19489,7 +19001,7 @@
       </c>
       <c r="J556" s="26"/>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10">
       <c r="A557" s="20">
         <v>2017</v>
       </c>
@@ -19519,7 +19031,7 @@
       </c>
       <c r="J557" s="26"/>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10">
       <c r="A558" s="20">
         <v>2017</v>
       </c>
@@ -19549,7 +19061,7 @@
       </c>
       <c r="J558" s="26"/>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10">
       <c r="A559" s="20">
         <v>2017</v>
       </c>
@@ -19579,7 +19091,7 @@
       </c>
       <c r="J559" s="26"/>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10">
       <c r="A560" s="20">
         <v>2017</v>
       </c>
@@ -19609,7 +19121,7 @@
       </c>
       <c r="J560" s="26"/>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10">
       <c r="A561" s="20">
         <v>2017</v>
       </c>
@@ -19639,7 +19151,7 @@
       </c>
       <c r="J561" s="26"/>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10">
       <c r="A562" s="20">
         <v>2017</v>
       </c>
@@ -19669,7 +19181,7 @@
       </c>
       <c r="J562" s="26"/>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10">
       <c r="A563" s="20">
         <v>2017</v>
       </c>
@@ -19699,7 +19211,7 @@
       </c>
       <c r="J563" s="26"/>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10">
       <c r="A564" s="20">
         <v>2017</v>
       </c>
@@ -19729,7 +19241,7 @@
       </c>
       <c r="J564" s="26"/>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10">
       <c r="A565" s="20">
         <v>2017</v>
       </c>
@@ -19759,7 +19271,7 @@
       </c>
       <c r="J565" s="26"/>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10">
       <c r="A566" s="20">
         <v>2017</v>
       </c>
@@ -19789,7 +19301,7 @@
       </c>
       <c r="J566" s="26"/>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10">
       <c r="A567" s="20">
         <v>2017</v>
       </c>
@@ -19819,7 +19331,7 @@
       </c>
       <c r="J567" s="26"/>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10">
       <c r="A568" s="20">
         <v>2017</v>
       </c>
@@ -19849,7 +19361,7 @@
       </c>
       <c r="J568" s="26"/>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10">
       <c r="A569" s="20">
         <v>2017</v>
       </c>
@@ -19879,7 +19391,7 @@
       </c>
       <c r="J569" s="26"/>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10">
       <c r="A570" s="20">
         <v>2017</v>
       </c>
@@ -19909,7 +19421,7 @@
       </c>
       <c r="J570" s="26"/>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10">
       <c r="A571" s="20">
         <v>2017</v>
       </c>
@@ -19939,7 +19451,7 @@
       </c>
       <c r="J571" s="26"/>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10">
       <c r="A572" s="20">
         <v>2017</v>
       </c>
@@ -19969,7 +19481,7 @@
       </c>
       <c r="J572" s="26"/>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10">
       <c r="A573" s="20">
         <v>2017</v>
       </c>
@@ -19999,7 +19511,7 @@
       </c>
       <c r="J573" s="26"/>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10">
       <c r="A574" s="20">
         <v>2017</v>
       </c>
@@ -20029,7 +19541,7 @@
       </c>
       <c r="J574" s="26"/>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10">
       <c r="A575" s="20">
         <v>2017</v>
       </c>
@@ -20059,7 +19571,7 @@
       </c>
       <c r="J575" s="26"/>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10">
       <c r="A576" s="20">
         <v>2017</v>
       </c>
@@ -20089,7 +19601,7 @@
       </c>
       <c r="J576" s="26"/>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10">
       <c r="A577" s="20">
         <v>2017</v>
       </c>
@@ -20119,7 +19631,7 @@
       </c>
       <c r="J577" s="26"/>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10">
       <c r="A578" s="20">
         <v>2016</v>
       </c>
@@ -20149,7 +19661,7 @@
       </c>
       <c r="J578" s="26"/>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10">
       <c r="A579" s="20">
         <v>2016</v>
       </c>
@@ -20179,7 +19691,7 @@
       </c>
       <c r="J579" s="26"/>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10">
       <c r="A580" s="20">
         <v>2016</v>
       </c>
@@ -20209,7 +19721,7 @@
       </c>
       <c r="J580" s="26"/>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10">
       <c r="A581" s="20">
         <v>2016</v>
       </c>
@@ -20239,7 +19751,7 @@
       </c>
       <c r="J581" s="26"/>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10">
       <c r="A582" s="20">
         <v>2016</v>
       </c>
@@ -20269,7 +19781,7 @@
       </c>
       <c r="J582" s="26"/>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10">
       <c r="A583" s="20">
         <v>2016</v>
       </c>
@@ -20299,7 +19811,7 @@
       </c>
       <c r="J583" s="26"/>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10">
       <c r="A584" s="20">
         <v>2016</v>
       </c>
@@ -20329,7 +19841,7 @@
       </c>
       <c r="J584" s="26"/>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10">
       <c r="A585" s="20">
         <v>2016</v>
       </c>
@@ -20359,7 +19871,7 @@
       </c>
       <c r="J585" s="26"/>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10">
       <c r="A586" s="20">
         <v>2016</v>
       </c>
@@ -20389,7 +19901,7 @@
       </c>
       <c r="J586" s="26"/>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10">
       <c r="A587" s="20">
         <v>2016</v>
       </c>
@@ -20419,7 +19931,7 @@
       </c>
       <c r="J587" s="26"/>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10">
       <c r="A588" s="20">
         <v>2016</v>
       </c>
@@ -20449,7 +19961,7 @@
       </c>
       <c r="J588" s="26"/>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10">
       <c r="A589" s="20">
         <v>2016</v>
       </c>
@@ -20479,7 +19991,7 @@
       </c>
       <c r="J589" s="26"/>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10">
       <c r="A590" s="20">
         <v>2016</v>
       </c>
@@ -20509,7 +20021,7 @@
       </c>
       <c r="J590" s="26"/>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10">
       <c r="A591" s="20">
         <v>2016</v>
       </c>
@@ -20539,7 +20051,7 @@
       </c>
       <c r="J591" s="26"/>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10">
       <c r="A592" s="20">
         <v>2016</v>
       </c>
@@ -20569,7 +20081,7 @@
       </c>
       <c r="J592" s="26"/>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10">
       <c r="A593" s="20">
         <v>2016</v>
       </c>
@@ -20599,7 +20111,7 @@
       </c>
       <c r="J593" s="26"/>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10">
       <c r="A594" s="20">
         <v>2016</v>
       </c>
@@ -20629,7 +20141,7 @@
       </c>
       <c r="J594" s="26"/>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10">
       <c r="A595" s="20">
         <v>2016</v>
       </c>
@@ -20659,7 +20171,7 @@
       </c>
       <c r="J595" s="26"/>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10">
       <c r="A596" s="20">
         <v>2016</v>
       </c>
@@ -20689,7 +20201,7 @@
       </c>
       <c r="J596" s="26"/>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10">
       <c r="A597" s="20">
         <v>2016</v>
       </c>
@@ -20719,7 +20231,7 @@
       </c>
       <c r="J597" s="26"/>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10">
       <c r="A598" s="20">
         <v>2016</v>
       </c>
@@ -20749,7 +20261,7 @@
       </c>
       <c r="J598" s="26"/>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10">
       <c r="A599" s="20">
         <v>2016</v>
       </c>
@@ -20779,7 +20291,7 @@
       </c>
       <c r="J599" s="26"/>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10">
       <c r="A600" s="20">
         <v>2016</v>
       </c>
@@ -20809,7 +20321,7 @@
       </c>
       <c r="J600" s="26"/>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10">
       <c r="A601" s="20">
         <v>2016</v>
       </c>
@@ -20839,7 +20351,7 @@
       </c>
       <c r="J601" s="26"/>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10">
       <c r="A602" s="20">
         <v>2016</v>
       </c>
@@ -20869,7 +20381,7 @@
       </c>
       <c r="J602" s="26"/>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10">
       <c r="A603" s="20">
         <v>2016</v>
       </c>
@@ -20899,7 +20411,7 @@
       </c>
       <c r="J603" s="26"/>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10">
       <c r="A604" s="20">
         <v>2016</v>
       </c>
@@ -20929,7 +20441,7 @@
       </c>
       <c r="J604" s="26"/>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10">
       <c r="A605" s="20">
         <v>2016</v>
       </c>
@@ -20959,7 +20471,7 @@
       </c>
       <c r="J605" s="26"/>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10">
       <c r="A606" s="20">
         <v>2016</v>
       </c>
@@ -20989,7 +20501,7 @@
       </c>
       <c r="J606" s="26"/>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10">
       <c r="A607" s="20">
         <v>2016</v>
       </c>
@@ -21019,7 +20531,7 @@
       </c>
       <c r="J607" s="26"/>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10">
       <c r="A608" s="20">
         <v>2016</v>
       </c>
@@ -21049,7 +20561,7 @@
       </c>
       <c r="J608" s="26"/>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10">
       <c r="A609" s="20">
         <v>2016</v>
       </c>
@@ -21079,7 +20591,7 @@
       </c>
       <c r="J609" s="26"/>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10">
       <c r="A610" s="20">
         <v>2016</v>
       </c>
@@ -21109,7 +20621,7 @@
       </c>
       <c r="J610" s="26"/>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10">
       <c r="A611" s="20">
         <v>2016</v>
       </c>
@@ -21139,7 +20651,7 @@
       </c>
       <c r="J611" s="26"/>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10">
       <c r="A612" s="20">
         <v>2016</v>
       </c>
@@ -21169,7 +20681,7 @@
       </c>
       <c r="J612" s="26"/>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10">
       <c r="A613" s="20">
         <v>2016</v>
       </c>
@@ -21199,7 +20711,7 @@
       </c>
       <c r="J613" s="26"/>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10">
       <c r="A614" s="20">
         <v>2016</v>
       </c>
@@ -21229,7 +20741,7 @@
       </c>
       <c r="J614" s="26"/>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10">
       <c r="A615" s="20">
         <v>2016</v>
       </c>
@@ -21259,7 +20771,7 @@
       </c>
       <c r="J615" s="26"/>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10">
       <c r="A616" s="20">
         <v>2016</v>
       </c>
@@ -21289,7 +20801,7 @@
       </c>
       <c r="J616" s="26"/>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10">
       <c r="A617" s="20">
         <v>2016</v>
       </c>
@@ -21319,7 +20831,7 @@
       </c>
       <c r="J617" s="26"/>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10">
       <c r="A618" s="20">
         <v>2016</v>
       </c>
@@ -21349,7 +20861,7 @@
       </c>
       <c r="J618" s="26"/>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10">
       <c r="A619" s="20">
         <v>2016</v>
       </c>
@@ -21379,7 +20891,7 @@
       </c>
       <c r="J619" s="26"/>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10">
       <c r="A620" s="20">
         <v>2016</v>
       </c>
@@ -21409,7 +20921,7 @@
       </c>
       <c r="J620" s="26"/>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10">
       <c r="A621" s="20">
         <v>2016</v>
       </c>
@@ -21439,7 +20951,7 @@
       </c>
       <c r="J621" s="26"/>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10">
       <c r="A622" s="20">
         <v>2016</v>
       </c>
@@ -21469,7 +20981,7 @@
       </c>
       <c r="J622" s="26"/>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10">
       <c r="A623" s="20">
         <v>2016</v>
       </c>
@@ -21499,7 +21011,7 @@
       </c>
       <c r="J623" s="26"/>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10">
       <c r="A624" s="20">
         <v>2016</v>
       </c>
@@ -21529,7 +21041,7 @@
       </c>
       <c r="J624" s="26"/>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10">
       <c r="A625" s="20">
         <v>2016</v>
       </c>
@@ -21559,7 +21071,7 @@
       </c>
       <c r="J625" s="26"/>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10">
       <c r="A626" s="20">
         <v>2016</v>
       </c>
@@ -21589,7 +21101,7 @@
       </c>
       <c r="J626" s="26"/>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10">
       <c r="A627" s="20">
         <v>2016</v>
       </c>
@@ -21619,7 +21131,7 @@
       </c>
       <c r="J627" s="26"/>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10">
       <c r="A628" s="20">
         <v>2016</v>
       </c>
@@ -21649,7 +21161,7 @@
       </c>
       <c r="J628" s="26"/>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10">
       <c r="A629" s="20">
         <v>2016</v>
       </c>
@@ -21679,7 +21191,7 @@
       </c>
       <c r="J629" s="26"/>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10">
       <c r="A630" s="20">
         <v>2016</v>
       </c>
@@ -21709,7 +21221,7 @@
       </c>
       <c r="J630" s="26"/>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10">
       <c r="A631" s="20">
         <v>2016</v>
       </c>
@@ -21739,7 +21251,7 @@
       </c>
       <c r="J631" s="26"/>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10">
       <c r="A632" s="20">
         <v>2016</v>
       </c>
@@ -21769,7 +21281,7 @@
       </c>
       <c r="J632" s="26"/>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10">
       <c r="A633" s="20">
         <v>2016</v>
       </c>
@@ -21799,7 +21311,7 @@
       </c>
       <c r="J633" s="26"/>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10">
       <c r="A634" s="20">
         <v>2016</v>
       </c>
@@ -21829,7 +21341,7 @@
       </c>
       <c r="J634" s="26"/>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10">
       <c r="A635" s="20">
         <v>2016</v>
       </c>
@@ -21859,7 +21371,7 @@
       </c>
       <c r="J635" s="26"/>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10">
       <c r="A636" s="20">
         <v>2016</v>
       </c>
@@ -21889,7 +21401,7 @@
       </c>
       <c r="J636" s="26"/>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10">
       <c r="A637" s="20">
         <v>2016</v>
       </c>
@@ -21919,7 +21431,7 @@
       </c>
       <c r="J637" s="26"/>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10">
       <c r="A638" s="20">
         <v>2016</v>
       </c>
@@ -21949,7 +21461,7 @@
       </c>
       <c r="J638" s="26"/>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10">
       <c r="A639" s="20">
         <v>2016</v>
       </c>
@@ -21979,7 +21491,7 @@
       </c>
       <c r="J639" s="26"/>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10">
       <c r="A640" s="20">
         <v>2016</v>
       </c>
@@ -22009,7 +21521,7 @@
       </c>
       <c r="J640" s="26"/>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10">
       <c r="A641" s="20">
         <v>2016</v>
       </c>
@@ -22039,7 +21551,7 @@
       </c>
       <c r="J641" s="26"/>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10">
       <c r="A642" s="20">
         <v>2016</v>
       </c>
@@ -22069,7 +21581,7 @@
       </c>
       <c r="J642" s="26"/>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10">
       <c r="A643" s="20">
         <v>2016</v>
       </c>
@@ -22099,7 +21611,7 @@
       </c>
       <c r="J643" s="26"/>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10">
       <c r="A644" s="20">
         <v>2016</v>
       </c>
@@ -22129,7 +21641,7 @@
       </c>
       <c r="J644" s="26"/>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10">
       <c r="A645" s="20">
         <v>2016</v>
       </c>
@@ -22159,7 +21671,7 @@
       </c>
       <c r="J645" s="26"/>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10">
       <c r="A646" s="20">
         <v>2016</v>
       </c>
@@ -22189,7 +21701,7 @@
       </c>
       <c r="J646" s="26"/>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10">
       <c r="A647" s="20">
         <v>2016</v>
       </c>
@@ -22219,7 +21731,7 @@
       </c>
       <c r="J647" s="26"/>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10">
       <c r="A648" s="20">
         <v>2016</v>
       </c>
@@ -22249,7 +21761,7 @@
       </c>
       <c r="J648" s="26"/>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10">
       <c r="A649" s="20">
         <v>2016</v>
       </c>
@@ -22279,7 +21791,7 @@
       </c>
       <c r="J649" s="26"/>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10">
       <c r="A650" s="20">
         <v>2016</v>
       </c>
@@ -22309,7 +21821,7 @@
       </c>
       <c r="J650" s="26"/>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10">
       <c r="A651" s="20">
         <v>2016</v>
       </c>
@@ -22339,7 +21851,7 @@
       </c>
       <c r="J651" s="26"/>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10">
       <c r="A652" s="20">
         <v>2016</v>
       </c>
@@ -22369,7 +21881,7 @@
       </c>
       <c r="J652" s="26"/>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10">
       <c r="A653" s="20">
         <v>2016</v>
       </c>
@@ -22399,7 +21911,7 @@
       </c>
       <c r="J653" s="26"/>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10">
       <c r="A654" s="20">
         <v>2016</v>
       </c>
@@ -22429,7 +21941,7 @@
       </c>
       <c r="J654" s="26"/>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10">
       <c r="A655" s="20">
         <v>2016</v>
       </c>
@@ -22459,7 +21971,7 @@
       </c>
       <c r="J655" s="26"/>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10">
       <c r="A656" s="20">
         <v>2016</v>
       </c>
@@ -22489,7 +22001,7 @@
       </c>
       <c r="J656" s="26"/>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10">
       <c r="A657" s="20">
         <v>2016</v>
       </c>
@@ -22519,7 +22031,7 @@
       </c>
       <c r="J657" s="26"/>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10">
       <c r="A658" s="20">
         <v>2016</v>
       </c>
@@ -22549,7 +22061,7 @@
       </c>
       <c r="J658" s="26"/>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10">
       <c r="A659" s="20">
         <v>2016</v>
       </c>
@@ -22579,7 +22091,7 @@
       </c>
       <c r="J659" s="26"/>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10">
       <c r="A660" s="20">
         <v>2016</v>
       </c>
@@ -22609,7 +22121,7 @@
       </c>
       <c r="J660" s="26"/>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10">
       <c r="A661" s="20">
         <v>2016</v>
       </c>
@@ -22639,7 +22151,7 @@
       </c>
       <c r="J661" s="26"/>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10">
       <c r="A662" s="20">
         <v>2016</v>
       </c>
@@ -22669,7 +22181,7 @@
       </c>
       <c r="J662" s="26"/>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10">
       <c r="A663" s="20">
         <v>2016</v>
       </c>
@@ -22699,7 +22211,7 @@
       </c>
       <c r="J663" s="26"/>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10">
       <c r="A664" s="20">
         <v>2016</v>
       </c>
@@ -22729,7 +22241,7 @@
       </c>
       <c r="J664" s="26"/>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10">
       <c r="A665" s="20">
         <v>2016</v>
       </c>
@@ -22759,7 +22271,7 @@
       </c>
       <c r="J665" s="26"/>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10">
       <c r="A666" s="20">
         <v>2016</v>
       </c>
@@ -22789,7 +22301,7 @@
       </c>
       <c r="J666" s="26"/>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10">
       <c r="A667" s="20">
         <v>2016</v>
       </c>
@@ -22819,7 +22331,7 @@
       </c>
       <c r="J667" s="26"/>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10">
       <c r="A668" s="20">
         <v>2016</v>
       </c>
@@ -22849,7 +22361,7 @@
       </c>
       <c r="J668" s="26"/>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10">
       <c r="A669" s="20">
         <v>2016</v>
       </c>
@@ -22879,7 +22391,7 @@
       </c>
       <c r="J669" s="26"/>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10">
       <c r="A670" s="20">
         <v>2016</v>
       </c>
@@ -22909,7 +22421,7 @@
       </c>
       <c r="J670" s="26"/>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10">
       <c r="A671" s="20">
         <v>2016</v>
       </c>
@@ -22939,7 +22451,7 @@
       </c>
       <c r="J671" s="26"/>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10">
       <c r="A672" s="20">
         <v>2016</v>
       </c>
@@ -22969,7 +22481,7 @@
       </c>
       <c r="J672" s="26"/>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10">
       <c r="A673" s="20">
         <v>2016</v>
       </c>
@@ -22999,7 +22511,7 @@
       </c>
       <c r="J673" s="26"/>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10">
       <c r="A674" s="20">
         <v>2015</v>
       </c>
@@ -23029,7 +22541,7 @@
       </c>
       <c r="J674" s="26"/>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10">
       <c r="A675" s="20">
         <v>2015</v>
       </c>
@@ -23059,7 +22571,7 @@
       </c>
       <c r="J675" s="26"/>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10">
       <c r="A676" s="20">
         <v>2015</v>
       </c>
@@ -23089,7 +22601,7 @@
       </c>
       <c r="J676" s="26"/>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10">
       <c r="A677" s="20">
         <v>2015</v>
       </c>
@@ -23119,7 +22631,7 @@
       </c>
       <c r="J677" s="26"/>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10">
       <c r="A678" s="20">
         <v>2015</v>
       </c>
@@ -23149,7 +22661,7 @@
       </c>
       <c r="J678" s="26"/>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10">
       <c r="A679" s="20">
         <v>2015</v>
       </c>
@@ -23179,7 +22691,7 @@
       </c>
       <c r="J679" s="26"/>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10">
       <c r="A680" s="20">
         <v>2015</v>
       </c>
@@ -23209,7 +22721,7 @@
       </c>
       <c r="J680" s="26"/>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10">
       <c r="A681" s="20">
         <v>2015</v>
       </c>
@@ -23239,7 +22751,7 @@
       </c>
       <c r="J681" s="26"/>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10">
       <c r="A682" s="20">
         <v>2015</v>
       </c>
@@ -23269,7 +22781,7 @@
       </c>
       <c r="J682" s="26"/>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10">
       <c r="A683" s="20">
         <v>2015</v>
       </c>
@@ -23299,7 +22811,7 @@
       </c>
       <c r="J683" s="26"/>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10">
       <c r="A684" s="20">
         <v>2015</v>
       </c>
@@ -23329,7 +22841,7 @@
       </c>
       <c r="J684" s="26"/>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10">
       <c r="A685" s="20">
         <v>2015</v>
       </c>
@@ -23359,7 +22871,7 @@
       </c>
       <c r="J685" s="26"/>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10">
       <c r="A686" s="20">
         <v>2015</v>
       </c>
@@ -23389,7 +22901,7 @@
       </c>
       <c r="J686" s="26"/>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10">
       <c r="A687" s="20">
         <v>2015</v>
       </c>
@@ -23419,7 +22931,7 @@
       </c>
       <c r="J687" s="26"/>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10">
       <c r="A688" s="20">
         <v>2015</v>
       </c>
@@ -23449,7 +22961,7 @@
       </c>
       <c r="J688" s="26"/>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10">
       <c r="A689" s="20">
         <v>2015</v>
       </c>
@@ -23479,7 +22991,7 @@
       </c>
       <c r="J689" s="26"/>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10">
       <c r="A690" s="20">
         <v>2015</v>
       </c>
@@ -23509,7 +23021,7 @@
       </c>
       <c r="J690" s="26"/>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:10">
       <c r="A691" s="20">
         <v>2015</v>
       </c>
@@ -23539,7 +23051,7 @@
       </c>
       <c r="J691" s="26"/>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:10">
       <c r="A692" s="20">
         <v>2015</v>
       </c>
@@ -23569,7 +23081,7 @@
       </c>
       <c r="J692" s="26"/>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:10">
       <c r="A693" s="20">
         <v>2015</v>
       </c>
@@ -23599,7 +23111,7 @@
       </c>
       <c r="J693" s="26"/>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:10">
       <c r="A694" s="20">
         <v>2015</v>
       </c>
@@ -23629,7 +23141,7 @@
       </c>
       <c r="J694" s="26"/>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10">
       <c r="A695" s="20">
         <v>2015</v>
       </c>
@@ -23659,7 +23171,7 @@
       </c>
       <c r="J695" s="26"/>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10">
       <c r="A696" s="20">
         <v>2015</v>
       </c>
@@ -23689,7 +23201,7 @@
       </c>
       <c r="J696" s="26"/>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10">
       <c r="A697" s="20">
         <v>2015</v>
       </c>
@@ -23719,7 +23231,7 @@
       </c>
       <c r="J697" s="26"/>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:10">
       <c r="A698" s="20">
         <v>2015</v>
       </c>
@@ -23749,7 +23261,7 @@
       </c>
       <c r="J698" s="26"/>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10">
       <c r="A699" s="20">
         <v>2015</v>
       </c>
@@ -23779,7 +23291,7 @@
       </c>
       <c r="J699" s="26"/>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10">
       <c r="A700" s="20">
         <v>2015</v>
       </c>
@@ -23809,7 +23321,7 @@
       </c>
       <c r="J700" s="26"/>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10">
       <c r="A701" s="20">
         <v>2015</v>
       </c>
@@ -23839,7 +23351,7 @@
       </c>
       <c r="J701" s="26"/>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10">
       <c r="A702" s="20">
         <v>2015</v>
       </c>
@@ -23869,7 +23381,7 @@
       </c>
       <c r="J702" s="26"/>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:10">
       <c r="A703" s="20">
         <v>2015</v>
       </c>
@@ -23899,7 +23411,7 @@
       </c>
       <c r="J703" s="26"/>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:10">
       <c r="A704" s="20">
         <v>2015</v>
       </c>
@@ -23929,7 +23441,7 @@
       </c>
       <c r="J704" s="26"/>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10">
       <c r="A705" s="20">
         <v>2015</v>
       </c>
@@ -23959,7 +23471,7 @@
       </c>
       <c r="J705" s="26"/>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:10">
       <c r="A706" s="20">
         <v>2015</v>
       </c>
@@ -23989,7 +23501,7 @@
       </c>
       <c r="J706" s="26"/>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:10">
       <c r="A707" s="20">
         <v>2015</v>
       </c>
@@ -24019,7 +23531,7 @@
       </c>
       <c r="J707" s="26"/>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:10">
       <c r="A708" s="20">
         <v>2015</v>
       </c>
@@ -24049,7 +23561,7 @@
       </c>
       <c r="J708" s="26"/>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:10">
       <c r="A709" s="20">
         <v>2015</v>
       </c>
@@ -24079,7 +23591,7 @@
       </c>
       <c r="J709" s="26"/>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:10">
       <c r="A710" s="20">
         <v>2015</v>
       </c>
@@ -24109,7 +23621,7 @@
       </c>
       <c r="J710" s="26"/>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:10">
       <c r="A711" s="20">
         <v>2015</v>
       </c>
@@ -24139,7 +23651,7 @@
       </c>
       <c r="J711" s="26"/>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:10">
       <c r="A712" s="20">
         <v>2015</v>
       </c>
@@ -24169,7 +23681,7 @@
       </c>
       <c r="J712" s="26"/>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:10">
       <c r="A713" s="20">
         <v>2015</v>
       </c>
@@ -24199,7 +23711,7 @@
       </c>
       <c r="J713" s="26"/>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10">
       <c r="A714" s="20">
         <v>2015</v>
       </c>
@@ -24229,7 +23741,7 @@
       </c>
       <c r="J714" s="26"/>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:10">
       <c r="A715" s="20">
         <v>2015</v>
       </c>
@@ -24259,7 +23771,7 @@
       </c>
       <c r="J715" s="26"/>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:10">
       <c r="A716" s="20">
         <v>2015</v>
       </c>
@@ -24289,7 +23801,7 @@
       </c>
       <c r="J716" s="26"/>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:10">
       <c r="A717" s="20">
         <v>2015</v>
       </c>
@@ -24319,7 +23831,7 @@
       </c>
       <c r="J717" s="26"/>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:10">
       <c r="A718" s="20">
         <v>2015</v>
       </c>
@@ -24349,7 +23861,7 @@
       </c>
       <c r="J718" s="26"/>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:10">
       <c r="A719" s="20">
         <v>2015</v>
       </c>
@@ -24379,7 +23891,7 @@
       </c>
       <c r="J719" s="26"/>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10">
       <c r="A720" s="20">
         <v>2015</v>
       </c>
@@ -24409,7 +23921,7 @@
       </c>
       <c r="J720" s="26"/>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:10">
       <c r="A721" s="20">
         <v>2015</v>
       </c>
@@ -24439,7 +23951,7 @@
       </c>
       <c r="J721" s="26"/>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:10">
       <c r="A722" s="20">
         <v>2015</v>
       </c>
@@ -24469,7 +23981,7 @@
       </c>
       <c r="J722" s="26"/>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:10">
       <c r="A723" s="20">
         <v>2015</v>
       </c>
@@ -24499,7 +24011,7 @@
       </c>
       <c r="J723" s="26"/>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:10">
       <c r="A724" s="20">
         <v>2015</v>
       </c>
@@ -24529,7 +24041,7 @@
       </c>
       <c r="J724" s="26"/>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:10">
       <c r="A725" s="20">
         <v>2015</v>
       </c>
@@ -24559,7 +24071,7 @@
       </c>
       <c r="J725" s="26"/>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:10">
       <c r="A726" s="20">
         <v>2015</v>
       </c>
@@ -24589,7 +24101,7 @@
       </c>
       <c r="J726" s="26"/>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:10">
       <c r="A727" s="20">
         <v>2015</v>
       </c>
@@ -24619,7 +24131,7 @@
       </c>
       <c r="J727" s="26"/>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:10">
       <c r="A728" s="20">
         <v>2015</v>
       </c>
@@ -24649,7 +24161,7 @@
       </c>
       <c r="J728" s="26"/>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:10">
       <c r="A729" s="20">
         <v>2015</v>
       </c>
@@ -24679,7 +24191,7 @@
       </c>
       <c r="J729" s="26"/>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:10">
       <c r="A730" s="20">
         <v>2015</v>
       </c>
@@ -24709,7 +24221,7 @@
       </c>
       <c r="J730" s="26"/>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:10">
       <c r="A731" s="20">
         <v>2015</v>
       </c>
@@ -24739,7 +24251,7 @@
       </c>
       <c r="J731" s="26"/>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:10">
       <c r="A732" s="20">
         <v>2015</v>
       </c>
@@ -24769,7 +24281,7 @@
       </c>
       <c r="J732" s="26"/>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:10">
       <c r="A733" s="20">
         <v>2015</v>
       </c>
@@ -24799,7 +24311,7 @@
       </c>
       <c r="J733" s="26"/>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:10">
       <c r="A734" s="20">
         <v>2015</v>
       </c>
@@ -24829,7 +24341,7 @@
       </c>
       <c r="J734" s="26"/>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:10">
       <c r="A735" s="20">
         <v>2015</v>
       </c>
@@ -24859,7 +24371,7 @@
       </c>
       <c r="J735" s="26"/>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:10">
       <c r="A736" s="20">
         <v>2015</v>
       </c>
@@ -24889,7 +24401,7 @@
       </c>
       <c r="J736" s="26"/>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:10">
       <c r="A737" s="20">
         <v>2015</v>
       </c>
@@ -24919,7 +24431,7 @@
       </c>
       <c r="J737" s="26"/>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:10">
       <c r="A738" s="20">
         <v>2015</v>
       </c>
@@ -24949,7 +24461,7 @@
       </c>
       <c r="J738" s="26"/>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:10">
       <c r="A739" s="20">
         <v>2015</v>
       </c>
@@ -24979,7 +24491,7 @@
       </c>
       <c r="J739" s="26"/>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:10">
       <c r="A740" s="20">
         <v>2015</v>
       </c>
@@ -25009,7 +24521,7 @@
       </c>
       <c r="J740" s="26"/>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:10">
       <c r="A741" s="20">
         <v>2015</v>
       </c>
@@ -25039,7 +24551,7 @@
       </c>
       <c r="J741" s="26"/>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:10">
       <c r="A742" s="20">
         <v>2015</v>
       </c>
@@ -25069,7 +24581,7 @@
       </c>
       <c r="J742" s="26"/>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:10">
       <c r="A743" s="20">
         <v>2015</v>
       </c>
@@ -25099,7 +24611,7 @@
       </c>
       <c r="J743" s="26"/>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:10">
       <c r="A744" s="20">
         <v>2015</v>
       </c>
@@ -25129,7 +24641,7 @@
       </c>
       <c r="J744" s="26"/>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10">
       <c r="A745" s="20">
         <v>2015</v>
       </c>
@@ -25159,7 +24671,7 @@
       </c>
       <c r="J745" s="26"/>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:10">
       <c r="A746" s="20">
         <v>2015</v>
       </c>
@@ -25189,7 +24701,7 @@
       </c>
       <c r="J746" s="26"/>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:10">
       <c r="A747" s="20">
         <v>2015</v>
       </c>
@@ -25219,7 +24731,7 @@
       </c>
       <c r="J747" s="26"/>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:10">
       <c r="A748" s="20">
         <v>2015</v>
       </c>
@@ -25249,7 +24761,7 @@
       </c>
       <c r="J748" s="26"/>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:10">
       <c r="A749" s="20">
         <v>2015</v>
       </c>
@@ -25279,7 +24791,7 @@
       </c>
       <c r="J749" s="26"/>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:10">
       <c r="A750" s="20">
         <v>2015</v>
       </c>
@@ -25309,7 +24821,7 @@
       </c>
       <c r="J750" s="26"/>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:10">
       <c r="A751" s="20">
         <v>2015</v>
       </c>
@@ -25339,7 +24851,7 @@
       </c>
       <c r="J751" s="26"/>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:10">
       <c r="A752" s="20">
         <v>2015</v>
       </c>
@@ -25369,7 +24881,7 @@
       </c>
       <c r="J752" s="26"/>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:10">
       <c r="A753" s="20">
         <v>2015</v>
       </c>
@@ -25399,7 +24911,7 @@
       </c>
       <c r="J753" s="26"/>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:10">
       <c r="A754" s="20">
         <v>2015</v>
       </c>
@@ -25429,7 +24941,7 @@
       </c>
       <c r="J754" s="26"/>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:10">
       <c r="A755" s="20">
         <v>2015</v>
       </c>
@@ -25459,7 +24971,7 @@
       </c>
       <c r="J755" s="26"/>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:10">
       <c r="A756" s="20">
         <v>2015</v>
       </c>
@@ -25489,7 +25001,7 @@
       </c>
       <c r="J756" s="26"/>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:10">
       <c r="A757" s="20">
         <v>2015</v>
       </c>
@@ -25519,7 +25031,7 @@
       </c>
       <c r="J757" s="26"/>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:10">
       <c r="A758" s="20">
         <v>2015</v>
       </c>
@@ -25549,7 +25061,7 @@
       </c>
       <c r="J758" s="26"/>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:10">
       <c r="A759" s="20">
         <v>2015</v>
       </c>
@@ -25579,7 +25091,7 @@
       </c>
       <c r="J759" s="26"/>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:10">
       <c r="A760" s="20">
         <v>2015</v>
       </c>
@@ -25609,7 +25121,7 @@
       </c>
       <c r="J760" s="26"/>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:10">
       <c r="A761" s="20">
         <v>2015</v>
       </c>
@@ -25639,7 +25151,7 @@
       </c>
       <c r="J761" s="26"/>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:10">
       <c r="A762" s="20">
         <v>2015</v>
       </c>
@@ -25669,7 +25181,7 @@
       </c>
       <c r="J762" s="26"/>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:10">
       <c r="A763" s="20">
         <v>2015</v>
       </c>
@@ -25699,7 +25211,7 @@
       </c>
       <c r="J763" s="26"/>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:10">
       <c r="A764" s="20">
         <v>2015</v>
       </c>
@@ -25729,7 +25241,7 @@
       </c>
       <c r="J764" s="26"/>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:10">
       <c r="A765" s="20">
         <v>2015</v>
       </c>
@@ -25759,7 +25271,7 @@
       </c>
       <c r="J765" s="26"/>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:10">
       <c r="A766" s="20">
         <v>2015</v>
       </c>
@@ -25789,7 +25301,7 @@
       </c>
       <c r="J766" s="26"/>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:10">
       <c r="A767" s="20">
         <v>2015</v>
       </c>
@@ -25819,7 +25331,7 @@
       </c>
       <c r="J767" s="26"/>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:10">
       <c r="A768" s="20">
         <v>2015</v>
       </c>
@@ -25849,7 +25361,7 @@
       </c>
       <c r="J768" s="26"/>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:10">
       <c r="A769" s="20">
         <v>2015</v>
       </c>
@@ -25879,7 +25391,7 @@
       </c>
       <c r="J769" s="26"/>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:10">
       <c r="A770" s="20">
         <v>2014</v>
       </c>
@@ -25909,7 +25421,7 @@
       </c>
       <c r="J770" s="26"/>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:10">
       <c r="A771" s="20">
         <v>2014</v>
       </c>
@@ -25939,7 +25451,7 @@
       </c>
       <c r="J771" s="26"/>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:10">
       <c r="A772" s="20">
         <v>2014</v>
       </c>
@@ -25969,7 +25481,7 @@
       </c>
       <c r="J772" s="26"/>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:10">
       <c r="A773" s="20">
         <v>2014</v>
       </c>
@@ -25999,7 +25511,7 @@
       </c>
       <c r="J773" s="26"/>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:10">
       <c r="A774" s="20">
         <v>2014</v>
       </c>
@@ -26029,7 +25541,7 @@
       </c>
       <c r="J774" s="26"/>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:10">
       <c r="A775" s="20">
         <v>2014</v>
       </c>
@@ -26059,7 +25571,7 @@
       </c>
       <c r="J775" s="26"/>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:10">
       <c r="A776" s="20">
         <v>2014</v>
       </c>
@@ -26089,7 +25601,7 @@
       </c>
       <c r="J776" s="26"/>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:10">
       <c r="A777" s="20">
         <v>2014</v>
       </c>
@@ -26119,7 +25631,7 @@
       </c>
       <c r="J777" s="26"/>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:10">
       <c r="A778" s="20">
         <v>2014</v>
       </c>
@@ -26149,7 +25661,7 @@
       </c>
       <c r="J778" s="26"/>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:10">
       <c r="A779" s="20">
         <v>2014</v>
       </c>
@@ -26179,7 +25691,7 @@
       </c>
       <c r="J779" s="26"/>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:10">
       <c r="A780" s="20">
         <v>2014</v>
       </c>
@@ -26209,7 +25721,7 @@
       </c>
       <c r="J780" s="26"/>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:10">
       <c r="A781" s="20">
         <v>2014</v>
       </c>
@@ -26239,7 +25751,7 @@
       </c>
       <c r="J781" s="26"/>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:10">
       <c r="A782" s="20">
         <v>2014</v>
       </c>
@@ -26269,7 +25781,7 @@
       </c>
       <c r="J782" s="26"/>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:10">
       <c r="A783" s="20">
         <v>2014</v>
       </c>
@@ -26299,7 +25811,7 @@
       </c>
       <c r="J783" s="26"/>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:10">
       <c r="A784" s="20">
         <v>2014</v>
       </c>
@@ -26329,7 +25841,7 @@
       </c>
       <c r="J784" s="26"/>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:10">
       <c r="A785" s="20">
         <v>2014</v>
       </c>
@@ -26359,7 +25871,7 @@
       </c>
       <c r="J785" s="26"/>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:10">
       <c r="A786" s="20">
         <v>2014</v>
       </c>
@@ -26389,7 +25901,7 @@
       </c>
       <c r="J786" s="26"/>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:10">
       <c r="A787" s="20">
         <v>2014</v>
       </c>
@@ -26419,7 +25931,7 @@
       </c>
       <c r="J787" s="26"/>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:10">
       <c r="A788" s="20">
         <v>2014</v>
       </c>
@@ -26449,7 +25961,7 @@
       </c>
       <c r="J788" s="26"/>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:10">
       <c r="A789" s="20">
         <v>2014</v>
       </c>
@@ -26479,7 +25991,7 @@
       </c>
       <c r="J789" s="26"/>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:10">
       <c r="A790" s="20">
         <v>2014</v>
       </c>
@@ -26509,7 +26021,7 @@
       </c>
       <c r="J790" s="26"/>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:10">
       <c r="A791" s="20">
         <v>2014</v>
       </c>
@@ -26539,7 +26051,7 @@
       </c>
       <c r="J791" s="26"/>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:10">
       <c r="A792" s="20">
         <v>2014</v>
       </c>
@@ -26569,7 +26081,7 @@
       </c>
       <c r="J792" s="26"/>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:10">
       <c r="A793" s="20">
         <v>2014</v>
       </c>
@@ -26599,7 +26111,7 @@
       </c>
       <c r="J793" s="26"/>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:10">
       <c r="A794" s="20">
         <v>2014</v>
       </c>
@@ -26629,7 +26141,7 @@
       </c>
       <c r="J794" s="26"/>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:10">
       <c r="A795" s="20">
         <v>2014</v>
       </c>
@@ -26659,7 +26171,7 @@
       </c>
       <c r="J795" s="26"/>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:10">
       <c r="A796" s="20">
         <v>2014</v>
       </c>
@@ -26689,7 +26201,7 @@
       </c>
       <c r="J796" s="26"/>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:10">
       <c r="A797" s="20">
         <v>2014</v>
       </c>
@@ -26719,7 +26231,7 @@
       </c>
       <c r="J797" s="26"/>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:10">
       <c r="A798" s="20">
         <v>2014</v>
       </c>
@@ -26749,7 +26261,7 @@
       </c>
       <c r="J798" s="26"/>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:10">
       <c r="A799" s="20">
         <v>2014</v>
       </c>
@@ -26779,7 +26291,7 @@
       </c>
       <c r="J799" s="26"/>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:10">
       <c r="A800" s="20">
         <v>2014</v>
       </c>
@@ -26809,7 +26321,7 @@
       </c>
       <c r="J800" s="26"/>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:10">
       <c r="A801" s="20">
         <v>2014</v>
       </c>
@@ -26839,7 +26351,7 @@
       </c>
       <c r="J801" s="26"/>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:10">
       <c r="A802" s="20">
         <v>2014</v>
       </c>
@@ -26869,7 +26381,7 @@
       </c>
       <c r="J802" s="26"/>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:10">
       <c r="A803" s="20">
         <v>2014</v>
       </c>
@@ -26899,7 +26411,7 @@
       </c>
       <c r="J803" s="26"/>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:10">
       <c r="A804" s="20">
         <v>2014</v>
       </c>
@@ -26929,7 +26441,7 @@
       </c>
       <c r="J804" s="26"/>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:10">
       <c r="A805" s="20">
         <v>2014</v>
       </c>
@@ -26959,7 +26471,7 @@
       </c>
       <c r="J805" s="26"/>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:10">
       <c r="A806" s="20">
         <v>2014</v>
       </c>
@@ -26989,7 +26501,7 @@
       </c>
       <c r="J806" s="26"/>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:10">
       <c r="A807" s="20">
         <v>2014</v>
       </c>
@@ -27019,7 +26531,7 @@
       </c>
       <c r="J807" s="26"/>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:10">
       <c r="A808" s="20">
         <v>2014</v>
       </c>
@@ -27049,7 +26561,7 @@
       </c>
       <c r="J808" s="26"/>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:10">
       <c r="A809" s="20">
         <v>2014</v>
       </c>
@@ -27079,7 +26591,7 @@
       </c>
       <c r="J809" s="26"/>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:10">
       <c r="A810" s="20">
         <v>2014</v>
       </c>
@@ -27109,7 +26621,7 @@
       </c>
       <c r="J810" s="26"/>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:10">
       <c r="A811" s="20">
         <v>2014</v>
       </c>
@@ -27139,7 +26651,7 @@
       </c>
       <c r="J811" s="26"/>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:10">
       <c r="A812" s="20">
         <v>2014</v>
       </c>
@@ -27169,7 +26681,7 @@
       </c>
       <c r="J812" s="26"/>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:10">
       <c r="A813" s="20">
         <v>2014</v>
       </c>
@@ -27199,7 +26711,7 @@
       </c>
       <c r="J813" s="26"/>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:10">
       <c r="A814" s="20">
         <v>2014</v>
       </c>
@@ -27229,7 +26741,7 @@
       </c>
       <c r="J814" s="26"/>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:10">
       <c r="A815" s="20">
         <v>2014</v>
       </c>
@@ -27259,7 +26771,7 @@
       </c>
       <c r="J815" s="26"/>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:10">
       <c r="A816" s="20">
         <v>2014</v>
       </c>
@@ -27289,7 +26801,7 @@
       </c>
       <c r="J816" s="26"/>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:10">
       <c r="A817" s="20">
         <v>2014</v>
       </c>
@@ -27319,7 +26831,7 @@
       </c>
       <c r="J817" s="26"/>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:10">
       <c r="A818" s="20">
         <v>2014</v>
       </c>
@@ -27349,7 +26861,7 @@
       </c>
       <c r="J818" s="26"/>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:10">
       <c r="A819" s="20">
         <v>2014</v>
       </c>
@@ -27379,7 +26891,7 @@
       </c>
       <c r="J819" s="26"/>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:10">
       <c r="A820" s="20">
         <v>2014</v>
       </c>
@@ -27409,7 +26921,7 @@
       </c>
       <c r="J820" s="26"/>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:10">
       <c r="A821" s="20">
         <v>2014</v>
       </c>
@@ -27439,7 +26951,7 @@
       </c>
       <c r="J821" s="26"/>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:10">
       <c r="A822" s="20">
         <v>2014</v>
       </c>
@@ -27469,7 +26981,7 @@
       </c>
       <c r="J822" s="26"/>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:10">
       <c r="A823" s="20">
         <v>2014</v>
       </c>
@@ -27499,7 +27011,7 @@
       </c>
       <c r="J823" s="26"/>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:10">
       <c r="A824" s="20">
         <v>2014</v>
       </c>
@@ -27529,7 +27041,7 @@
       </c>
       <c r="J824" s="26"/>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:10">
       <c r="A825" s="20">
         <v>2014</v>
       </c>
@@ -27559,7 +27071,7 @@
       </c>
       <c r="J825" s="26"/>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:10">
       <c r="A826" s="20">
         <v>2014</v>
       </c>
@@ -27589,7 +27101,7 @@
       </c>
       <c r="J826" s="26"/>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:10">
       <c r="A827" s="20">
         <v>2014</v>
       </c>
@@ -27619,7 +27131,7 @@
       </c>
       <c r="J827" s="26"/>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:10">
       <c r="A828" s="20">
         <v>2014</v>
       </c>
@@ -27649,7 +27161,7 @@
       </c>
       <c r="J828" s="26"/>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:10">
       <c r="A829" s="20">
         <v>2014</v>
       </c>
@@ -27679,7 +27191,7 @@
       </c>
       <c r="J829" s="26"/>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:10">
       <c r="A830" s="20">
         <v>2014</v>
       </c>
@@ -27709,7 +27221,7 @@
       </c>
       <c r="J830" s="26"/>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:10">
       <c r="A831" s="20">
         <v>2014</v>
       </c>
@@ -27739,7 +27251,7 @@
       </c>
       <c r="J831" s="26"/>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:10">
       <c r="A832" s="20">
         <v>2014</v>
       </c>
@@ -27769,7 +27281,7 @@
       </c>
       <c r="J832" s="26"/>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:10">
       <c r="A833" s="20">
         <v>2014</v>
       </c>
@@ -27799,7 +27311,7 @@
       </c>
       <c r="J833" s="26"/>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:10">
       <c r="A834" s="20">
         <v>2014</v>
       </c>
@@ -27829,7 +27341,7 @@
       </c>
       <c r="J834" s="26"/>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:10">
       <c r="A835" s="20">
         <v>2014</v>
       </c>
@@ -27859,7 +27371,7 @@
       </c>
       <c r="J835" s="26"/>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:10">
       <c r="A836" s="20">
         <v>2014</v>
       </c>
@@ -27889,7 +27401,7 @@
       </c>
       <c r="J836" s="26"/>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:10">
       <c r="A837" s="20">
         <v>2014</v>
       </c>
@@ -27919,7 +27431,7 @@
       </c>
       <c r="J837" s="26"/>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:10">
       <c r="A838" s="20">
         <v>2014</v>
       </c>
@@ -27949,7 +27461,7 @@
       </c>
       <c r="J838" s="26"/>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:10">
       <c r="A839" s="20">
         <v>2014</v>
       </c>
@@ -27979,7 +27491,7 @@
       </c>
       <c r="J839" s="26"/>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:10">
       <c r="A840" s="20">
         <v>2014</v>
       </c>
@@ -28009,7 +27521,7 @@
       </c>
       <c r="J840" s="26"/>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:10">
       <c r="A841" s="20">
         <v>2014</v>
       </c>
@@ -28039,7 +27551,7 @@
       </c>
       <c r="J841" s="26"/>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:10">
       <c r="A842" s="20">
         <v>2014</v>
       </c>
@@ -28069,7 +27581,7 @@
       </c>
       <c r="J842" s="26"/>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:10">
       <c r="A843" s="20">
         <v>2014</v>
       </c>
@@ -28099,7 +27611,7 @@
       </c>
       <c r="J843" s="26"/>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:10">
       <c r="A844" s="20">
         <v>2014</v>
       </c>
@@ -28129,7 +27641,7 @@
       </c>
       <c r="J844" s="26"/>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:10">
       <c r="A845" s="20">
         <v>2014</v>
       </c>
@@ -28159,7 +27671,7 @@
       </c>
       <c r="J845" s="26"/>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:10">
       <c r="A846" s="20">
         <v>2014</v>
       </c>
@@ -28189,7 +27701,7 @@
       </c>
       <c r="J846" s="26"/>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:10">
       <c r="A847" s="20">
         <v>2014</v>
       </c>
@@ -28219,7 +27731,7 @@
       </c>
       <c r="J847" s="26"/>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:10">
       <c r="A848" s="20">
         <v>2014</v>
       </c>
@@ -28249,7 +27761,7 @@
       </c>
       <c r="J848" s="26"/>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:10">
       <c r="A849" s="20">
         <v>2014</v>
       </c>
@@ -28279,7 +27791,7 @@
       </c>
       <c r="J849" s="26"/>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:10">
       <c r="A850" s="20">
         <v>2014</v>
       </c>
@@ -28309,7 +27821,7 @@
       </c>
       <c r="J850" s="26"/>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:10">
       <c r="A851" s="20">
         <v>2014</v>
       </c>
@@ -28339,7 +27851,7 @@
       </c>
       <c r="J851" s="26"/>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:10">
       <c r="A852" s="20">
         <v>2014</v>
       </c>
@@ -28369,7 +27881,7 @@
       </c>
       <c r="J852" s="26"/>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:10">
       <c r="A853" s="20">
         <v>2014</v>
       </c>
@@ -28399,7 +27911,7 @@
       </c>
       <c r="J853" s="26"/>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:10">
       <c r="A854" s="20">
         <v>2014</v>
       </c>
@@ -28429,7 +27941,7 @@
       </c>
       <c r="J854" s="26"/>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:10">
       <c r="A855" s="20">
         <v>2014</v>
       </c>
@@ -28459,7 +27971,7 @@
       </c>
       <c r="J855" s="26"/>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:10">
       <c r="A856" s="20">
         <v>2014</v>
       </c>
@@ -28489,7 +28001,7 @@
       </c>
       <c r="J856" s="26"/>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:10">
       <c r="A857" s="20">
         <v>2014</v>
       </c>
@@ -28519,7 +28031,7 @@
       </c>
       <c r="J857" s="26"/>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:10">
       <c r="A858" s="20">
         <v>2014</v>
       </c>
@@ -28549,7 +28061,7 @@
       </c>
       <c r="J858" s="26"/>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:10">
       <c r="A859" s="20">
         <v>2014</v>
       </c>
@@ -28579,7 +28091,7 @@
       </c>
       <c r="J859" s="26"/>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:10">
       <c r="A860" s="20">
         <v>2014</v>
       </c>
@@ -28609,7 +28121,7 @@
       </c>
       <c r="J860" s="26"/>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:10">
       <c r="A861" s="20">
         <v>2014</v>
       </c>
@@ -28639,7 +28151,7 @@
       </c>
       <c r="J861" s="26"/>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:10">
       <c r="A862" s="20">
         <v>2014</v>
       </c>
@@ -28669,7 +28181,7 @@
       </c>
       <c r="J862" s="26"/>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:10">
       <c r="A863" s="20">
         <v>2014</v>
       </c>
@@ -28699,7 +28211,7 @@
       </c>
       <c r="J863" s="26"/>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:10">
       <c r="A864" s="20">
         <v>2014</v>
       </c>
@@ -28729,7 +28241,7 @@
       </c>
       <c r="J864" s="26"/>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:10">
       <c r="A865" s="20">
         <v>2014</v>
       </c>
@@ -28759,7 +28271,7 @@
       </c>
       <c r="J865" s="26"/>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:10">
       <c r="A867" s="20" t="s">
         <v>67</v>
       </c>
@@ -28768,7 +28280,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I865"/>
+  <autoFilter ref="A1:I865" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate>
     <dataRefs count="1">
       <dataRef ref="C2:D433" sheet="Accesos Por Tecnología"/>

--- a/Datasets/Acceso a Internet fijo por tecnología y provincia.xlsx
+++ b/Datasets/Acceso a Internet fijo por tecnología y provincia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsdrajlin/Library/CloudStorage/GoogleDrive-dsdrajlin@gmail.com/Mi unidad/_Archive/Henry/LABS/PI DA/PI-02/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3736F6-18B1-4D46-B771-3B5F338CC142}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2ECBF5-7A90-EA47-BF85-62F30060F3F8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tecnologia-totales" sheetId="14" r:id="rId1"/>
@@ -2398,10 +2398,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A578" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2446,7 +2445,7 @@
       </c>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>2014</v>
       </c>
@@ -2476,7 +2475,7 @@
       </c>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>2014</v>
       </c>
@@ -2506,7 +2505,7 @@
       </c>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>2014</v>
       </c>
@@ -2536,7 +2535,7 @@
       </c>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>2014</v>
       </c>
@@ -2566,7 +2565,7 @@
       </c>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>2014</v>
       </c>
@@ -2596,7 +2595,7 @@
       </c>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>2014</v>
       </c>
@@ -2626,7 +2625,7 @@
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>2014</v>
       </c>
@@ -2656,7 +2655,7 @@
       </c>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>2014</v>
       </c>
@@ -2686,7 +2685,7 @@
       </c>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>2014</v>
       </c>
@@ -2716,7 +2715,7 @@
       </c>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>2014</v>
       </c>
@@ -2746,7 +2745,7 @@
       </c>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>2014</v>
       </c>
@@ -2776,7 +2775,7 @@
       </c>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>2014</v>
       </c>
@@ -2806,7 +2805,7 @@
       </c>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>2014</v>
       </c>
@@ -2836,7 +2835,7 @@
       </c>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>2014</v>
       </c>
@@ -2866,7 +2865,7 @@
       </c>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>2014</v>
       </c>
@@ -2896,7 +2895,7 @@
       </c>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>2014</v>
       </c>
@@ -2926,7 +2925,7 @@
       </c>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>2014</v>
       </c>
@@ -2956,7 +2955,7 @@
       </c>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>2014</v>
       </c>
@@ -2986,7 +2985,7 @@
       </c>
       <c r="J19" s="21"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>2014</v>
       </c>
@@ -3016,7 +3015,7 @@
       </c>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>2014</v>
       </c>
@@ -3046,7 +3045,7 @@
       </c>
       <c r="J21" s="21"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>2014</v>
       </c>
@@ -3076,7 +3075,7 @@
       </c>
       <c r="J22" s="21"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>2014</v>
       </c>
@@ -3106,7 +3105,7 @@
       </c>
       <c r="J23" s="21"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>2014</v>
       </c>
@@ -3136,7 +3135,7 @@
       </c>
       <c r="J24" s="21"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>2014</v>
       </c>
@@ -3166,7 +3165,7 @@
       </c>
       <c r="J25" s="21"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <v>2014</v>
       </c>
@@ -3196,7 +3195,7 @@
       </c>
       <c r="J26" s="21"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <v>2014</v>
       </c>
@@ -3226,7 +3225,7 @@
       </c>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <v>2014</v>
       </c>
@@ -3256,7 +3255,7 @@
       </c>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <v>2014</v>
       </c>
@@ -3286,7 +3285,7 @@
       </c>
       <c r="J29" s="21"/>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>2014</v>
       </c>
@@ -3316,7 +3315,7 @@
       </c>
       <c r="J30" s="21"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <v>2014</v>
       </c>
@@ -3346,7 +3345,7 @@
       </c>
       <c r="J31" s="21"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <v>2014</v>
       </c>
@@ -3376,7 +3375,7 @@
       </c>
       <c r="J32" s="21"/>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <v>2014</v>
       </c>
@@ -3406,7 +3405,7 @@
       </c>
       <c r="J33" s="21"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <v>2014</v>
       </c>
@@ -3436,7 +3435,7 @@
       </c>
       <c r="J34" s="21"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <v>2014</v>
       </c>
@@ -3466,7 +3465,7 @@
       </c>
       <c r="J35" s="21"/>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <v>2014</v>
       </c>
@@ -3496,7 +3495,7 @@
       </c>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <v>2014</v>
       </c>
@@ -3526,7 +3525,7 @@
       </c>
       <c r="J37" s="21"/>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <v>2014</v>
       </c>
@@ -3556,7 +3555,7 @@
       </c>
       <c r="J38" s="21"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <v>2014</v>
       </c>
@@ -3586,7 +3585,7 @@
       </c>
       <c r="J39" s="21"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <v>2014</v>
       </c>
@@ -3616,7 +3615,7 @@
       </c>
       <c r="J40" s="21"/>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <v>2014</v>
       </c>
@@ -3646,7 +3645,7 @@
       </c>
       <c r="J41" s="21"/>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <v>2014</v>
       </c>
@@ -3676,7 +3675,7 @@
       </c>
       <c r="J42" s="21"/>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <v>2014</v>
       </c>
@@ -3706,7 +3705,7 @@
       </c>
       <c r="J43" s="21"/>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <v>2014</v>
       </c>
@@ -3736,7 +3735,7 @@
       </c>
       <c r="J44" s="21"/>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <v>2014</v>
       </c>
@@ -3766,7 +3765,7 @@
       </c>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <v>2014</v>
       </c>
@@ -3796,7 +3795,7 @@
       </c>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <v>2014</v>
       </c>
@@ -3826,7 +3825,7 @@
       </c>
       <c r="J47" s="21"/>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <v>2014</v>
       </c>
@@ -3856,7 +3855,7 @@
       </c>
       <c r="J48" s="21"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <v>2014</v>
       </c>
@@ -3886,7 +3885,7 @@
       </c>
       <c r="J49" s="21"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <v>2014</v>
       </c>
@@ -3915,7 +3914,7 @@
         <v>2849565</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <v>2014</v>
       </c>
@@ -3944,7 +3943,7 @@
         <v>1317825</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <v>2014</v>
       </c>
@@ -3973,7 +3972,7 @@
         <v>24686</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <v>2014</v>
       </c>
@@ -4002,7 +4001,7 @@
         <v>63746</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <v>2014</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>69137</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <v>2014</v>
       </c>
@@ -4060,7 +4059,7 @@
         <v>585431</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <v>2014</v>
       </c>
@@ -4089,7 +4088,7 @@
         <v>63549</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <v>2014</v>
       </c>
@@ -4118,7 +4117,7 @@
         <v>136733</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <v>2014</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>25937</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <v>2014</v>
       </c>
@@ -4176,7 +4175,7 @@
         <v>33741</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <v>2014</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>62425</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <v>2014</v>
       </c>
@@ -4234,7 +4233,7 @@
         <v>15916</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <v>2014</v>
       </c>
@@ -4263,7 +4262,7 @@
         <v>167924</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <v>2014</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>75327</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <v>2014</v>
       </c>
@@ -4321,7 +4320,7 @@
         <v>102367</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <v>2014</v>
       </c>
@@ -4350,7 +4349,7 @@
         <v>97780</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <v>2014</v>
       </c>
@@ -4379,7 +4378,7 @@
         <v>92954</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
         <v>2014</v>
       </c>
@@ -4408,7 +4407,7 @@
         <v>51779</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <v>2014</v>
       </c>
@@ -4437,7 +4436,7 @@
         <v>13046</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <v>2014</v>
       </c>
@@ -4466,7 +4465,7 @@
         <v>26110</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
         <v>2014</v>
       </c>
@@ -4495,7 +4494,7 @@
         <v>520887</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <v>2014</v>
       </c>
@@ -4524,7 +4523,7 @@
         <v>37548</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
         <v>2014</v>
       </c>
@@ -4553,7 +4552,7 @@
         <v>28792</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <v>2014</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>132066</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <v>2014</v>
       </c>
@@ -4612,7 +4611,7 @@
       </c>
       <c r="J74" s="21"/>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
         <v>2014</v>
       </c>
@@ -4642,7 +4641,7 @@
       </c>
       <c r="J75" s="21"/>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <v>2014</v>
       </c>
@@ -4672,7 +4671,7 @@
       </c>
       <c r="J76" s="21"/>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <v>2014</v>
       </c>
@@ -4702,7 +4701,7 @@
       </c>
       <c r="J77" s="21"/>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <v>2014</v>
       </c>
@@ -4732,7 +4731,7 @@
       </c>
       <c r="J78" s="21"/>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <v>2014</v>
       </c>
@@ -4762,7 +4761,7 @@
       </c>
       <c r="J79" s="21"/>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <v>2014</v>
       </c>
@@ -4792,7 +4791,7 @@
       </c>
       <c r="J80" s="21"/>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
         <v>2014</v>
       </c>
@@ -4822,7 +4821,7 @@
       </c>
       <c r="J81" s="21"/>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <v>2014</v>
       </c>
@@ -4852,7 +4851,7 @@
       </c>
       <c r="J82" s="21"/>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <v>2014</v>
       </c>
@@ -4882,7 +4881,7 @@
       </c>
       <c r="J83" s="21"/>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
         <v>2014</v>
       </c>
@@ -4912,7 +4911,7 @@
       </c>
       <c r="J84" s="21"/>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
         <v>2014</v>
       </c>
@@ -4942,7 +4941,7 @@
       </c>
       <c r="J85" s="21"/>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
         <v>2014</v>
       </c>
@@ -4972,7 +4971,7 @@
       </c>
       <c r="J86" s="21"/>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
         <v>2014</v>
       </c>
@@ -5002,7 +5001,7 @@
       </c>
       <c r="J87" s="21"/>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <v>2014</v>
       </c>
@@ -5032,7 +5031,7 @@
       </c>
       <c r="J88" s="21"/>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="18">
         <v>2014</v>
       </c>
@@ -5062,7 +5061,7 @@
       </c>
       <c r="J89" s="21"/>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <v>2014</v>
       </c>
@@ -5092,7 +5091,7 @@
       </c>
       <c r="J90" s="21"/>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="18">
         <v>2014</v>
       </c>
@@ -5122,7 +5121,7 @@
       </c>
       <c r="J91" s="21"/>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="18">
         <v>2014</v>
       </c>
@@ -5152,7 +5151,7 @@
       </c>
       <c r="J92" s="21"/>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="18">
         <v>2014</v>
       </c>
@@ -5182,7 +5181,7 @@
       </c>
       <c r="J93" s="21"/>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="18">
         <v>2014</v>
       </c>
@@ -5212,7 +5211,7 @@
       </c>
       <c r="J94" s="21"/>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="18">
         <v>2014</v>
       </c>
@@ -5242,7 +5241,7 @@
       </c>
       <c r="J95" s="21"/>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="18">
         <v>2014</v>
       </c>
@@ -5272,7 +5271,7 @@
       </c>
       <c r="J96" s="21"/>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
         <v>2014</v>
       </c>
@@ -5302,7 +5301,7 @@
       </c>
       <c r="J97" s="21"/>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <v>2015</v>
       </c>
@@ -5332,7 +5331,7 @@
       </c>
       <c r="J98" s="21"/>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <v>2015</v>
       </c>
@@ -5362,7 +5361,7 @@
       </c>
       <c r="J99" s="21"/>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <v>2015</v>
       </c>
@@ -5392,7 +5391,7 @@
       </c>
       <c r="J100" s="21"/>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="18">
         <v>2015</v>
       </c>
@@ -5422,7 +5421,7 @@
       </c>
       <c r="J101" s="21"/>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="18">
         <v>2015</v>
       </c>
@@ -5452,7 +5451,7 @@
       </c>
       <c r="J102" s="21"/>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="18">
         <v>2015</v>
       </c>
@@ -5482,7 +5481,7 @@
       </c>
       <c r="J103" s="21"/>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
         <v>2015</v>
       </c>
@@ -5512,7 +5511,7 @@
       </c>
       <c r="J104" s="21"/>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="18">
         <v>2015</v>
       </c>
@@ -5542,7 +5541,7 @@
       </c>
       <c r="J105" s="21"/>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="18">
         <v>2015</v>
       </c>
@@ -5572,7 +5571,7 @@
       </c>
       <c r="J106" s="21"/>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="18">
         <v>2015</v>
       </c>
@@ -5602,7 +5601,7 @@
       </c>
       <c r="J107" s="21"/>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="18">
         <v>2015</v>
       </c>
@@ -5632,7 +5631,7 @@
       </c>
       <c r="J108" s="21"/>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="18">
         <v>2015</v>
       </c>
@@ -5662,7 +5661,7 @@
       </c>
       <c r="J109" s="21"/>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="18">
         <v>2015</v>
       </c>
@@ -5692,7 +5691,7 @@
       </c>
       <c r="J110" s="21"/>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="18">
         <v>2015</v>
       </c>
@@ -5722,7 +5721,7 @@
       </c>
       <c r="J111" s="21"/>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="18">
         <v>2015</v>
       </c>
@@ -5752,7 +5751,7 @@
       </c>
       <c r="J112" s="21"/>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="18">
         <v>2015</v>
       </c>
@@ -5782,7 +5781,7 @@
       </c>
       <c r="J113" s="21"/>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="18">
         <v>2015</v>
       </c>
@@ -5812,7 +5811,7 @@
       </c>
       <c r="J114" s="21"/>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="18">
         <v>2015</v>
       </c>
@@ -5842,7 +5841,7 @@
       </c>
       <c r="J115" s="21"/>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="18">
         <v>2015</v>
       </c>
@@ -5872,7 +5871,7 @@
       </c>
       <c r="J116" s="21"/>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="18">
         <v>2015</v>
       </c>
@@ -5902,7 +5901,7 @@
       </c>
       <c r="J117" s="21"/>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
         <v>2015</v>
       </c>
@@ -5932,7 +5931,7 @@
       </c>
       <c r="J118" s="21"/>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <v>2015</v>
       </c>
@@ -5962,7 +5961,7 @@
       </c>
       <c r="J119" s="21"/>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
         <v>2015</v>
       </c>
@@ -5992,7 +5991,7 @@
       </c>
       <c r="J120" s="21"/>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="18">
         <v>2015</v>
       </c>
@@ -6022,7 +6021,7 @@
       </c>
       <c r="J121" s="21"/>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="18">
         <v>2015</v>
       </c>
@@ -6051,7 +6050,7 @@
         <v>2883790</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
         <v>2015</v>
       </c>
@@ -6080,7 +6079,7 @@
         <v>1346284</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="18">
         <v>2015</v>
       </c>
@@ -6109,7 +6108,7 @@
         <v>25679</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="18">
         <v>2015</v>
       </c>
@@ -6138,7 +6137,7 @@
         <v>83848</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="18">
         <v>2015</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>63485</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="18">
         <v>2015</v>
       </c>
@@ -6196,7 +6195,7 @@
         <v>609746</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="18">
         <v>2015</v>
       </c>
@@ -6225,7 +6224,7 @@
         <v>83316</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="18">
         <v>2015</v>
       </c>
@@ -6254,7 +6253,7 @@
         <v>169492</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="18">
         <v>2015</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>27050</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <v>2015</v>
       </c>
@@ -6312,7 +6311,7 @@
         <v>37722</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <v>2015</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>64052</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <v>2015</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>16509</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="18">
         <v>2015</v>
       </c>
@@ -6399,7 +6398,7 @@
         <v>170823</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="18">
         <v>2015</v>
       </c>
@@ -6428,7 +6427,7 @@
         <v>88519</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="18">
         <v>2015</v>
       </c>
@@ -6457,7 +6456,7 @@
         <v>97885</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="18">
         <v>2015</v>
       </c>
@@ -6486,7 +6485,7 @@
         <v>98727</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="18">
         <v>2015</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>98267</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="18">
         <v>2015</v>
       </c>
@@ -6544,7 +6543,7 @@
         <v>51988</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="18">
         <v>2015</v>
       </c>
@@ -6573,7 +6572,7 @@
         <v>13221</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="18">
         <v>2015</v>
       </c>
@@ -6602,7 +6601,7 @@
         <v>25763</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="18">
         <v>2015</v>
       </c>
@@ -6631,7 +6630,7 @@
         <v>546388</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="18">
         <v>2015</v>
       </c>
@@ -6660,7 +6659,7 @@
         <v>39378</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="18">
         <v>2015</v>
       </c>
@@ -6689,7 +6688,7 @@
         <v>33579</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="18">
         <v>2015</v>
       </c>
@@ -6718,7 +6717,7 @@
         <v>140677</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="18">
         <v>2015</v>
       </c>
@@ -6748,7 +6747,7 @@
       </c>
       <c r="J146" s="21"/>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="18">
         <v>2015</v>
       </c>
@@ -6778,7 +6777,7 @@
       </c>
       <c r="J147" s="21"/>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="18">
         <v>2015</v>
       </c>
@@ -6808,7 +6807,7 @@
       </c>
       <c r="J148" s="21"/>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="18">
         <v>2015</v>
       </c>
@@ -6838,7 +6837,7 @@
       </c>
       <c r="J149" s="21"/>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="18">
         <v>2015</v>
       </c>
@@ -6868,7 +6867,7 @@
       </c>
       <c r="J150" s="21"/>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="18">
         <v>2015</v>
       </c>
@@ -6898,7 +6897,7 @@
       </c>
       <c r="J151" s="21"/>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="18">
         <v>2015</v>
       </c>
@@ -6928,7 +6927,7 @@
       </c>
       <c r="J152" s="21"/>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="18">
         <v>2015</v>
       </c>
@@ -6958,7 +6957,7 @@
       </c>
       <c r="J153" s="21"/>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="18">
         <v>2015</v>
       </c>
@@ -6988,7 +6987,7 @@
       </c>
       <c r="J154" s="21"/>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="18">
         <v>2015</v>
       </c>
@@ -7018,7 +7017,7 @@
       </c>
       <c r="J155" s="21"/>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="18">
         <v>2015</v>
       </c>
@@ -7048,7 +7047,7 @@
       </c>
       <c r="J156" s="21"/>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="18">
         <v>2015</v>
       </c>
@@ -7078,7 +7077,7 @@
       </c>
       <c r="J157" s="21"/>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="18">
         <v>2015</v>
       </c>
@@ -7108,7 +7107,7 @@
       </c>
       <c r="J158" s="21"/>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="18">
         <v>2015</v>
       </c>
@@ -7138,7 +7137,7 @@
       </c>
       <c r="J159" s="21"/>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="18">
         <v>2015</v>
       </c>
@@ -7168,7 +7167,7 @@
       </c>
       <c r="J160" s="21"/>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="18">
         <v>2015</v>
       </c>
@@ -7198,7 +7197,7 @@
       </c>
       <c r="J161" s="21"/>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="18">
         <v>2015</v>
       </c>
@@ -7228,7 +7227,7 @@
       </c>
       <c r="J162" s="21"/>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="18">
         <v>2015</v>
       </c>
@@ -7258,7 +7257,7 @@
       </c>
       <c r="J163" s="21"/>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="18">
         <v>2015</v>
       </c>
@@ -7288,7 +7287,7 @@
       </c>
       <c r="J164" s="21"/>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="18">
         <v>2015</v>
       </c>
@@ -7318,7 +7317,7 @@
       </c>
       <c r="J165" s="21"/>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="18">
         <v>2015</v>
       </c>
@@ -7348,7 +7347,7 @@
       </c>
       <c r="J166" s="21"/>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="18">
         <v>2015</v>
       </c>
@@ -7378,7 +7377,7 @@
       </c>
       <c r="J167" s="21"/>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="18">
         <v>2015</v>
       </c>
@@ -7408,7 +7407,7 @@
       </c>
       <c r="J168" s="21"/>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="18">
         <v>2015</v>
       </c>
@@ -7438,7 +7437,7 @@
       </c>
       <c r="J169" s="21"/>
     </row>
-    <row r="170" spans="1:10" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="18">
         <v>2015</v>
       </c>
@@ -7467,7 +7466,7 @@
         <v>2959385</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="18">
         <v>2015</v>
       </c>
@@ -7496,7 +7495,7 @@
         <v>1370226</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="18">
         <v>2015</v>
       </c>
@@ -7525,7 +7524,7 @@
         <v>26472</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="18">
         <v>2015</v>
       </c>
@@ -7554,7 +7553,7 @@
         <v>86553</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="18">
         <v>2015</v>
       </c>
@@ -7583,7 +7582,7 @@
         <v>64019</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="18">
         <v>2015</v>
       </c>
@@ -7612,7 +7611,7 @@
         <v>626070</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="18">
         <v>2015</v>
       </c>
@@ -7641,7 +7640,7 @@
         <v>85435</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="18">
         <v>2015</v>
       </c>
@@ -7670,7 +7669,7 @@
         <v>174137</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="18">
         <v>2015</v>
       </c>
@@ -7699,7 +7698,7 @@
         <v>28089</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="18">
         <v>2015</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>39924</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="18">
         <v>2015</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>66366</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="18">
         <v>2015</v>
       </c>
@@ -7786,7 +7785,7 @@
         <v>16932</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="18">
         <v>2015</v>
       </c>
@@ -7815,7 +7814,7 @@
         <v>170807</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="18">
         <v>2015</v>
       </c>
@@ -7844,7 +7843,7 @@
         <v>92853</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="18">
         <v>2015</v>
       </c>
@@ -7873,7 +7872,7 @@
         <v>107416</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="18">
         <v>2015</v>
       </c>
@@ -7902,7 +7901,7 @@
         <v>99722</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="18">
         <v>2015</v>
       </c>
@@ -7931,7 +7930,7 @@
         <v>101920</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="18">
         <v>2015</v>
       </c>
@@ -7960,7 +7959,7 @@
         <v>52029</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="18">
         <v>2015</v>
       </c>
@@ -7989,7 +7988,7 @@
         <v>13218</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="18">
         <v>2015</v>
       </c>
@@ -8018,7 +8017,7 @@
         <v>26403</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="18">
         <v>2015</v>
       </c>
@@ -8047,7 +8046,7 @@
         <v>561672</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="18">
         <v>2015</v>
       </c>
@@ -8076,7 +8075,7 @@
         <v>39135</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="18">
         <v>2015</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>29953</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="18">
         <v>2015</v>
       </c>
@@ -8134,7 +8133,7 @@
         <v>146095</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="18">
         <v>2016</v>
       </c>
@@ -8163,7 +8162,7 @@
         <v>2942515</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="18">
         <v>2016</v>
       </c>
@@ -8193,7 +8192,7 @@
       </c>
       <c r="J195" s="21"/>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="18">
         <v>2016</v>
       </c>
@@ -8223,7 +8222,7 @@
       </c>
       <c r="J196" s="21"/>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="18">
         <v>2016</v>
       </c>
@@ -8253,7 +8252,7 @@
       </c>
       <c r="J197" s="21"/>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="18">
         <v>2016</v>
       </c>
@@ -8283,7 +8282,7 @@
       </c>
       <c r="J198" s="21"/>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="18">
         <v>2016</v>
       </c>
@@ -8313,7 +8312,7 @@
       </c>
       <c r="J199" s="21"/>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="18">
         <v>2016</v>
       </c>
@@ -8343,7 +8342,7 @@
       </c>
       <c r="J200" s="21"/>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="18">
         <v>2016</v>
       </c>
@@ -8373,7 +8372,7 @@
       </c>
       <c r="J201" s="21"/>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="18">
         <v>2016</v>
       </c>
@@ -8403,7 +8402,7 @@
       </c>
       <c r="J202" s="21"/>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="18">
         <v>2016</v>
       </c>
@@ -8433,7 +8432,7 @@
       </c>
       <c r="J203" s="21"/>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="18">
         <v>2016</v>
       </c>
@@ -8463,7 +8462,7 @@
       </c>
       <c r="J204" s="21"/>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="18">
         <v>2016</v>
       </c>
@@ -8493,7 +8492,7 @@
       </c>
       <c r="J205" s="21"/>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="18">
         <v>2016</v>
       </c>
@@ -8523,7 +8522,7 @@
       </c>
       <c r="J206" s="21"/>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="18">
         <v>2016</v>
       </c>
@@ -8553,7 +8552,7 @@
       </c>
       <c r="J207" s="21"/>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="18">
         <v>2016</v>
       </c>
@@ -8583,7 +8582,7 @@
       </c>
       <c r="J208" s="21"/>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="18">
         <v>2016</v>
       </c>
@@ -8613,7 +8612,7 @@
       </c>
       <c r="J209" s="21"/>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="18">
         <v>2016</v>
       </c>
@@ -8643,7 +8642,7 @@
       </c>
       <c r="J210" s="21"/>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="18">
         <v>2016</v>
       </c>
@@ -8673,7 +8672,7 @@
       </c>
       <c r="J211" s="21"/>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="18">
         <v>2016</v>
       </c>
@@ -8703,7 +8702,7 @@
       </c>
       <c r="J212" s="21"/>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="18">
         <v>2016</v>
       </c>
@@ -8733,7 +8732,7 @@
       </c>
       <c r="J213" s="21"/>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="18">
         <v>2016</v>
       </c>
@@ -8763,7 +8762,7 @@
       </c>
       <c r="J214" s="21"/>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="18">
         <v>2016</v>
       </c>
@@ -8793,7 +8792,7 @@
       </c>
       <c r="J215" s="21"/>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="18">
         <v>2016</v>
       </c>
@@ -8823,7 +8822,7 @@
       </c>
       <c r="J216" s="21"/>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="18">
         <v>2016</v>
       </c>
@@ -8853,7 +8852,7 @@
       </c>
       <c r="J217" s="24"/>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="18">
         <v>2016</v>
       </c>
@@ -8882,7 +8881,7 @@
         <v>3045291</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="18">
         <v>2016</v>
       </c>
@@ -8912,7 +8911,7 @@
       </c>
       <c r="J219" s="24"/>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="18">
         <v>2016</v>
       </c>
@@ -8942,7 +8941,7 @@
       </c>
       <c r="J220" s="24"/>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="18">
         <v>2016</v>
       </c>
@@ -8972,7 +8971,7 @@
       </c>
       <c r="J221" s="24"/>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="18">
         <v>2016</v>
       </c>
@@ -9002,7 +9001,7 @@
       </c>
       <c r="J222" s="24"/>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="18">
         <v>2016</v>
       </c>
@@ -9032,7 +9031,7 @@
       </c>
       <c r="J223" s="24"/>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="18">
         <v>2016</v>
       </c>
@@ -9062,7 +9061,7 @@
       </c>
       <c r="J224" s="24"/>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="18">
         <v>2016</v>
       </c>
@@ -9092,7 +9091,7 @@
       </c>
       <c r="J225" s="24"/>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="18">
         <v>2016</v>
       </c>
@@ -9122,7 +9121,7 @@
       </c>
       <c r="J226" s="24"/>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="18">
         <v>2016</v>
       </c>
@@ -9152,7 +9151,7 @@
       </c>
       <c r="J227" s="24"/>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="18">
         <v>2016</v>
       </c>
@@ -9182,7 +9181,7 @@
       </c>
       <c r="J228" s="24"/>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="18">
         <v>2016</v>
       </c>
@@ -9212,7 +9211,7 @@
       </c>
       <c r="J229" s="24"/>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="18">
         <v>2016</v>
       </c>
@@ -9242,7 +9241,7 @@
       </c>
       <c r="J230" s="24"/>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="18">
         <v>2016</v>
       </c>
@@ -9272,7 +9271,7 @@
       </c>
       <c r="J231" s="24"/>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="18">
         <v>2016</v>
       </c>
@@ -9302,7 +9301,7 @@
       </c>
       <c r="J232" s="24"/>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="18">
         <v>2016</v>
       </c>
@@ -9332,7 +9331,7 @@
       </c>
       <c r="J233" s="24"/>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="18">
         <v>2016</v>
       </c>
@@ -9362,7 +9361,7 @@
       </c>
       <c r="J234" s="24"/>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="18">
         <v>2016</v>
       </c>
@@ -9392,7 +9391,7 @@
       </c>
       <c r="J235" s="24"/>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="18">
         <v>2016</v>
       </c>
@@ -9422,7 +9421,7 @@
       </c>
       <c r="J236" s="24"/>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="18">
         <v>2016</v>
       </c>
@@ -9452,7 +9451,7 @@
       </c>
       <c r="J237" s="24"/>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="18">
         <v>2016</v>
       </c>
@@ -9482,7 +9481,7 @@
       </c>
       <c r="J238" s="24"/>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="18">
         <v>2016</v>
       </c>
@@ -9512,7 +9511,7 @@
       </c>
       <c r="J239" s="24"/>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="18">
         <v>2016</v>
       </c>
@@ -9542,7 +9541,7 @@
       </c>
       <c r="J240" s="24"/>
     </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="18">
         <v>2016</v>
       </c>
@@ -9572,7 +9571,7 @@
       </c>
       <c r="J241" s="24"/>
     </row>
-    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="18">
         <v>2016</v>
       </c>
@@ -9601,7 +9600,7 @@
         <v>3086592</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="18">
         <v>2016</v>
       </c>
@@ -9631,7 +9630,7 @@
       </c>
       <c r="J243" s="24"/>
     </row>
-    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="18">
         <v>2016</v>
       </c>
@@ -9661,7 +9660,7 @@
       </c>
       <c r="J244" s="24"/>
     </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="18">
         <v>2016</v>
       </c>
@@ -9691,7 +9690,7 @@
       </c>
       <c r="J245" s="24"/>
     </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="18">
         <v>2016</v>
       </c>
@@ -9721,7 +9720,7 @@
       </c>
       <c r="J246" s="24"/>
     </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="18">
         <v>2016</v>
       </c>
@@ -9754,7 +9753,7 @@
       <c r="L247" s="25"/>
       <c r="M247" s="25"/>
     </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="18">
         <v>2016</v>
       </c>
@@ -9785,7 +9784,7 @@
       <c r="J248" s="24"/>
       <c r="L248" s="26"/>
     </row>
-    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="18">
         <v>2016</v>
       </c>
@@ -9815,7 +9814,7 @@
       </c>
       <c r="J249" s="24"/>
     </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="18">
         <v>2016</v>
       </c>
@@ -9845,7 +9844,7 @@
       </c>
       <c r="J250" s="24"/>
     </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="18">
         <v>2016</v>
       </c>
@@ -9875,7 +9874,7 @@
       </c>
       <c r="J251" s="24"/>
     </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="18">
         <v>2016</v>
       </c>
@@ -9905,7 +9904,7 @@
       </c>
       <c r="J252" s="24"/>
     </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="18">
         <v>2016</v>
       </c>
@@ -9935,7 +9934,7 @@
       </c>
       <c r="J253" s="24"/>
     </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="18">
         <v>2016</v>
       </c>
@@ -9965,7 +9964,7 @@
       </c>
       <c r="J254" s="24"/>
     </row>
-    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="18">
         <v>2016</v>
       </c>
@@ -9995,7 +9994,7 @@
       </c>
       <c r="J255" s="24"/>
     </row>
-    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="18">
         <v>2016</v>
       </c>
@@ -10025,7 +10024,7 @@
       </c>
       <c r="J256" s="24"/>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="18">
         <v>2016</v>
       </c>
@@ -10055,7 +10054,7 @@
       </c>
       <c r="J257" s="24"/>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="18">
         <v>2016</v>
       </c>
@@ -10085,7 +10084,7 @@
       </c>
       <c r="J258" s="24"/>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="18">
         <v>2016</v>
       </c>
@@ -10115,7 +10114,7 @@
       </c>
       <c r="J259" s="24"/>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="18">
         <v>2016</v>
       </c>
@@ -10145,7 +10144,7 @@
       </c>
       <c r="J260" s="24"/>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="18">
         <v>2016</v>
       </c>
@@ -10175,7 +10174,7 @@
       </c>
       <c r="J261" s="24"/>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="18">
         <v>2016</v>
       </c>
@@ -10205,7 +10204,7 @@
       </c>
       <c r="J262" s="24"/>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="18">
         <v>2016</v>
       </c>
@@ -10235,7 +10234,7 @@
       </c>
       <c r="J263" s="24"/>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="18">
         <v>2016</v>
       </c>
@@ -10265,7 +10264,7 @@
       </c>
       <c r="J264" s="24"/>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="18">
         <v>2016</v>
       </c>
@@ -10295,7 +10294,7 @@
       </c>
       <c r="J265" s="24"/>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="18">
         <v>2016</v>
       </c>
@@ -10324,7 +10323,7 @@
         <v>3142701</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="18">
         <v>2016</v>
       </c>
@@ -10353,7 +10352,7 @@
         <v>1401459</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="18">
         <v>2016</v>
       </c>
@@ -10382,7 +10381,7 @@
         <v>27034</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="18">
         <v>2016</v>
       </c>
@@ -10411,7 +10410,7 @@
         <v>88847</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="18">
         <v>2016</v>
       </c>
@@ -10440,7 +10439,7 @@
         <v>63765</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="18">
         <v>2016</v>
       </c>
@@ -10469,7 +10468,7 @@
         <v>636555</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="18">
         <v>2016</v>
       </c>
@@ -10498,7 +10497,7 @@
         <v>88096</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="18">
         <v>2016</v>
       </c>
@@ -10527,7 +10526,7 @@
         <v>180245</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="18">
         <v>2016</v>
       </c>
@@ -10556,7 +10555,7 @@
         <v>29513</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="18">
         <v>2016</v>
       </c>
@@ -10585,7 +10584,7 @@
         <v>42625</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="18">
         <v>2016</v>
       </c>
@@ -10614,7 +10613,7 @@
         <v>71828</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="18">
         <v>2016</v>
       </c>
@@ -10643,7 +10642,7 @@
         <v>16316</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="18">
         <v>2016</v>
       </c>
@@ -10672,7 +10671,7 @@
         <v>170725</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="18">
         <v>2016</v>
       </c>
@@ -10701,7 +10700,7 @@
         <v>97390</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="18">
         <v>2016</v>
       </c>
@@ -10730,7 +10729,7 @@
         <v>113835</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="18">
         <v>2016</v>
       </c>
@@ -10759,7 +10758,7 @@
         <v>101020</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="18">
         <v>2016</v>
       </c>
@@ -10788,7 +10787,7 @@
         <v>106935</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="18">
         <v>2016</v>
       </c>
@@ -10817,7 +10816,7 @@
         <v>51921</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="18">
         <v>2016</v>
       </c>
@@ -10846,7 +10845,7 @@
         <v>13307</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="18">
         <v>2016</v>
       </c>
@@ -10875,7 +10874,7 @@
         <v>26464</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="18">
         <v>2016</v>
       </c>
@@ -10904,7 +10903,7 @@
         <v>561832</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="18">
         <v>2016</v>
       </c>
@@ -10933,7 +10932,7 @@
         <v>35051</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="18">
         <v>2016</v>
       </c>
@@ -10962,7 +10961,7 @@
         <v>32557</v>
       </c>
     </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="18">
         <v>2016</v>
       </c>
@@ -10991,7 +10990,7 @@
         <v>151652</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="18">
         <v>2017</v>
       </c>
@@ -11021,7 +11020,7 @@
       </c>
       <c r="J290" s="24"/>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="18">
         <v>2017</v>
       </c>
@@ -11051,7 +11050,7 @@
       </c>
       <c r="J291" s="24"/>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="18">
         <v>2017</v>
       </c>
@@ -11081,7 +11080,7 @@
       </c>
       <c r="J292" s="24"/>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="18">
         <v>2017</v>
       </c>
@@ -11111,7 +11110,7 @@
       </c>
       <c r="J293" s="24"/>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="18">
         <v>2017</v>
       </c>
@@ -11141,7 +11140,7 @@
       </c>
       <c r="J294" s="24"/>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="18">
         <v>2017</v>
       </c>
@@ -11171,7 +11170,7 @@
       </c>
       <c r="J295" s="24"/>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="18">
         <v>2017</v>
       </c>
@@ -11201,7 +11200,7 @@
       </c>
       <c r="J296" s="24"/>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="18">
         <v>2017</v>
       </c>
@@ -11231,7 +11230,7 @@
       </c>
       <c r="J297" s="24"/>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="18">
         <v>2017</v>
       </c>
@@ -11261,7 +11260,7 @@
       </c>
       <c r="J298" s="24"/>
     </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="18">
         <v>2017</v>
       </c>
@@ -11291,7 +11290,7 @@
       </c>
       <c r="J299" s="24"/>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="18">
         <v>2017</v>
       </c>
@@ -11321,7 +11320,7 @@
       </c>
       <c r="J300" s="24"/>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="18">
         <v>2017</v>
       </c>
@@ -11351,7 +11350,7 @@
       </c>
       <c r="J301" s="24"/>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="18">
         <v>2017</v>
       </c>
@@ -11381,7 +11380,7 @@
       </c>
       <c r="J302" s="24"/>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="18">
         <v>2017</v>
       </c>
@@ -11411,7 +11410,7 @@
       </c>
       <c r="J303" s="24"/>
     </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="18">
         <v>2017</v>
       </c>
@@ -11441,7 +11440,7 @@
       </c>
       <c r="J304" s="24"/>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="18">
         <v>2017</v>
       </c>
@@ -11471,7 +11470,7 @@
       </c>
       <c r="J305" s="24"/>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="18">
         <v>2017</v>
       </c>
@@ -11501,7 +11500,7 @@
       </c>
       <c r="J306" s="24"/>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="18">
         <v>2017</v>
       </c>
@@ -11531,7 +11530,7 @@
       </c>
       <c r="J307" s="24"/>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="18">
         <v>2017</v>
       </c>
@@ -11561,7 +11560,7 @@
       </c>
       <c r="J308" s="24"/>
     </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="18">
         <v>2017</v>
       </c>
@@ -11591,7 +11590,7 @@
       </c>
       <c r="J309" s="24"/>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="18">
         <v>2017</v>
       </c>
@@ -11621,7 +11620,7 @@
       </c>
       <c r="J310" s="24"/>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="18">
         <v>2017</v>
       </c>
@@ -11651,7 +11650,7 @@
       </c>
       <c r="J311" s="24"/>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="18">
         <v>2017</v>
       </c>
@@ -11681,7 +11680,7 @@
       </c>
       <c r="J312" s="24"/>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="18">
         <v>2017</v>
       </c>
@@ -11710,7 +11709,7 @@
         <v>152771</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="18">
         <v>2017</v>
       </c>
@@ -11739,7 +11738,7 @@
         <v>3078631</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="18">
         <v>2017</v>
       </c>
@@ -11768,7 +11767,7 @@
         <v>1600191</v>
       </c>
     </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="18">
         <v>2017</v>
       </c>
@@ -11797,7 +11796,7 @@
         <v>26705</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="18">
         <v>2017</v>
       </c>
@@ -11826,7 +11825,7 @@
         <v>90611</v>
       </c>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="18">
         <v>2017</v>
       </c>
@@ -11855,7 +11854,7 @@
         <v>63975</v>
       </c>
     </row>
-    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="18">
         <v>2017</v>
       </c>
@@ -11884,7 +11883,7 @@
         <v>657638</v>
       </c>
     </row>
-    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="18">
         <v>2017</v>
       </c>
@@ -11913,7 +11912,7 @@
         <v>90097</v>
       </c>
     </row>
-    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" s="18">
         <v>2017</v>
       </c>
@@ -11942,7 +11941,7 @@
         <v>182732</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="18">
         <v>2017</v>
       </c>
@@ -11971,7 +11970,7 @@
         <v>29956</v>
       </c>
     </row>
-    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="18">
         <v>2017</v>
       </c>
@@ -12000,7 +11999,7 @@
         <v>42657</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" s="18">
         <v>2017</v>
       </c>
@@ -12029,7 +12028,7 @@
         <v>73022</v>
       </c>
     </row>
-    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" s="18">
         <v>2017</v>
       </c>
@@ -12058,7 +12057,7 @@
         <v>16289</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" s="18">
         <v>2017</v>
       </c>
@@ -12087,7 +12086,7 @@
         <v>170753</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" s="18">
         <v>2017</v>
       </c>
@@ -12116,7 +12115,7 @@
         <v>99794</v>
       </c>
     </row>
-    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" s="18">
         <v>2017</v>
       </c>
@@ -12145,7 +12144,7 @@
         <v>117433</v>
       </c>
     </row>
-    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" s="18">
         <v>2017</v>
       </c>
@@ -12174,7 +12173,7 @@
         <v>101619</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" s="18">
         <v>2017</v>
       </c>
@@ -12203,7 +12202,7 @@
         <v>108541</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" s="18">
         <v>2017</v>
       </c>
@@ -12232,7 +12231,7 @@
         <v>51881</v>
       </c>
     </row>
-    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" s="18">
         <v>2017</v>
       </c>
@@ -12261,7 +12260,7 @@
         <v>13307</v>
       </c>
     </row>
-    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" s="18">
         <v>2017</v>
       </c>
@@ -12290,7 +12289,7 @@
         <v>26388</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" s="18">
         <v>2017</v>
       </c>
@@ -12319,7 +12318,7 @@
         <v>567280</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" s="18">
         <v>2017</v>
       </c>
@@ -12348,7 +12347,7 @@
         <v>33196</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" s="18">
         <v>2017</v>
       </c>
@@ -12377,7 +12376,7 @@
         <v>32557</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="18">
         <v>2017</v>
       </c>
@@ -12406,7 +12405,7 @@
         <v>154411</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="18">
         <v>2017</v>
       </c>
@@ -12436,7 +12435,7 @@
       </c>
       <c r="J338" s="24"/>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="18">
         <v>2017</v>
       </c>
@@ -12466,7 +12465,7 @@
       </c>
       <c r="J339" s="24"/>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="18">
         <v>2017</v>
       </c>
@@ -12496,7 +12495,7 @@
       </c>
       <c r="J340" s="24"/>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="18">
         <v>2017</v>
       </c>
@@ -12526,7 +12525,7 @@
       </c>
       <c r="J341" s="24"/>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="18">
         <v>2017</v>
       </c>
@@ -12556,7 +12555,7 @@
       </c>
       <c r="J342" s="24"/>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="18">
         <v>2017</v>
       </c>
@@ -12586,7 +12585,7 @@
       </c>
       <c r="J343" s="24"/>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="18">
         <v>2017</v>
       </c>
@@ -12616,7 +12615,7 @@
       </c>
       <c r="J344" s="24"/>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="18">
         <v>2017</v>
       </c>
@@ -12646,7 +12645,7 @@
       </c>
       <c r="J345" s="24"/>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="18">
         <v>2017</v>
       </c>
@@ -12676,7 +12675,7 @@
       </c>
       <c r="J346" s="24"/>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="18">
         <v>2017</v>
       </c>
@@ -12706,7 +12705,7 @@
       </c>
       <c r="J347" s="24"/>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="18">
         <v>2017</v>
       </c>
@@ -12736,7 +12735,7 @@
       </c>
       <c r="J348" s="24"/>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="18">
         <v>2017</v>
       </c>
@@ -12766,7 +12765,7 @@
       </c>
       <c r="J349" s="24"/>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="18">
         <v>2017</v>
       </c>
@@ -12796,7 +12795,7 @@
       </c>
       <c r="J350" s="24"/>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="18">
         <v>2017</v>
       </c>
@@ -12826,7 +12825,7 @@
       </c>
       <c r="J351" s="24"/>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="18">
         <v>2017</v>
       </c>
@@ -12856,7 +12855,7 @@
       </c>
       <c r="J352" s="24"/>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="18">
         <v>2017</v>
       </c>
@@ -12886,7 +12885,7 @@
       </c>
       <c r="J353" s="24"/>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="18">
         <v>2017</v>
       </c>
@@ -12916,7 +12915,7 @@
       </c>
       <c r="J354" s="24"/>
     </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="18">
         <v>2017</v>
       </c>
@@ -12946,7 +12945,7 @@
       </c>
       <c r="J355" s="24"/>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
         <v>2017</v>
       </c>
@@ -12976,7 +12975,7 @@
       </c>
       <c r="J356" s="24"/>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="18">
         <v>2017</v>
       </c>
@@ -13006,7 +13005,7 @@
       </c>
       <c r="J357" s="24"/>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="18">
         <v>2017</v>
       </c>
@@ -13036,7 +13035,7 @@
       </c>
       <c r="J358" s="24"/>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="18">
         <v>2017</v>
       </c>
@@ -13066,7 +13065,7 @@
       </c>
       <c r="J359" s="24"/>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="18">
         <v>2017</v>
       </c>
@@ -13096,7 +13095,7 @@
       </c>
       <c r="J360" s="24"/>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="18">
         <v>2017</v>
       </c>
@@ -13126,7 +13125,7 @@
       </c>
       <c r="J361" s="24"/>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="18">
         <v>2017</v>
       </c>
@@ -13156,7 +13155,7 @@
       </c>
       <c r="J362" s="24"/>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="18">
         <v>2017</v>
       </c>
@@ -13186,7 +13185,7 @@
       </c>
       <c r="J363" s="24"/>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="18">
         <v>2017</v>
       </c>
@@ -13216,7 +13215,7 @@
       </c>
       <c r="J364" s="24"/>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="18">
         <v>2017</v>
       </c>
@@ -13246,7 +13245,7 @@
       </c>
       <c r="J365" s="24"/>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="18">
         <v>2017</v>
       </c>
@@ -13276,7 +13275,7 @@
       </c>
       <c r="J366" s="24"/>
     </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="18">
         <v>2017</v>
       </c>
@@ -13306,7 +13305,7 @@
       </c>
       <c r="J367" s="24"/>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="18">
         <v>2017</v>
       </c>
@@ -13336,7 +13335,7 @@
       </c>
       <c r="J368" s="24"/>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="18">
         <v>2017</v>
       </c>
@@ -13366,7 +13365,7 @@
       </c>
       <c r="J369" s="24"/>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="18">
         <v>2017</v>
       </c>
@@ -13396,7 +13395,7 @@
       </c>
       <c r="J370" s="24"/>
     </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="18">
         <v>2017</v>
       </c>
@@ -13426,7 +13425,7 @@
       </c>
       <c r="J371" s="24"/>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="18">
         <v>2017</v>
       </c>
@@ -13456,7 +13455,7 @@
       </c>
       <c r="J372" s="24"/>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="18">
         <v>2017</v>
       </c>
@@ -13486,7 +13485,7 @@
       </c>
       <c r="J373" s="24"/>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="18">
         <v>2017</v>
       </c>
@@ -13516,7 +13515,7 @@
       </c>
       <c r="J374" s="24"/>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="18">
         <v>2017</v>
       </c>
@@ -13546,7 +13545,7 @@
       </c>
       <c r="J375" s="24"/>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="18">
         <v>2017</v>
       </c>
@@ -13576,7 +13575,7 @@
       </c>
       <c r="J376" s="24"/>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="18">
         <v>2017</v>
       </c>
@@ -13606,7 +13605,7 @@
       </c>
       <c r="J377" s="24"/>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="18">
         <v>2017</v>
       </c>
@@ -13636,7 +13635,7 @@
       </c>
       <c r="J378" s="24"/>
     </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="18">
         <v>2017</v>
       </c>
@@ -13666,7 +13665,7 @@
       </c>
       <c r="J379" s="24"/>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="18">
         <v>2017</v>
       </c>
@@ -13696,7 +13695,7 @@
       </c>
       <c r="J380" s="24"/>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="18">
         <v>2017</v>
       </c>
@@ -13726,7 +13725,7 @@
       </c>
       <c r="J381" s="24"/>
     </row>
-    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="18">
         <v>2017</v>
       </c>
@@ -13756,7 +13755,7 @@
       </c>
       <c r="J382" s="24"/>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="18">
         <v>2017</v>
       </c>
@@ -13786,7 +13785,7 @@
       </c>
       <c r="J383" s="24"/>
     </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="18">
         <v>2017</v>
       </c>
@@ -13816,7 +13815,7 @@
       </c>
       <c r="J384" s="24"/>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" s="18">
         <v>2017</v>
       </c>
@@ -13846,7 +13845,7 @@
       </c>
       <c r="J385" s="24"/>
     </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" s="18">
         <v>2018</v>
       </c>
@@ -13876,7 +13875,7 @@
       </c>
       <c r="J386" s="24"/>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="18">
         <v>2018</v>
       </c>
@@ -13906,7 +13905,7 @@
       </c>
       <c r="J387" s="24"/>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" s="18">
         <v>2018</v>
       </c>
@@ -13936,7 +13935,7 @@
       </c>
       <c r="J388" s="24"/>
     </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" s="18">
         <v>2018</v>
       </c>
@@ -13966,7 +13965,7 @@
       </c>
       <c r="J389" s="24"/>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="18">
         <v>2018</v>
       </c>
@@ -13996,7 +13995,7 @@
       </c>
       <c r="J390" s="24"/>
     </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="18">
         <v>2018</v>
       </c>
@@ -14026,7 +14025,7 @@
       </c>
       <c r="J391" s="24"/>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="18">
         <v>2018</v>
       </c>
@@ -14056,7 +14055,7 @@
       </c>
       <c r="J392" s="24"/>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="18">
         <v>2018</v>
       </c>
@@ -14086,7 +14085,7 @@
       </c>
       <c r="J393" s="24"/>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="18">
         <v>2018</v>
       </c>
@@ -14116,7 +14115,7 @@
       </c>
       <c r="J394" s="24"/>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="18">
         <v>2018</v>
       </c>
@@ -14146,7 +14145,7 @@
       </c>
       <c r="J395" s="24"/>
     </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="18">
         <v>2018</v>
       </c>
@@ -14176,7 +14175,7 @@
       </c>
       <c r="J396" s="24"/>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="18">
         <v>2018</v>
       </c>
@@ -14206,7 +14205,7 @@
       </c>
       <c r="J397" s="24"/>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="18">
         <v>2018</v>
       </c>
@@ -14236,7 +14235,7 @@
       </c>
       <c r="J398" s="24"/>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="18">
         <v>2018</v>
       </c>
@@ -14266,7 +14265,7 @@
       </c>
       <c r="J399" s="24"/>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="18">
         <v>2018</v>
       </c>
@@ -14296,7 +14295,7 @@
       </c>
       <c r="J400" s="24"/>
     </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" s="18">
         <v>2018</v>
       </c>
@@ -14326,7 +14325,7 @@
       </c>
       <c r="J401" s="24"/>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" s="18">
         <v>2018</v>
       </c>
@@ -14356,7 +14355,7 @@
       </c>
       <c r="J402" s="24"/>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" s="18">
         <v>2018</v>
       </c>
@@ -14386,7 +14385,7 @@
       </c>
       <c r="J403" s="24"/>
     </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" s="18">
         <v>2018</v>
       </c>
@@ -14416,7 +14415,7 @@
       </c>
       <c r="J404" s="24"/>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" s="18">
         <v>2018</v>
       </c>
@@ -14446,7 +14445,7 @@
       </c>
       <c r="J405" s="24"/>
     </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" s="18">
         <v>2018</v>
       </c>
@@ -14476,7 +14475,7 @@
       </c>
       <c r="J406" s="24"/>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" s="18">
         <v>2018</v>
       </c>
@@ -14506,7 +14505,7 @@
       </c>
       <c r="J407" s="24"/>
     </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" s="18">
         <v>2018</v>
       </c>
@@ -14536,7 +14535,7 @@
       </c>
       <c r="J408" s="24"/>
     </row>
-    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" s="18">
         <v>2018</v>
       </c>
@@ -14566,7 +14565,7 @@
       </c>
       <c r="J409" s="24"/>
     </row>
-    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="18">
         <v>2018</v>
       </c>
@@ -14596,7 +14595,7 @@
       </c>
       <c r="J410" s="24"/>
     </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" s="18">
         <v>2018</v>
       </c>
@@ -14626,7 +14625,7 @@
       </c>
       <c r="J411" s="24"/>
     </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" s="18">
         <v>2018</v>
       </c>
@@ -14656,7 +14655,7 @@
       </c>
       <c r="J412" s="24"/>
     </row>
-    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" s="18">
         <v>2018</v>
       </c>
@@ -14686,7 +14685,7 @@
       </c>
       <c r="J413" s="24"/>
     </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" s="18">
         <v>2018</v>
       </c>
@@ -14716,7 +14715,7 @@
       </c>
       <c r="J414" s="24"/>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" s="18">
         <v>2018</v>
       </c>
@@ -14746,7 +14745,7 @@
       </c>
       <c r="J415" s="24"/>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" s="18">
         <v>2018</v>
       </c>
@@ -14776,7 +14775,7 @@
       </c>
       <c r="J416" s="24"/>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" s="18">
         <v>2018</v>
       </c>
@@ -14806,7 +14805,7 @@
       </c>
       <c r="J417" s="24"/>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" s="18">
         <v>2018</v>
       </c>
@@ -14836,7 +14835,7 @@
       </c>
       <c r="J418" s="24"/>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" s="18">
         <v>2018</v>
       </c>
@@ -14866,7 +14865,7 @@
       </c>
       <c r="J419" s="24"/>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" s="18">
         <v>2018</v>
       </c>
@@ -14896,7 +14895,7 @@
       </c>
       <c r="J420" s="24"/>
     </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" s="18">
         <v>2018</v>
       </c>
@@ -14926,7 +14925,7 @@
       </c>
       <c r="J421" s="24"/>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" s="18">
         <v>2018</v>
       </c>
@@ -14956,7 +14955,7 @@
       </c>
       <c r="J422" s="24"/>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" s="18">
         <v>2018</v>
       </c>
@@ -14986,7 +14985,7 @@
       </c>
       <c r="J423" s="24"/>
     </row>
-    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" s="18">
         <v>2018</v>
       </c>
@@ -15016,7 +15015,7 @@
       </c>
       <c r="J424" s="24"/>
     </row>
-    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" s="18">
         <v>2018</v>
       </c>
@@ -15046,7 +15045,7 @@
       </c>
       <c r="J425" s="24"/>
     </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" s="18">
         <v>2018</v>
       </c>
@@ -15076,7 +15075,7 @@
       </c>
       <c r="J426" s="24"/>
     </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" s="18">
         <v>2018</v>
       </c>
@@ -15106,7 +15105,7 @@
       </c>
       <c r="J427" s="24"/>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" s="18">
         <v>2018</v>
       </c>
@@ -15136,7 +15135,7 @@
       </c>
       <c r="J428" s="24"/>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" s="18">
         <v>2018</v>
       </c>
@@ -15166,7 +15165,7 @@
       </c>
       <c r="J429" s="24"/>
     </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" s="18">
         <v>2018</v>
       </c>
@@ -15196,7 +15195,7 @@
       </c>
       <c r="J430" s="24"/>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" s="18">
         <v>2018</v>
       </c>
@@ -15226,7 +15225,7 @@
       </c>
       <c r="J431" s="24"/>
     </row>
-    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" s="18">
         <v>2018</v>
       </c>
@@ -15256,7 +15255,7 @@
       </c>
       <c r="J432" s="24"/>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" s="18">
         <v>2018</v>
       </c>
@@ -15286,7 +15285,7 @@
       </c>
       <c r="J433" s="24"/>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" s="18">
         <v>2018</v>
       </c>
@@ -15316,7 +15315,7 @@
       </c>
       <c r="J434" s="24"/>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" s="18">
         <v>2018</v>
       </c>
@@ -15346,7 +15345,7 @@
       </c>
       <c r="J435" s="24"/>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" s="18">
         <v>2018</v>
       </c>
@@ -15376,7 +15375,7 @@
       </c>
       <c r="J436" s="24"/>
     </row>
-    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" s="18">
         <v>2018</v>
       </c>
@@ -15406,7 +15405,7 @@
       </c>
       <c r="J437" s="24"/>
     </row>
-    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" s="18">
         <v>2018</v>
       </c>
@@ -15436,7 +15435,7 @@
       </c>
       <c r="J438" s="24"/>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" s="18">
         <v>2018</v>
       </c>
@@ -15466,7 +15465,7 @@
       </c>
       <c r="J439" s="24"/>
     </row>
-    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" s="18">
         <v>2018</v>
       </c>
@@ -15496,7 +15495,7 @@
       </c>
       <c r="J440" s="24"/>
     </row>
-    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" s="18">
         <v>2018</v>
       </c>
@@ -15526,7 +15525,7 @@
       </c>
       <c r="J441" s="24"/>
     </row>
-    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" s="18">
         <v>2018</v>
       </c>
@@ -15556,7 +15555,7 @@
       </c>
       <c r="J442" s="24"/>
     </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" s="18">
         <v>2018</v>
       </c>
@@ -15586,7 +15585,7 @@
       </c>
       <c r="J443" s="24"/>
     </row>
-    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" s="18">
         <v>2018</v>
       </c>
@@ -15616,7 +15615,7 @@
       </c>
       <c r="J444" s="24"/>
     </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" s="18">
         <v>2018</v>
       </c>
@@ -15646,7 +15645,7 @@
       </c>
       <c r="J445" s="24"/>
     </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" s="18">
         <v>2018</v>
       </c>
@@ -15676,7 +15675,7 @@
       </c>
       <c r="J446" s="24"/>
     </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" s="18">
         <v>2018</v>
       </c>
@@ -15706,7 +15705,7 @@
       </c>
       <c r="J447" s="24"/>
     </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" s="18">
         <v>2018</v>
       </c>
@@ -15736,7 +15735,7 @@
       </c>
       <c r="J448" s="24"/>
     </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" s="18">
         <v>2018</v>
       </c>
@@ -15766,7 +15765,7 @@
       </c>
       <c r="J449" s="24"/>
     </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" s="18">
         <v>2018</v>
       </c>
@@ -15796,7 +15795,7 @@
       </c>
       <c r="J450" s="24"/>
     </row>
-    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" s="18">
         <v>2018</v>
       </c>
@@ -15826,7 +15825,7 @@
       </c>
       <c r="J451" s="24"/>
     </row>
-    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" s="18">
         <v>2018</v>
       </c>
@@ -15856,7 +15855,7 @@
       </c>
       <c r="J452" s="24"/>
     </row>
-    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453" s="18">
         <v>2018</v>
       </c>
@@ -15886,7 +15885,7 @@
       </c>
       <c r="J453" s="24"/>
     </row>
-    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454" s="18">
         <v>2018</v>
       </c>
@@ -15916,7 +15915,7 @@
       </c>
       <c r="J454" s="24"/>
     </row>
-    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455" s="18">
         <v>2018</v>
       </c>
@@ -15946,7 +15945,7 @@
       </c>
       <c r="J455" s="24"/>
     </row>
-    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456" s="18">
         <v>2018</v>
       </c>
@@ -15976,7 +15975,7 @@
       </c>
       <c r="J456" s="24"/>
     </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A457" s="18">
         <v>2018</v>
       </c>
@@ -16006,7 +16005,7 @@
       </c>
       <c r="J457" s="24"/>
     </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458" s="18">
         <v>2018</v>
       </c>
@@ -16036,7 +16035,7 @@
       </c>
       <c r="J458" s="24"/>
     </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459" s="18">
         <v>2018</v>
       </c>
@@ -16066,7 +16065,7 @@
       </c>
       <c r="J459" s="24"/>
     </row>
-    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460" s="18">
         <v>2018</v>
       </c>
@@ -16096,7 +16095,7 @@
       </c>
       <c r="J460" s="24"/>
     </row>
-    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" s="18">
         <v>2018</v>
       </c>
@@ -16126,7 +16125,7 @@
       </c>
       <c r="J461" s="24"/>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" s="18">
         <v>2018</v>
       </c>
@@ -16156,7 +16155,7 @@
       </c>
       <c r="J462" s="24"/>
     </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463" s="18">
         <v>2018</v>
       </c>
@@ -16186,7 +16185,7 @@
       </c>
       <c r="J463" s="24"/>
     </row>
-    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" s="18">
         <v>2018</v>
       </c>
@@ -16216,7 +16215,7 @@
       </c>
       <c r="J464" s="24"/>
     </row>
-    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" s="18">
         <v>2018</v>
       </c>
@@ -16246,7 +16245,7 @@
       </c>
       <c r="J465" s="24"/>
     </row>
-    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" s="18">
         <v>2018</v>
       </c>
@@ -16276,7 +16275,7 @@
       </c>
       <c r="J466" s="24"/>
     </row>
-    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" s="18">
         <v>2018</v>
       </c>
@@ -16306,7 +16305,7 @@
       </c>
       <c r="J467" s="24"/>
     </row>
-    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" s="18">
         <v>2018</v>
       </c>
@@ -16336,7 +16335,7 @@
       </c>
       <c r="J468" s="24"/>
     </row>
-    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" s="18">
         <v>2018</v>
       </c>
@@ -16366,7 +16365,7 @@
       </c>
       <c r="J469" s="24"/>
     </row>
-    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" s="18">
         <v>2018</v>
       </c>
@@ -16396,7 +16395,7 @@
       </c>
       <c r="J470" s="24"/>
     </row>
-    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" s="18">
         <v>2018</v>
       </c>
@@ -16426,7 +16425,7 @@
       </c>
       <c r="J471" s="24"/>
     </row>
-    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" s="18">
         <v>2018</v>
       </c>
@@ -16456,7 +16455,7 @@
       </c>
       <c r="J472" s="24"/>
     </row>
-    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" s="18">
         <v>2018</v>
       </c>
@@ -16486,7 +16485,7 @@
       </c>
       <c r="J473" s="24"/>
     </row>
-    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474" s="18">
         <v>2018</v>
       </c>
@@ -16516,7 +16515,7 @@
       </c>
       <c r="J474" s="24"/>
     </row>
-    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" s="18">
         <v>2018</v>
       </c>
@@ -16546,7 +16545,7 @@
       </c>
       <c r="J475" s="24"/>
     </row>
-    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" s="18">
         <v>2018</v>
       </c>
@@ -16576,7 +16575,7 @@
       </c>
       <c r="J476" s="24"/>
     </row>
-    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" s="18">
         <v>2018</v>
       </c>
@@ -16606,7 +16605,7 @@
       </c>
       <c r="J477" s="24"/>
     </row>
-    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478" s="18">
         <v>2018</v>
       </c>
@@ -16636,7 +16635,7 @@
       </c>
       <c r="J478" s="24"/>
     </row>
-    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" s="18">
         <v>2018</v>
       </c>
@@ -16666,7 +16665,7 @@
       </c>
       <c r="J479" s="24"/>
     </row>
-    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" s="18">
         <v>2018</v>
       </c>
@@ -16696,7 +16695,7 @@
       </c>
       <c r="J480" s="24"/>
     </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" s="18">
         <v>2018</v>
       </c>
@@ -16726,7 +16725,7 @@
       </c>
       <c r="J481" s="24"/>
     </row>
-    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482" s="18">
         <v>2019</v>
       </c>
@@ -16756,7 +16755,7 @@
       </c>
       <c r="J482" s="24"/>
     </row>
-    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483" s="18">
         <v>2019</v>
       </c>
@@ -16786,7 +16785,7 @@
       </c>
       <c r="J483" s="24"/>
     </row>
-    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A484" s="18">
         <v>2019</v>
       </c>
@@ -16816,7 +16815,7 @@
       </c>
       <c r="J484" s="24"/>
     </row>
-    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" s="18">
         <v>2019</v>
       </c>
@@ -16846,7 +16845,7 @@
       </c>
       <c r="J485" s="24"/>
     </row>
-    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486" s="18">
         <v>2019</v>
       </c>
@@ -16876,7 +16875,7 @@
       </c>
       <c r="J486" s="24"/>
     </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" s="18">
         <v>2019</v>
       </c>
@@ -16906,7 +16905,7 @@
       </c>
       <c r="J487" s="24"/>
     </row>
-    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A488" s="18">
         <v>2019</v>
       </c>
@@ -16936,7 +16935,7 @@
       </c>
       <c r="J488" s="24"/>
     </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489" s="18">
         <v>2019</v>
       </c>
@@ -16966,7 +16965,7 @@
       </c>
       <c r="J489" s="24"/>
     </row>
-    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" s="18">
         <v>2019</v>
       </c>
@@ -16996,7 +16995,7 @@
       </c>
       <c r="J490" s="24"/>
     </row>
-    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" s="18">
         <v>2019</v>
       </c>
@@ -17026,7 +17025,7 @@
       </c>
       <c r="J491" s="24"/>
     </row>
-    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492" s="18">
         <v>2019</v>
       </c>
@@ -17056,7 +17055,7 @@
       </c>
       <c r="J492" s="24"/>
     </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493" s="18">
         <v>2019</v>
       </c>
@@ -17086,7 +17085,7 @@
       </c>
       <c r="J493" s="24"/>
     </row>
-    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494" s="18">
         <v>2019</v>
       </c>
@@ -17116,7 +17115,7 @@
       </c>
       <c r="J494" s="24"/>
     </row>
-    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495" s="18">
         <v>2019</v>
       </c>
@@ -17146,7 +17145,7 @@
       </c>
       <c r="J495" s="24"/>
     </row>
-    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496" s="18">
         <v>2019</v>
       </c>
@@ -17176,7 +17175,7 @@
       </c>
       <c r="J496" s="24"/>
     </row>
-    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" s="18">
         <v>2019</v>
       </c>
@@ -17206,7 +17205,7 @@
       </c>
       <c r="J497" s="24"/>
     </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" s="18">
         <v>2019</v>
       </c>
@@ -17236,7 +17235,7 @@
       </c>
       <c r="J498" s="24"/>
     </row>
-    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499" s="18">
         <v>2019</v>
       </c>
@@ -17266,7 +17265,7 @@
       </c>
       <c r="J499" s="24"/>
     </row>
-    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500" s="18">
         <v>2019</v>
       </c>
@@ -17296,7 +17295,7 @@
       </c>
       <c r="J500" s="24"/>
     </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501" s="18">
         <v>2019</v>
       </c>
@@ -17326,7 +17325,7 @@
       </c>
       <c r="J501" s="24"/>
     </row>
-    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502" s="18">
         <v>2019</v>
       </c>
@@ -17356,7 +17355,7 @@
       </c>
       <c r="J502" s="24"/>
     </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" s="18">
         <v>2019</v>
       </c>
@@ -17386,7 +17385,7 @@
       </c>
       <c r="J503" s="24"/>
     </row>
-    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504" s="18">
         <v>2019</v>
       </c>
@@ -17416,7 +17415,7 @@
       </c>
       <c r="J504" s="24"/>
     </row>
-    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A505" s="18">
         <v>2019</v>
       </c>
@@ -17446,7 +17445,7 @@
       </c>
       <c r="J505" s="24"/>
     </row>
-    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A506" s="18">
         <v>2019</v>
       </c>
@@ -17476,7 +17475,7 @@
       </c>
       <c r="J506" s="24"/>
     </row>
-    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507" s="18">
         <v>2019</v>
       </c>
@@ -17506,7 +17505,7 @@
       </c>
       <c r="J507" s="24"/>
     </row>
-    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" s="18">
         <v>2019</v>
       </c>
@@ -17536,7 +17535,7 @@
       </c>
       <c r="J508" s="24"/>
     </row>
-    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A509" s="18">
         <v>2019</v>
       </c>
@@ -17566,7 +17565,7 @@
       </c>
       <c r="J509" s="24"/>
     </row>
-    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A510" s="18">
         <v>2019</v>
       </c>
@@ -17596,7 +17595,7 @@
       </c>
       <c r="J510" s="24"/>
     </row>
-    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511" s="18">
         <v>2019</v>
       </c>
@@ -17626,7 +17625,7 @@
       </c>
       <c r="J511" s="24"/>
     </row>
-    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512" s="18">
         <v>2019</v>
       </c>
@@ -17656,7 +17655,7 @@
       </c>
       <c r="J512" s="24"/>
     </row>
-    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A513" s="18">
         <v>2019</v>
       </c>
@@ -17686,7 +17685,7 @@
       </c>
       <c r="J513" s="24"/>
     </row>
-    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" s="18">
         <v>2019</v>
       </c>
@@ -17716,7 +17715,7 @@
       </c>
       <c r="J514" s="24"/>
     </row>
-    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A515" s="18">
         <v>2019</v>
       </c>
@@ -17746,7 +17745,7 @@
       </c>
       <c r="J515" s="24"/>
     </row>
-    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516" s="18">
         <v>2019</v>
       </c>
@@ -17776,7 +17775,7 @@
       </c>
       <c r="J516" s="24"/>
     </row>
-    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517" s="18">
         <v>2019</v>
       </c>
@@ -17806,7 +17805,7 @@
       </c>
       <c r="J517" s="24"/>
     </row>
-    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518" s="18">
         <v>2019</v>
       </c>
@@ -17836,7 +17835,7 @@
       </c>
       <c r="J518" s="24"/>
     </row>
-    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519" s="18">
         <v>2019</v>
       </c>
@@ -17866,7 +17865,7 @@
       </c>
       <c r="J519" s="24"/>
     </row>
-    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A520" s="18">
         <v>2019</v>
       </c>
@@ -17896,7 +17895,7 @@
       </c>
       <c r="J520" s="24"/>
     </row>
-    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A521" s="18">
         <v>2019</v>
       </c>
@@ -17926,7 +17925,7 @@
       </c>
       <c r="J521" s="24"/>
     </row>
-    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" s="18">
         <v>2019</v>
       </c>
@@ -17956,7 +17955,7 @@
       </c>
       <c r="J522" s="24"/>
     </row>
-    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A523" s="18">
         <v>2019</v>
       </c>
@@ -17986,7 +17985,7 @@
       </c>
       <c r="J523" s="24"/>
     </row>
-    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A524" s="18">
         <v>2019</v>
       </c>
@@ -18016,7 +18015,7 @@
       </c>
       <c r="J524" s="24"/>
     </row>
-    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A525" s="18">
         <v>2019</v>
       </c>
@@ -18046,7 +18045,7 @@
       </c>
       <c r="J525" s="24"/>
     </row>
-    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A526" s="18">
         <v>2019</v>
       </c>
@@ -18076,7 +18075,7 @@
       </c>
       <c r="J526" s="24"/>
     </row>
-    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A527" s="18">
         <v>2019</v>
       </c>
@@ -18106,7 +18105,7 @@
       </c>
       <c r="J527" s="24"/>
     </row>
-    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A528" s="18">
         <v>2019</v>
       </c>
@@ -18136,7 +18135,7 @@
       </c>
       <c r="J528" s="24"/>
     </row>
-    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A529" s="18">
         <v>2019</v>
       </c>
@@ -18166,7 +18165,7 @@
       </c>
       <c r="J529" s="24"/>
     </row>
-    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A530" s="18">
         <v>2019</v>
       </c>
@@ -18196,7 +18195,7 @@
       </c>
       <c r="J530" s="24"/>
     </row>
-    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A531" s="18">
         <v>2019</v>
       </c>
@@ -18226,7 +18225,7 @@
       </c>
       <c r="J531" s="24"/>
     </row>
-    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A532" s="18">
         <v>2019</v>
       </c>
@@ -18256,7 +18255,7 @@
       </c>
       <c r="J532" s="24"/>
     </row>
-    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A533" s="18">
         <v>2019</v>
       </c>
@@ -18286,7 +18285,7 @@
       </c>
       <c r="J533" s="24"/>
     </row>
-    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A534" s="18">
         <v>2019</v>
       </c>
@@ -18316,7 +18315,7 @@
       </c>
       <c r="J534" s="24"/>
     </row>
-    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A535" s="18">
         <v>2019</v>
       </c>
@@ -18346,7 +18345,7 @@
       </c>
       <c r="J535" s="24"/>
     </row>
-    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A536" s="18">
         <v>2019</v>
       </c>
@@ -18376,7 +18375,7 @@
       </c>
       <c r="J536" s="24"/>
     </row>
-    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A537" s="18">
         <v>2019</v>
       </c>
@@ -18406,7 +18405,7 @@
       </c>
       <c r="J537" s="24"/>
     </row>
-    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A538" s="18">
         <v>2019</v>
       </c>
@@ -18436,7 +18435,7 @@
       </c>
       <c r="J538" s="24"/>
     </row>
-    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A539" s="18">
         <v>2019</v>
       </c>
@@ -18466,7 +18465,7 @@
       </c>
       <c r="J539" s="24"/>
     </row>
-    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A540" s="18">
         <v>2019</v>
       </c>
@@ -18496,7 +18495,7 @@
       </c>
       <c r="J540" s="24"/>
     </row>
-    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A541" s="18">
         <v>2019</v>
       </c>
@@ -18526,7 +18525,7 @@
       </c>
       <c r="J541" s="24"/>
     </row>
-    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A542" s="18">
         <v>2019</v>
       </c>
@@ -18556,7 +18555,7 @@
       </c>
       <c r="J542" s="24"/>
     </row>
-    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A543" s="18">
         <v>2019</v>
       </c>
@@ -18586,7 +18585,7 @@
       </c>
       <c r="J543" s="24"/>
     </row>
-    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A544" s="18">
         <v>2019</v>
       </c>
@@ -18616,7 +18615,7 @@
       </c>
       <c r="J544" s="24"/>
     </row>
-    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A545" s="18">
         <v>2019</v>
       </c>
@@ -18646,7 +18645,7 @@
       </c>
       <c r="J545" s="24"/>
     </row>
-    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A546" s="18">
         <v>2019</v>
       </c>
@@ -18676,7 +18675,7 @@
       </c>
       <c r="J546" s="24"/>
     </row>
-    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A547" s="18">
         <v>2019</v>
       </c>
@@ -18706,7 +18705,7 @@
       </c>
       <c r="J547" s="24"/>
     </row>
-    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A548" s="18">
         <v>2019</v>
       </c>
@@ -18736,7 +18735,7 @@
       </c>
       <c r="J548" s="24"/>
     </row>
-    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A549" s="18">
         <v>2019</v>
       </c>
@@ -18766,7 +18765,7 @@
       </c>
       <c r="J549" s="24"/>
     </row>
-    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A550" s="18">
         <v>2019</v>
       </c>
@@ -18796,7 +18795,7 @@
       </c>
       <c r="J550" s="24"/>
     </row>
-    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A551" s="18">
         <v>2019</v>
       </c>
@@ -18826,7 +18825,7 @@
       </c>
       <c r="J551" s="24"/>
     </row>
-    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A552" s="18">
         <v>2019</v>
       </c>
@@ -18856,7 +18855,7 @@
       </c>
       <c r="J552" s="24"/>
     </row>
-    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A553" s="18">
         <v>2019</v>
       </c>
@@ -18886,7 +18885,7 @@
       </c>
       <c r="J553" s="24"/>
     </row>
-    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A554" s="18">
         <v>2019</v>
       </c>
@@ -18916,7 +18915,7 @@
       </c>
       <c r="J554" s="24"/>
     </row>
-    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A555" s="18">
         <v>2019</v>
       </c>
@@ -18946,7 +18945,7 @@
       </c>
       <c r="J555" s="24"/>
     </row>
-    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A556" s="18">
         <v>2019</v>
       </c>
@@ -18976,7 +18975,7 @@
       </c>
       <c r="J556" s="24"/>
     </row>
-    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A557" s="18">
         <v>2019</v>
       </c>
@@ -19006,7 +19005,7 @@
       </c>
       <c r="J557" s="24"/>
     </row>
-    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A558" s="18">
         <v>2019</v>
       </c>
@@ -19036,7 +19035,7 @@
       </c>
       <c r="J558" s="24"/>
     </row>
-    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A559" s="18">
         <v>2019</v>
       </c>
@@ -19066,7 +19065,7 @@
       </c>
       <c r="J559" s="24"/>
     </row>
-    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A560" s="18">
         <v>2019</v>
       </c>
@@ -19096,7 +19095,7 @@
       </c>
       <c r="J560" s="24"/>
     </row>
-    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A561" s="18">
         <v>2019</v>
       </c>
@@ -19126,7 +19125,7 @@
       </c>
       <c r="J561" s="24"/>
     </row>
-    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A562" s="18">
         <v>2019</v>
       </c>
@@ -19156,7 +19155,7 @@
       </c>
       <c r="J562" s="24"/>
     </row>
-    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A563" s="18">
         <v>2019</v>
       </c>
@@ -19186,7 +19185,7 @@
       </c>
       <c r="J563" s="24"/>
     </row>
-    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A564" s="18">
         <v>2019</v>
       </c>
@@ -19216,7 +19215,7 @@
       </c>
       <c r="J564" s="24"/>
     </row>
-    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A565" s="18">
         <v>2019</v>
       </c>
@@ -19246,7 +19245,7 @@
       </c>
       <c r="J565" s="24"/>
     </row>
-    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A566" s="18">
         <v>2019</v>
       </c>
@@ -19276,7 +19275,7 @@
       </c>
       <c r="J566" s="24"/>
     </row>
-    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A567" s="18">
         <v>2019</v>
       </c>
@@ -19306,7 +19305,7 @@
       </c>
       <c r="J567" s="24"/>
     </row>
-    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A568" s="18">
         <v>2019</v>
       </c>
@@ -19336,7 +19335,7 @@
       </c>
       <c r="J568" s="24"/>
     </row>
-    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A569" s="18">
         <v>2019</v>
       </c>
@@ -19366,7 +19365,7 @@
       </c>
       <c r="J569" s="24"/>
     </row>
-    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A570" s="18">
         <v>2019</v>
       </c>
@@ -19396,7 +19395,7 @@
       </c>
       <c r="J570" s="24"/>
     </row>
-    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A571" s="18">
         <v>2019</v>
       </c>
@@ -19426,7 +19425,7 @@
       </c>
       <c r="J571" s="24"/>
     </row>
-    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A572" s="18">
         <v>2019</v>
       </c>
@@ -19456,7 +19455,7 @@
       </c>
       <c r="J572" s="24"/>
     </row>
-    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A573" s="18">
         <v>2019</v>
       </c>
@@ -19486,7 +19485,7 @@
       </c>
       <c r="J573" s="24"/>
     </row>
-    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A574" s="18">
         <v>2019</v>
       </c>
@@ -19516,7 +19515,7 @@
       </c>
       <c r="J574" s="24"/>
     </row>
-    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A575" s="18">
         <v>2019</v>
       </c>
@@ -19546,7 +19545,7 @@
       </c>
       <c r="J575" s="24"/>
     </row>
-    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A576" s="18">
         <v>2019</v>
       </c>
@@ -19576,7 +19575,7 @@
       </c>
       <c r="J576" s="24"/>
     </row>
-    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A577" s="18">
         <v>2019</v>
       </c>
@@ -22486,7 +22485,7 @@
       </c>
       <c r="J673" s="24"/>
     </row>
-    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A674" s="18">
         <v>2021</v>
       </c>
@@ -22516,7 +22515,7 @@
       </c>
       <c r="J674" s="24"/>
     </row>
-    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A675" s="18">
         <v>2021</v>
       </c>
@@ -22546,7 +22545,7 @@
       </c>
       <c r="J675" s="24"/>
     </row>
-    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A676" s="18">
         <v>2021</v>
       </c>
@@ -22576,7 +22575,7 @@
       </c>
       <c r="J676" s="24"/>
     </row>
-    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A677" s="18">
         <v>2021</v>
       </c>
@@ -22606,7 +22605,7 @@
       </c>
       <c r="J677" s="24"/>
     </row>
-    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A678" s="18">
         <v>2021</v>
       </c>
@@ -22636,7 +22635,7 @@
       </c>
       <c r="J678" s="24"/>
     </row>
-    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A679" s="18">
         <v>2021</v>
       </c>
@@ -22666,7 +22665,7 @@
       </c>
       <c r="J679" s="24"/>
     </row>
-    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A680" s="18">
         <v>2021</v>
       </c>
@@ -22696,7 +22695,7 @@
       </c>
       <c r="J680" s="24"/>
     </row>
-    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A681" s="18">
         <v>2021</v>
       </c>
@@ -22726,7 +22725,7 @@
       </c>
       <c r="J681" s="24"/>
     </row>
-    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A682" s="18">
         <v>2021</v>
       </c>
@@ -22756,7 +22755,7 @@
       </c>
       <c r="J682" s="24"/>
     </row>
-    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A683" s="18">
         <v>2021</v>
       </c>
@@ -22786,7 +22785,7 @@
       </c>
       <c r="J683" s="24"/>
     </row>
-    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A684" s="18">
         <v>2021</v>
       </c>
@@ -22816,7 +22815,7 @@
       </c>
       <c r="J684" s="24"/>
     </row>
-    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A685" s="18">
         <v>2021</v>
       </c>
@@ -22846,7 +22845,7 @@
       </c>
       <c r="J685" s="24"/>
     </row>
-    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A686" s="18">
         <v>2021</v>
       </c>
@@ -22876,7 +22875,7 @@
       </c>
       <c r="J686" s="24"/>
     </row>
-    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A687" s="18">
         <v>2021</v>
       </c>
@@ -22906,7 +22905,7 @@
       </c>
       <c r="J687" s="24"/>
     </row>
-    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A688" s="18">
         <v>2021</v>
       </c>
@@ -22936,7 +22935,7 @@
       </c>
       <c r="J688" s="24"/>
     </row>
-    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A689" s="18">
         <v>2021</v>
       </c>
@@ -22966,7 +22965,7 @@
       </c>
       <c r="J689" s="24"/>
     </row>
-    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A690" s="18">
         <v>2021</v>
       </c>
@@ -22996,7 +22995,7 @@
       </c>
       <c r="J690" s="24"/>
     </row>
-    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A691" s="18">
         <v>2021</v>
       </c>
@@ -23026,7 +23025,7 @@
       </c>
       <c r="J691" s="24"/>
     </row>
-    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A692" s="18">
         <v>2021</v>
       </c>
@@ -23056,7 +23055,7 @@
       </c>
       <c r="J692" s="24"/>
     </row>
-    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A693" s="18">
         <v>2021</v>
       </c>
@@ -23086,7 +23085,7 @@
       </c>
       <c r="J693" s="24"/>
     </row>
-    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A694" s="18">
         <v>2021</v>
       </c>
@@ -23116,7 +23115,7 @@
       </c>
       <c r="J694" s="24"/>
     </row>
-    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A695" s="18">
         <v>2021</v>
       </c>
@@ -23146,7 +23145,7 @@
       </c>
       <c r="J695" s="24"/>
     </row>
-    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A696" s="18">
         <v>2021</v>
       </c>
@@ -23176,7 +23175,7 @@
       </c>
       <c r="J696" s="24"/>
     </row>
-    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A697" s="18">
         <v>2021</v>
       </c>
@@ -23206,7 +23205,7 @@
       </c>
       <c r="J697" s="24"/>
     </row>
-    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A698" s="18">
         <v>2021</v>
       </c>
@@ -23236,7 +23235,7 @@
       </c>
       <c r="J698" s="24"/>
     </row>
-    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A699" s="18">
         <v>2021</v>
       </c>
@@ -23266,7 +23265,7 @@
       </c>
       <c r="J699" s="24"/>
     </row>
-    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A700" s="18">
         <v>2021</v>
       </c>
@@ -23296,7 +23295,7 @@
       </c>
       <c r="J700" s="24"/>
     </row>
-    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A701" s="18">
         <v>2021</v>
       </c>
@@ -23326,7 +23325,7 @@
       </c>
       <c r="J701" s="24"/>
     </row>
-    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A702" s="18">
         <v>2021</v>
       </c>
@@ -23356,7 +23355,7 @@
       </c>
       <c r="J702" s="24"/>
     </row>
-    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A703" s="18">
         <v>2021</v>
       </c>
@@ -23386,7 +23385,7 @@
       </c>
       <c r="J703" s="24"/>
     </row>
-    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A704" s="18">
         <v>2021</v>
       </c>
@@ -23416,7 +23415,7 @@
       </c>
       <c r="J704" s="24"/>
     </row>
-    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A705" s="18">
         <v>2021</v>
       </c>
@@ -23446,7 +23445,7 @@
       </c>
       <c r="J705" s="24"/>
     </row>
-    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A706" s="18">
         <v>2021</v>
       </c>
@@ -23476,7 +23475,7 @@
       </c>
       <c r="J706" s="24"/>
     </row>
-    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A707" s="18">
         <v>2021</v>
       </c>
@@ -23506,7 +23505,7 @@
       </c>
       <c r="J707" s="24"/>
     </row>
-    <row r="708" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A708" s="18">
         <v>2021</v>
       </c>
@@ -23536,7 +23535,7 @@
       </c>
       <c r="J708" s="24"/>
     </row>
-    <row r="709" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A709" s="18">
         <v>2021</v>
       </c>
@@ -23566,7 +23565,7 @@
       </c>
       <c r="J709" s="24"/>
     </row>
-    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A710" s="18">
         <v>2021</v>
       </c>
@@ -23596,7 +23595,7 @@
       </c>
       <c r="J710" s="24"/>
     </row>
-    <row r="711" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A711" s="18">
         <v>2021</v>
       </c>
@@ -23626,7 +23625,7 @@
       </c>
       <c r="J711" s="24"/>
     </row>
-    <row r="712" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A712" s="18">
         <v>2021</v>
       </c>
@@ -23656,7 +23655,7 @@
       </c>
       <c r="J712" s="24"/>
     </row>
-    <row r="713" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A713" s="18">
         <v>2021</v>
       </c>
@@ -23686,7 +23685,7 @@
       </c>
       <c r="J713" s="24"/>
     </row>
-    <row r="714" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A714" s="18">
         <v>2021</v>
       </c>
@@ -23716,7 +23715,7 @@
       </c>
       <c r="J714" s="24"/>
     </row>
-    <row r="715" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A715" s="18">
         <v>2021</v>
       </c>
@@ -23746,7 +23745,7 @@
       </c>
       <c r="J715" s="24"/>
     </row>
-    <row r="716" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A716" s="18">
         <v>2021</v>
       </c>
@@ -23776,7 +23775,7 @@
       </c>
       <c r="J716" s="24"/>
     </row>
-    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A717" s="18">
         <v>2021</v>
       </c>
@@ -23806,7 +23805,7 @@
       </c>
       <c r="J717" s="24"/>
     </row>
-    <row r="718" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A718" s="18">
         <v>2021</v>
       </c>
@@ -23836,7 +23835,7 @@
       </c>
       <c r="J718" s="24"/>
     </row>
-    <row r="719" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A719" s="18">
         <v>2021</v>
       </c>
@@ -23866,7 +23865,7 @@
       </c>
       <c r="J719" s="24"/>
     </row>
-    <row r="720" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A720" s="18">
         <v>2021</v>
       </c>
@@ -23896,7 +23895,7 @@
       </c>
       <c r="J720" s="24"/>
     </row>
-    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A721" s="18">
         <v>2021</v>
       </c>
@@ -23926,7 +23925,7 @@
       </c>
       <c r="J721" s="24"/>
     </row>
-    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A722" s="18">
         <v>2021</v>
       </c>
@@ -23956,7 +23955,7 @@
       </c>
       <c r="J722" s="24"/>
     </row>
-    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A723" s="18">
         <v>2021</v>
       </c>
@@ -23986,7 +23985,7 @@
       </c>
       <c r="J723" s="24"/>
     </row>
-    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A724" s="18">
         <v>2021</v>
       </c>
@@ -24016,7 +24015,7 @@
       </c>
       <c r="J724" s="24"/>
     </row>
-    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A725" s="18">
         <v>2021</v>
       </c>
@@ -24046,7 +24045,7 @@
       </c>
       <c r="J725" s="24"/>
     </row>
-    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A726" s="18">
         <v>2021</v>
       </c>
@@ -24076,7 +24075,7 @@
       </c>
       <c r="J726" s="24"/>
     </row>
-    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A727" s="18">
         <v>2021</v>
       </c>
@@ -24106,7 +24105,7 @@
       </c>
       <c r="J727" s="24"/>
     </row>
-    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A728" s="18">
         <v>2021</v>
       </c>
@@ -24136,7 +24135,7 @@
       </c>
       <c r="J728" s="24"/>
     </row>
-    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A729" s="18">
         <v>2021</v>
       </c>
@@ -24166,7 +24165,7 @@
       </c>
       <c r="J729" s="24"/>
     </row>
-    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A730" s="18">
         <v>2021</v>
       </c>
@@ -24196,7 +24195,7 @@
       </c>
       <c r="J730" s="24"/>
     </row>
-    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A731" s="18">
         <v>2021</v>
       </c>
@@ -24226,7 +24225,7 @@
       </c>
       <c r="J731" s="24"/>
     </row>
-    <row r="732" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A732" s="18">
         <v>2021</v>
       </c>
@@ -24256,7 +24255,7 @@
       </c>
       <c r="J732" s="24"/>
     </row>
-    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A733" s="18">
         <v>2021</v>
       </c>
@@ -24286,7 +24285,7 @@
       </c>
       <c r="J733" s="24"/>
     </row>
-    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A734" s="18">
         <v>2021</v>
       </c>
@@ -24316,7 +24315,7 @@
       </c>
       <c r="J734" s="24"/>
     </row>
-    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A735" s="18">
         <v>2021</v>
       </c>
@@ -24346,7 +24345,7 @@
       </c>
       <c r="J735" s="24"/>
     </row>
-    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A736" s="18">
         <v>2021</v>
       </c>
@@ -24376,7 +24375,7 @@
       </c>
       <c r="J736" s="24"/>
     </row>
-    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A737" s="18">
         <v>2021</v>
       </c>
@@ -24406,7 +24405,7 @@
       </c>
       <c r="J737" s="24"/>
     </row>
-    <row r="738" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A738" s="18">
         <v>2021</v>
       </c>
@@ -24436,7 +24435,7 @@
       </c>
       <c r="J738" s="24"/>
     </row>
-    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A739" s="18">
         <v>2021</v>
       </c>
@@ -24466,7 +24465,7 @@
       </c>
       <c r="J739" s="24"/>
     </row>
-    <row r="740" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A740" s="18">
         <v>2021</v>
       </c>
@@ -24496,7 +24495,7 @@
       </c>
       <c r="J740" s="24"/>
     </row>
-    <row r="741" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A741" s="18">
         <v>2021</v>
       </c>
@@ -24526,7 +24525,7 @@
       </c>
       <c r="J741" s="24"/>
     </row>
-    <row r="742" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A742" s="18">
         <v>2021</v>
       </c>
@@ -24556,7 +24555,7 @@
       </c>
       <c r="J742" s="24"/>
     </row>
-    <row r="743" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A743" s="18">
         <v>2021</v>
       </c>
@@ -24586,7 +24585,7 @@
       </c>
       <c r="J743" s="24"/>
     </row>
-    <row r="744" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A744" s="18">
         <v>2021</v>
       </c>
@@ -24616,7 +24615,7 @@
       </c>
       <c r="J744" s="24"/>
     </row>
-    <row r="745" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A745" s="18">
         <v>2021</v>
       </c>
@@ -24646,7 +24645,7 @@
       </c>
       <c r="J745" s="24"/>
     </row>
-    <row r="746" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A746" s="18">
         <v>2021</v>
       </c>
@@ -24676,7 +24675,7 @@
       </c>
       <c r="J746" s="24"/>
     </row>
-    <row r="747" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A747" s="18">
         <v>2021</v>
       </c>
@@ -24706,7 +24705,7 @@
       </c>
       <c r="J747" s="24"/>
     </row>
-    <row r="748" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A748" s="18">
         <v>2021</v>
       </c>
@@ -24736,7 +24735,7 @@
       </c>
       <c r="J748" s="24"/>
     </row>
-    <row r="749" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A749" s="18">
         <v>2021</v>
       </c>
@@ -24766,7 +24765,7 @@
       </c>
       <c r="J749" s="24"/>
     </row>
-    <row r="750" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A750" s="18">
         <v>2021</v>
       </c>
@@ -24796,7 +24795,7 @@
       </c>
       <c r="J750" s="24"/>
     </row>
-    <row r="751" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A751" s="18">
         <v>2021</v>
       </c>
@@ -24826,7 +24825,7 @@
       </c>
       <c r="J751" s="24"/>
     </row>
-    <row r="752" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A752" s="18">
         <v>2021</v>
       </c>
@@ -24856,7 +24855,7 @@
       </c>
       <c r="J752" s="24"/>
     </row>
-    <row r="753" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A753" s="18">
         <v>2021</v>
       </c>
@@ -24886,7 +24885,7 @@
       </c>
       <c r="J753" s="24"/>
     </row>
-    <row r="754" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A754" s="18">
         <v>2021</v>
       </c>
@@ -24916,7 +24915,7 @@
       </c>
       <c r="J754" s="24"/>
     </row>
-    <row r="755" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A755" s="18">
         <v>2021</v>
       </c>
@@ -24946,7 +24945,7 @@
       </c>
       <c r="J755" s="24"/>
     </row>
-    <row r="756" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A756" s="18">
         <v>2021</v>
       </c>
@@ -24976,7 +24975,7 @@
       </c>
       <c r="J756" s="24"/>
     </row>
-    <row r="757" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A757" s="18">
         <v>2021</v>
       </c>
@@ -25006,7 +25005,7 @@
       </c>
       <c r="J757" s="24"/>
     </row>
-    <row r="758" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A758" s="18">
         <v>2021</v>
       </c>
@@ -25036,7 +25035,7 @@
       </c>
       <c r="J758" s="24"/>
     </row>
-    <row r="759" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A759" s="18">
         <v>2021</v>
       </c>
@@ -25066,7 +25065,7 @@
       </c>
       <c r="J759" s="24"/>
     </row>
-    <row r="760" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A760" s="18">
         <v>2021</v>
       </c>
@@ -25096,7 +25095,7 @@
       </c>
       <c r="J760" s="24"/>
     </row>
-    <row r="761" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A761" s="18">
         <v>2021</v>
       </c>
@@ -25126,7 +25125,7 @@
       </c>
       <c r="J761" s="24"/>
     </row>
-    <row r="762" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A762" s="18">
         <v>2021</v>
       </c>
@@ -25156,7 +25155,7 @@
       </c>
       <c r="J762" s="24"/>
     </row>
-    <row r="763" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A763" s="18">
         <v>2021</v>
       </c>
@@ -25186,7 +25185,7 @@
       </c>
       <c r="J763" s="24"/>
     </row>
-    <row r="764" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A764" s="18">
         <v>2021</v>
       </c>
@@ -25216,7 +25215,7 @@
       </c>
       <c r="J764" s="24"/>
     </row>
-    <row r="765" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A765" s="18">
         <v>2021</v>
       </c>
@@ -25246,7 +25245,7 @@
       </c>
       <c r="J765" s="24"/>
     </row>
-    <row r="766" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A766" s="18">
         <v>2021</v>
       </c>
@@ -25276,7 +25275,7 @@
       </c>
       <c r="J766" s="24"/>
     </row>
-    <row r="767" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A767" s="18">
         <v>2021</v>
       </c>
@@ -25306,7 +25305,7 @@
       </c>
       <c r="J767" s="24"/>
     </row>
-    <row r="768" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A768" s="18">
         <v>2021</v>
       </c>
@@ -25336,7 +25335,7 @@
       </c>
       <c r="J768" s="24"/>
     </row>
-    <row r="769" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A769" s="18">
         <v>2021</v>
       </c>
@@ -25366,7 +25365,7 @@
       </c>
       <c r="J769" s="24"/>
     </row>
-    <row r="770" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A770" s="18">
         <v>2022</v>
       </c>
@@ -25396,7 +25395,7 @@
       </c>
       <c r="J770" s="24"/>
     </row>
-    <row r="771" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A771" s="18">
         <v>2022</v>
       </c>
@@ -25426,7 +25425,7 @@
       </c>
       <c r="J771" s="24"/>
     </row>
-    <row r="772" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A772" s="18">
         <v>2022</v>
       </c>
@@ -25456,7 +25455,7 @@
       </c>
       <c r="J772" s="24"/>
     </row>
-    <row r="773" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A773" s="18">
         <v>2022</v>
       </c>
@@ -25486,7 +25485,7 @@
       </c>
       <c r="J773" s="24"/>
     </row>
-    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A774" s="18">
         <v>2022</v>
       </c>
@@ -25516,7 +25515,7 @@
       </c>
       <c r="J774" s="24"/>
     </row>
-    <row r="775" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A775" s="18">
         <v>2022</v>
       </c>
@@ -25546,7 +25545,7 @@
       </c>
       <c r="J775" s="24"/>
     </row>
-    <row r="776" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A776" s="18">
         <v>2022</v>
       </c>
@@ -25576,7 +25575,7 @@
       </c>
       <c r="J776" s="24"/>
     </row>
-    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A777" s="18">
         <v>2022</v>
       </c>
@@ -25606,7 +25605,7 @@
       </c>
       <c r="J777" s="24"/>
     </row>
-    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A778" s="18">
         <v>2022</v>
       </c>
@@ -25636,7 +25635,7 @@
       </c>
       <c r="J778" s="24"/>
     </row>
-    <row r="779" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A779" s="18">
         <v>2022</v>
       </c>
@@ -25666,7 +25665,7 @@
       </c>
       <c r="J779" s="24"/>
     </row>
-    <row r="780" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A780" s="18">
         <v>2022</v>
       </c>
@@ -25696,7 +25695,7 @@
       </c>
       <c r="J780" s="24"/>
     </row>
-    <row r="781" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A781" s="18">
         <v>2022</v>
       </c>
@@ -25726,7 +25725,7 @@
       </c>
       <c r="J781" s="24"/>
     </row>
-    <row r="782" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A782" s="18">
         <v>2022</v>
       </c>
@@ -25756,7 +25755,7 @@
       </c>
       <c r="J782" s="24"/>
     </row>
-    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A783" s="18">
         <v>2022</v>
       </c>
@@ -25786,7 +25785,7 @@
       </c>
       <c r="J783" s="24"/>
     </row>
-    <row r="784" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A784" s="18">
         <v>2022</v>
       </c>
@@ -25816,7 +25815,7 @@
       </c>
       <c r="J784" s="24"/>
     </row>
-    <row r="785" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A785" s="18">
         <v>2022</v>
       </c>
@@ -25846,7 +25845,7 @@
       </c>
       <c r="J785" s="24"/>
     </row>
-    <row r="786" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A786" s="18">
         <v>2022</v>
       </c>
@@ -25876,7 +25875,7 @@
       </c>
       <c r="J786" s="24"/>
     </row>
-    <row r="787" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A787" s="18">
         <v>2022</v>
       </c>
@@ -25906,7 +25905,7 @@
       </c>
       <c r="J787" s="24"/>
     </row>
-    <row r="788" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A788" s="18">
         <v>2022</v>
       </c>
@@ -25936,7 +25935,7 @@
       </c>
       <c r="J788" s="24"/>
     </row>
-    <row r="789" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A789" s="18">
         <v>2022</v>
       </c>
@@ -25966,7 +25965,7 @@
       </c>
       <c r="J789" s="24"/>
     </row>
-    <row r="790" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A790" s="18">
         <v>2022</v>
       </c>
@@ -25996,7 +25995,7 @@
       </c>
       <c r="J790" s="24"/>
     </row>
-    <row r="791" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A791" s="18">
         <v>2022</v>
       </c>
@@ -26026,7 +26025,7 @@
       </c>
       <c r="J791" s="24"/>
     </row>
-    <row r="792" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A792" s="18">
         <v>2022</v>
       </c>
@@ -26056,7 +26055,7 @@
       </c>
       <c r="J792" s="24"/>
     </row>
-    <row r="793" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A793" s="18">
         <v>2022</v>
       </c>
@@ -26086,7 +26085,7 @@
       </c>
       <c r="J793" s="24"/>
     </row>
-    <row r="794" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A794" s="18">
         <v>2022</v>
       </c>
@@ -26112,12 +26111,12 @@
         <v>71028</v>
       </c>
       <c r="I794" s="20">
-        <f>+SUM(D794:H794)</f>
+        <f t="shared" ref="I794:I817" si="0">+SUM(D794:H794)</f>
         <v>4667183</v>
       </c>
       <c r="J794" s="24"/>
     </row>
-    <row r="795" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A795" s="18">
         <v>2022</v>
       </c>
@@ -26143,12 +26142,12 @@
         <v>31791</v>
       </c>
       <c r="I795" s="20">
-        <f>+SUM(D795:H795)</f>
+        <f t="shared" si="0"/>
         <v>1536771</v>
       </c>
       <c r="J795" s="24"/>
     </row>
-    <row r="796" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A796" s="18">
         <v>2022</v>
       </c>
@@ -26174,12 +26173,12 @@
         <v>2234</v>
       </c>
       <c r="I796" s="20">
-        <f>+SUM(D796:H796)</f>
+        <f t="shared" si="0"/>
         <v>67008</v>
       </c>
       <c r="J796" s="24"/>
     </row>
-    <row r="797" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A797" s="18">
         <v>2022</v>
       </c>
@@ -26205,12 +26204,12 @@
         <v>2356</v>
       </c>
       <c r="I797" s="20">
-        <f>+SUM(D797:H797)</f>
+        <f t="shared" si="0"/>
         <v>143564</v>
       </c>
       <c r="J797" s="24"/>
     </row>
-    <row r="798" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A798" s="18">
         <v>2022</v>
       </c>
@@ -26236,12 +26235,12 @@
         <v>8828</v>
       </c>
       <c r="I798" s="20">
-        <f>+SUM(D798:H798)</f>
+        <f t="shared" si="0"/>
         <v>162805</v>
       </c>
       <c r="J798" s="24"/>
     </row>
-    <row r="799" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A799" s="18">
         <v>2022</v>
       </c>
@@ -26267,12 +26266,12 @@
         <v>9657</v>
       </c>
       <c r="I799" s="20">
-        <f>+SUM(D799:H799)</f>
+        <f t="shared" si="0"/>
         <v>1026435</v>
       </c>
       <c r="J799" s="24"/>
     </row>
-    <row r="800" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A800" s="18">
         <v>2022</v>
       </c>
@@ -26298,12 +26297,12 @@
         <v>5323</v>
       </c>
       <c r="I800" s="20">
-        <f>+SUM(D800:H800)</f>
+        <f t="shared" si="0"/>
         <v>144997</v>
       </c>
       <c r="J800" s="24"/>
     </row>
-    <row r="801" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A801" s="18">
         <v>2022</v>
       </c>
@@ -26329,12 +26328,12 @@
         <v>12592</v>
       </c>
       <c r="I801" s="20">
-        <f>+SUM(D801:H801)</f>
+        <f t="shared" si="0"/>
         <v>269352</v>
       </c>
       <c r="J801" s="24"/>
     </row>
-    <row r="802" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A802" s="18">
         <v>2022</v>
       </c>
@@ -26360,12 +26359,12 @@
         <v>212</v>
       </c>
       <c r="I802" s="20">
-        <f>+SUM(D802:H802)</f>
+        <f t="shared" si="0"/>
         <v>67881</v>
       </c>
       <c r="J802" s="24"/>
     </row>
-    <row r="803" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A803" s="18">
         <v>2022</v>
       </c>
@@ -26391,12 +26390,12 @@
         <v>2377</v>
       </c>
       <c r="I803" s="20">
-        <f>+SUM(D803:H803)</f>
+        <f t="shared" si="0"/>
         <v>115314</v>
       </c>
       <c r="J803" s="24"/>
     </row>
-    <row r="804" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A804" s="18">
         <v>2022</v>
       </c>
@@ -26422,12 +26421,12 @@
         <v>1264</v>
       </c>
       <c r="I804" s="20">
-        <f>+SUM(D804:H804)</f>
+        <f t="shared" si="0"/>
         <v>111527</v>
       </c>
       <c r="J804" s="24"/>
     </row>
-    <row r="805" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A805" s="18">
         <v>2022</v>
       </c>
@@ -26453,12 +26452,12 @@
         <v>31</v>
       </c>
       <c r="I805" s="20">
-        <f>+SUM(D805:H805)</f>
+        <f t="shared" si="0"/>
         <v>86030</v>
       </c>
       <c r="J805" s="24"/>
     </row>
-    <row r="806" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A806" s="18">
         <v>2022</v>
       </c>
@@ -26484,12 +26483,12 @@
         <v>1927</v>
       </c>
       <c r="I806" s="20">
-        <f>+SUM(D806:H806)</f>
+        <f t="shared" si="0"/>
         <v>279562</v>
       </c>
       <c r="J806" s="24"/>
     </row>
-    <row r="807" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A807" s="18">
         <v>2022</v>
       </c>
@@ -26515,12 +26514,12 @@
         <v>7622</v>
       </c>
       <c r="I807" s="20">
-        <f>+SUM(D807:H807)</f>
+        <f t="shared" si="0"/>
         <v>178813</v>
       </c>
       <c r="J807" s="24"/>
     </row>
-    <row r="808" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A808" s="18">
         <v>2022</v>
       </c>
@@ -26546,12 +26545,12 @@
         <v>1119</v>
       </c>
       <c r="I808" s="20">
-        <f>+SUM(D808:H808)</f>
+        <f t="shared" si="0"/>
         <v>161968</v>
       </c>
       <c r="J808" s="24"/>
     </row>
-    <row r="809" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A809" s="18">
         <v>2022</v>
       </c>
@@ -26577,12 +26576,12 @@
         <v>18968</v>
       </c>
       <c r="I809" s="20">
-        <f>+SUM(D809:H809)</f>
+        <f t="shared" si="0"/>
         <v>159764</v>
       </c>
       <c r="J809" s="24"/>
     </row>
-    <row r="810" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A810" s="18">
         <v>2022</v>
       </c>
@@ -26608,12 +26607,12 @@
         <v>7190</v>
       </c>
       <c r="I810" s="20">
-        <f>+SUM(D810:H810)</f>
+        <f t="shared" si="0"/>
         <v>203177</v>
       </c>
       <c r="J810" s="24"/>
     </row>
-    <row r="811" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A811" s="18">
         <v>2022</v>
       </c>
@@ -26639,12 +26638,12 @@
         <v>7916</v>
       </c>
       <c r="I811" s="20">
-        <f>+SUM(D811:H811)</f>
+        <f t="shared" si="0"/>
         <v>100407</v>
       </c>
       <c r="J811" s="24"/>
     </row>
-    <row r="812" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A812" s="18">
         <v>2022</v>
       </c>
@@ -26670,12 +26669,12 @@
         <v>14985</v>
       </c>
       <c r="I812" s="20">
-        <f>+SUM(D812:H812)</f>
+        <f t="shared" si="0"/>
         <v>121741</v>
       </c>
       <c r="J812" s="24"/>
     </row>
-    <row r="813" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A813" s="18">
         <v>2022</v>
       </c>
@@ -26701,12 +26700,12 @@
         <v>579</v>
       </c>
       <c r="I813" s="20">
-        <f>+SUM(D813:H813)</f>
+        <f t="shared" si="0"/>
         <v>49185</v>
       </c>
       <c r="J813" s="24"/>
     </row>
-    <row r="814" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A814" s="18">
         <v>2022</v>
       </c>
@@ -26732,12 +26731,12 @@
         <v>19550</v>
       </c>
       <c r="I814" s="20">
-        <f>+SUM(D814:H814)</f>
+        <f t="shared" si="0"/>
         <v>878859</v>
       </c>
       <c r="J814" s="24"/>
     </row>
-    <row r="815" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A815" s="18">
         <v>2022</v>
       </c>
@@ -26763,12 +26762,12 @@
         <v>2922</v>
       </c>
       <c r="I815" s="20">
-        <f>+SUM(D815:H815)</f>
+        <f t="shared" si="0"/>
         <v>118044</v>
       </c>
       <c r="J815" s="24"/>
     </row>
-    <row r="816" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A816" s="18">
         <v>2022</v>
       </c>
@@ -26794,12 +26793,12 @@
         <v>651</v>
       </c>
       <c r="I816" s="20">
-        <f>+SUM(D816:H816)</f>
+        <f t="shared" si="0"/>
         <v>53770</v>
       </c>
       <c r="J816" s="24"/>
     </row>
-    <row r="817" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A817" s="18">
         <v>2022</v>
       </c>
@@ -26825,12 +26824,12 @@
         <v>487</v>
       </c>
       <c r="I817" s="20">
-        <f>+SUM(D817:H817)</f>
+        <f t="shared" si="0"/>
         <v>254527</v>
       </c>
       <c r="J817" s="24"/>
     </row>
-    <row r="818" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A818" s="18">
         <v>2022</v>
       </c>
@@ -26860,7 +26859,7 @@
       </c>
       <c r="J818" s="24"/>
     </row>
-    <row r="819" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A819" s="18">
         <v>2022</v>
       </c>
@@ -26890,7 +26889,7 @@
       </c>
       <c r="J819" s="24"/>
     </row>
-    <row r="820" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A820" s="18">
         <v>2022</v>
       </c>
@@ -26920,7 +26919,7 @@
       </c>
       <c r="J820" s="24"/>
     </row>
-    <row r="821" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A821" s="18">
         <v>2022</v>
       </c>
@@ -26950,7 +26949,7 @@
       </c>
       <c r="J821" s="24"/>
     </row>
-    <row r="822" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A822" s="18">
         <v>2022</v>
       </c>
@@ -26980,7 +26979,7 @@
       </c>
       <c r="J822" s="24"/>
     </row>
-    <row r="823" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A823" s="18">
         <v>2022</v>
       </c>
@@ -27010,7 +27009,7 @@
       </c>
       <c r="J823" s="24"/>
     </row>
-    <row r="824" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A824" s="18">
         <v>2022</v>
       </c>
@@ -27040,7 +27039,7 @@
       </c>
       <c r="J824" s="24"/>
     </row>
-    <row r="825" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A825" s="18">
         <v>2022</v>
       </c>
@@ -27070,7 +27069,7 @@
       </c>
       <c r="J825" s="24"/>
     </row>
-    <row r="826" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A826" s="18">
         <v>2022</v>
       </c>
@@ -27100,7 +27099,7 @@
       </c>
       <c r="J826" s="24"/>
     </row>
-    <row r="827" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A827" s="18">
         <v>2022</v>
       </c>
@@ -27130,7 +27129,7 @@
       </c>
       <c r="J827" s="24"/>
     </row>
-    <row r="828" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A828" s="18">
         <v>2022</v>
       </c>
@@ -27160,7 +27159,7 @@
       </c>
       <c r="J828" s="24"/>
     </row>
-    <row r="829" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A829" s="18">
         <v>2022</v>
       </c>
@@ -27190,7 +27189,7 @@
       </c>
       <c r="J829" s="24"/>
     </row>
-    <row r="830" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A830" s="18">
         <v>2022</v>
       </c>
@@ -27220,7 +27219,7 @@
       </c>
       <c r="J830" s="24"/>
     </row>
-    <row r="831" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A831" s="18">
         <v>2022</v>
       </c>
@@ -27250,7 +27249,7 @@
       </c>
       <c r="J831" s="24"/>
     </row>
-    <row r="832" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A832" s="18">
         <v>2022</v>
       </c>
@@ -27280,7 +27279,7 @@
       </c>
       <c r="J832" s="24"/>
     </row>
-    <row r="833" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A833" s="18">
         <v>2022</v>
       </c>
@@ -27310,7 +27309,7 @@
       </c>
       <c r="J833" s="24"/>
     </row>
-    <row r="834" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A834" s="18">
         <v>2022</v>
       </c>
@@ -27340,7 +27339,7 @@
       </c>
       <c r="J834" s="24"/>
     </row>
-    <row r="835" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A835" s="18">
         <v>2022</v>
       </c>
@@ -27370,7 +27369,7 @@
       </c>
       <c r="J835" s="24"/>
     </row>
-    <row r="836" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A836" s="18">
         <v>2022</v>
       </c>
@@ -27400,7 +27399,7 @@
       </c>
       <c r="J836" s="24"/>
     </row>
-    <row r="837" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A837" s="18">
         <v>2022</v>
       </c>
@@ -27430,7 +27429,7 @@
       </c>
       <c r="J837" s="24"/>
     </row>
-    <row r="838" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A838" s="18">
         <v>2022</v>
       </c>
@@ -27460,7 +27459,7 @@
       </c>
       <c r="J838" s="24"/>
     </row>
-    <row r="839" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A839" s="18">
         <v>2022</v>
       </c>
@@ -27490,7 +27489,7 @@
       </c>
       <c r="J839" s="24"/>
     </row>
-    <row r="840" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A840" s="18">
         <v>2022</v>
       </c>
@@ -27520,7 +27519,7 @@
       </c>
       <c r="J840" s="24"/>
     </row>
-    <row r="841" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A841" s="18">
         <v>2022</v>
       </c>
@@ -27550,7 +27549,7 @@
       </c>
       <c r="J841" s="24"/>
     </row>
-    <row r="842" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A842" s="18">
         <v>2022</v>
       </c>
@@ -27580,7 +27579,7 @@
       </c>
       <c r="J842" s="24"/>
     </row>
-    <row r="843" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A843" s="18">
         <v>2022</v>
       </c>
@@ -27610,7 +27609,7 @@
       </c>
       <c r="J843" s="24"/>
     </row>
-    <row r="844" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A844" s="18">
         <v>2022</v>
       </c>
@@ -27640,7 +27639,7 @@
       </c>
       <c r="J844" s="24"/>
     </row>
-    <row r="845" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A845" s="18">
         <v>2022</v>
       </c>
@@ -27670,7 +27669,7 @@
       </c>
       <c r="J845" s="24"/>
     </row>
-    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A846" s="18">
         <v>2022</v>
       </c>
@@ -27700,7 +27699,7 @@
       </c>
       <c r="J846" s="24"/>
     </row>
-    <row r="847" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A847" s="18">
         <v>2022</v>
       </c>
@@ -27730,7 +27729,7 @@
       </c>
       <c r="J847" s="24"/>
     </row>
-    <row r="848" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A848" s="18">
         <v>2022</v>
       </c>
@@ -27760,7 +27759,7 @@
       </c>
       <c r="J848" s="24"/>
     </row>
-    <row r="849" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A849" s="18">
         <v>2022</v>
       </c>
@@ -27790,7 +27789,7 @@
       </c>
       <c r="J849" s="24"/>
     </row>
-    <row r="850" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A850" s="18">
         <v>2022</v>
       </c>
@@ -27820,7 +27819,7 @@
       </c>
       <c r="J850" s="24"/>
     </row>
-    <row r="851" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A851" s="18">
         <v>2022</v>
       </c>
@@ -27850,7 +27849,7 @@
       </c>
       <c r="J851" s="24"/>
     </row>
-    <row r="852" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A852" s="18">
         <v>2022</v>
       </c>
@@ -27880,7 +27879,7 @@
       </c>
       <c r="J852" s="24"/>
     </row>
-    <row r="853" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A853" s="18">
         <v>2022</v>
       </c>
@@ -27910,7 +27909,7 @@
       </c>
       <c r="J853" s="24"/>
     </row>
-    <row r="854" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A854" s="18">
         <v>2022</v>
       </c>
@@ -27940,7 +27939,7 @@
       </c>
       <c r="J854" s="24"/>
     </row>
-    <row r="855" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A855" s="18">
         <v>2022</v>
       </c>
@@ -27970,7 +27969,7 @@
       </c>
       <c r="J855" s="24"/>
     </row>
-    <row r="856" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A856" s="18">
         <v>2022</v>
       </c>
@@ -28000,7 +27999,7 @@
       </c>
       <c r="J856" s="24"/>
     </row>
-    <row r="857" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A857" s="18">
         <v>2022</v>
       </c>
@@ -28030,7 +28029,7 @@
       </c>
       <c r="J857" s="24"/>
     </row>
-    <row r="858" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A858" s="18">
         <v>2022</v>
       </c>
@@ -28060,7 +28059,7 @@
       </c>
       <c r="J858" s="24"/>
     </row>
-    <row r="859" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A859" s="18">
         <v>2022</v>
       </c>
@@ -28090,7 +28089,7 @@
       </c>
       <c r="J859" s="24"/>
     </row>
-    <row r="860" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A860" s="18">
         <v>2022</v>
       </c>
@@ -28120,7 +28119,7 @@
       </c>
       <c r="J860" s="24"/>
     </row>
-    <row r="861" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A861" s="18">
         <v>2022</v>
       </c>
@@ -28150,7 +28149,7 @@
       </c>
       <c r="J861" s="24"/>
     </row>
-    <row r="862" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A862" s="18">
         <v>2022</v>
       </c>
@@ -28180,7 +28179,7 @@
       </c>
       <c r="J862" s="24"/>
     </row>
-    <row r="863" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A863" s="18">
         <v>2022</v>
       </c>
@@ -28210,7 +28209,7 @@
       </c>
       <c r="J863" s="24"/>
     </row>
-    <row r="864" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A864" s="18">
         <v>2022</v>
       </c>
@@ -28240,7 +28239,7 @@
       </c>
       <c r="J864" s="24"/>
     </row>
-    <row r="865" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A865" s="18">
         <v>2022</v>
       </c>
@@ -28270,13 +28269,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I865" xr:uid="{E700F45D-73E7-2D48-9342-61286977DAA2}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2020"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I865" xr:uid="{E700F45D-73E7-2D48-9342-61286977DAA2}"/>
   <sortState ref="A2:I865">
     <sortCondition ref="A2:A865"/>
     <sortCondition ref="B2:B865"/>
@@ -49847,7 +49840,7 @@
         <v>71028</v>
       </c>
       <c r="I722" s="20">
-        <f>+SUM(D722:H722)</f>
+        <f t="shared" ref="I722:I745" si="0">+SUM(D722:H722)</f>
         <v>4667183</v>
       </c>
       <c r="J722" s="24"/>
@@ -49878,7 +49871,7 @@
         <v>31791</v>
       </c>
       <c r="I723" s="20">
-        <f>+SUM(D723:H723)</f>
+        <f t="shared" si="0"/>
         <v>1536771</v>
       </c>
       <c r="J723" s="24"/>
@@ -49909,7 +49902,7 @@
         <v>2234</v>
       </c>
       <c r="I724" s="20">
-        <f>+SUM(D724:H724)</f>
+        <f t="shared" si="0"/>
         <v>67008</v>
       </c>
       <c r="J724" s="24"/>
@@ -49940,7 +49933,7 @@
         <v>2356</v>
       </c>
       <c r="I725" s="20">
-        <f>+SUM(D725:H725)</f>
+        <f t="shared" si="0"/>
         <v>143564</v>
       </c>
       <c r="J725" s="24"/>
@@ -49971,7 +49964,7 @@
         <v>8828</v>
       </c>
       <c r="I726" s="20">
-        <f>+SUM(D726:H726)</f>
+        <f t="shared" si="0"/>
         <v>162805</v>
       </c>
       <c r="J726" s="24"/>
@@ -50002,7 +49995,7 @@
         <v>9657</v>
       </c>
       <c r="I727" s="20">
-        <f>+SUM(D727:H727)</f>
+        <f t="shared" si="0"/>
         <v>1026435</v>
       </c>
       <c r="J727" s="24"/>
@@ -50033,7 +50026,7 @@
         <v>5323</v>
       </c>
       <c r="I728" s="20">
-        <f>+SUM(D728:H728)</f>
+        <f t="shared" si="0"/>
         <v>144997</v>
       </c>
       <c r="J728" s="24"/>
@@ -50064,7 +50057,7 @@
         <v>12592</v>
       </c>
       <c r="I729" s="20">
-        <f>+SUM(D729:H729)</f>
+        <f t="shared" si="0"/>
         <v>269352</v>
       </c>
       <c r="J729" s="24"/>
@@ -50095,7 +50088,7 @@
         <v>212</v>
       </c>
       <c r="I730" s="20">
-        <f>+SUM(D730:H730)</f>
+        <f t="shared" si="0"/>
         <v>67881</v>
       </c>
       <c r="J730" s="24"/>
@@ -50126,7 +50119,7 @@
         <v>2377</v>
       </c>
       <c r="I731" s="20">
-        <f>+SUM(D731:H731)</f>
+        <f t="shared" si="0"/>
         <v>115314</v>
       </c>
       <c r="J731" s="24"/>
@@ -50157,7 +50150,7 @@
         <v>1264</v>
       </c>
       <c r="I732" s="20">
-        <f>+SUM(D732:H732)</f>
+        <f t="shared" si="0"/>
         <v>111527</v>
       </c>
       <c r="J732" s="24"/>
@@ -50188,7 +50181,7 @@
         <v>31</v>
       </c>
       <c r="I733" s="20">
-        <f>+SUM(D733:H733)</f>
+        <f t="shared" si="0"/>
         <v>86030</v>
       </c>
       <c r="J733" s="24"/>
@@ -50219,7 +50212,7 @@
         <v>1927</v>
       </c>
       <c r="I734" s="20">
-        <f>+SUM(D734:H734)</f>
+        <f t="shared" si="0"/>
         <v>279562</v>
       </c>
       <c r="J734" s="24"/>
@@ -50250,7 +50243,7 @@
         <v>7622</v>
       </c>
       <c r="I735" s="20">
-        <f>+SUM(D735:H735)</f>
+        <f t="shared" si="0"/>
         <v>178813</v>
       </c>
       <c r="J735" s="24"/>
@@ -50281,7 +50274,7 @@
         <v>1119</v>
       </c>
       <c r="I736" s="20">
-        <f>+SUM(D736:H736)</f>
+        <f t="shared" si="0"/>
         <v>161968</v>
       </c>
       <c r="J736" s="24"/>
@@ -50312,7 +50305,7 @@
         <v>18968</v>
       </c>
       <c r="I737" s="20">
-        <f>+SUM(D737:H737)</f>
+        <f t="shared" si="0"/>
         <v>159764</v>
       </c>
       <c r="J737" s="24"/>
@@ -50343,7 +50336,7 @@
         <v>7190</v>
       </c>
       <c r="I738" s="20">
-        <f>+SUM(D738:H738)</f>
+        <f t="shared" si="0"/>
         <v>203177</v>
       </c>
       <c r="J738" s="24"/>
@@ -50374,7 +50367,7 @@
         <v>7916</v>
       </c>
       <c r="I739" s="20">
-        <f>+SUM(D739:H739)</f>
+        <f t="shared" si="0"/>
         <v>100407</v>
       </c>
       <c r="J739" s="24"/>
@@ -50405,7 +50398,7 @@
         <v>14985</v>
       </c>
       <c r="I740" s="20">
-        <f>+SUM(D740:H740)</f>
+        <f t="shared" si="0"/>
         <v>121741</v>
       </c>
       <c r="J740" s="24"/>
@@ -50436,7 +50429,7 @@
         <v>579</v>
       </c>
       <c r="I741" s="20">
-        <f>+SUM(D741:H741)</f>
+        <f t="shared" si="0"/>
         <v>49185</v>
       </c>
       <c r="J741" s="24"/>
@@ -50467,7 +50460,7 @@
         <v>19550</v>
       </c>
       <c r="I742" s="20">
-        <f>+SUM(D742:H742)</f>
+        <f t="shared" si="0"/>
         <v>878859</v>
       </c>
       <c r="J742" s="24"/>
@@ -50498,7 +50491,7 @@
         <v>2922</v>
       </c>
       <c r="I743" s="20">
-        <f>+SUM(D743:H743)</f>
+        <f t="shared" si="0"/>
         <v>118044</v>
       </c>
       <c r="J743" s="24"/>
@@ -50529,7 +50522,7 @@
         <v>651</v>
       </c>
       <c r="I744" s="20">
-        <f>+SUM(D744:H744)</f>
+        <f t="shared" si="0"/>
         <v>53770</v>
       </c>
       <c r="J744" s="24"/>
@@ -50560,7 +50553,7 @@
         <v>487</v>
       </c>
       <c r="I745" s="20">
-        <f>+SUM(D745:H745)</f>
+        <f t="shared" si="0"/>
         <v>254527</v>
       </c>
       <c r="J745" s="24"/>
